--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35102989" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35202496" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ35303004" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ35407519" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ35509688" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ35611216" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35712726" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35814238" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35918755" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ36020264" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ36125927" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ36228561" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ36330066" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ36433575" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ36536203" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ36638730" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ36740239" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ36842748" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ36945911" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ37050578" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ37153740" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ37256245" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ37357753" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ37458374" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ37562064" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ37664574" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ37770085" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ37892600" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ37998108" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ38103618" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ38206127" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ38309349" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ38412179" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ38515691" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ38618201" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ38724713" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ38827221" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ38930732" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ39033241" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ39138756" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ39242265" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ39345778" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ39447287" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ39549797" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ39653817" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ39759339" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ39861847" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ39965354" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ40071294" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ40175319" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ36383949" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36496493" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36637294" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36786156" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36934893" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37066071" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37210245" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ37361286" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37507490" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ37658509" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ37807377" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ37954459" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ38107977" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ38260075" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ38411594" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38547616" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38694481" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ38844720" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ38998231" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ39228253" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ39376555" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ39525912" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ39680436" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ39829462" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ39992177" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ40143238" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ40290743" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ40431276" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ40567856" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ40719042" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ40869764" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ41009256" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ41149306" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ41300316" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ41449859" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ41598687" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ41745743" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ41900769" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ42048899" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ42193411" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ42361453" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ42532514" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ42680025" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ42829051" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ42972561" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ43119211" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ43257229" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ43395272" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ43536075" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ43697992" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ36383949" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36496493" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36637294" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36786156" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ36934893" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37066071" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37210245" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ37361286" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37507490" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ37658509" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ37807377" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ37954459" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ38107977" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ38260075" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ38411594" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38547616" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38694481" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ38844720" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ38998231" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ39228253" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ39376555" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ39525912" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ39680436" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ39829462" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ39992177" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ40143238" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ40290743" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ40431276" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ40567856" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ40719042" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ40869764" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ41009256" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ41149306" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ41300316" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ41449859" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ41598687" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ41745743" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ41900769" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ42048899" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ42193411" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ42361453" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ42532514" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ42680025" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ42829051" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ42972561" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ43119211" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ43257229" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ43395272" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ43536075" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ43697992" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ42786386" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42901290" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43007532" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43132758" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43311834" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43412108" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ43512791" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43613804" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43713318" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ43820005" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ43932875" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ44046622" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ44152929" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ44260959" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ44372386" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ44490045" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ44607912" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ44729119" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ44870606" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ45023668" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ45176704" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ45324738" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ45490738" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ45680281" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ45924710" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ46229559" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ46424232" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ46615992" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ46786419" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ46945960" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ47120886" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ47294680" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ47471255" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ47642245" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ47808058" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ47983585" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ48162611" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ48330979" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ48499331" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ48664755" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ48839935" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ49009224" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ49173903" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ49344770" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ49508425" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ49676209" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ49847611" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ50004478" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ50124622" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ50253731" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-307.3402019128938</v>
+        <v>-295.9374155473961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8004432855923155</v>
+        <v>0.8024181302860108</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.13359958226003</v>
+        <v>53.11961701639936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07473875664811278</v>
+        <v>0.07344892802407475</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.8795740178878</v>
+        <v>139.6557901072611</v>
       </c>
       <c r="C4" t="n">
-        <v>4.35255654559058e-10</v>
+        <v>1.280830407679473e-10</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02216607484323957</v>
+        <v>-0.0220763700336963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05091667729290893</v>
+        <v>0.04709876135480334</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.848448245187914e-05</v>
+        <v>3.878781423857016e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03576453381311296</v>
+        <v>0.02190860848615772</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.893691552399907</v>
+        <v>2.862627477617359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5789400390238217</v>
+        <v>0.5777887528439926</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.746548197135301</v>
+        <v>-3.817182696366135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5626208458152931</v>
+        <v>0.5408696163144235</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-488.9979278149235</v>
+        <v>-493.4242037354456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4974096788049726</v>
+        <v>0.4872913627570555</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407.7261072495758</v>
+        <v>406.0234314162259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4152273058257882</v>
+        <v>0.4136142596738732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.41827567139353</v>
+        <v>10439.94194885337</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9647018526293866</v>
+        <v>2.623587746968134e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10445.08465381078</v>
+        <v>2.145772014366322</v>
       </c>
       <c r="C12" t="n">
-        <v>3.600356843350446e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.09884868192561</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8683687238783582</v>
+        <v>0.8643594606659133</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.250458905879</v>
+        <v>447.9717782436792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7305912283083518</v>
+        <v>0.6927067539285194</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.42529987049394</v>
+        <v>61.45339782238013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01880340928951816</v>
+        <v>0.01822197246605911</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.2135723469315</v>
+        <v>123.1729664575583</v>
       </c>
       <c r="C4" t="n">
-        <v>2.090419679434807e-09</v>
+        <v>4.371743523124071e-10</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02542722300799828</v>
+        <v>-0.02529006392801222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02016378003656867</v>
+        <v>0.01994188512338602</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.106250245106001e-05</v>
+        <v>4.218299512314569e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01661193064570113</v>
+        <v>0.007762901257065592</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.433714406461394</v>
+        <v>2.257396033305316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6410663283455111</v>
+        <v>0.6579595725175105</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.142230942693452</v>
+        <v>-1.428253961209515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8542431262989589</v>
+        <v>0.8109973537002337</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1247.044135249949</v>
+        <v>-1264.528515106012</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0393170078652356</v>
+        <v>0.03335682401733017</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.8370676413952</v>
+        <v>540.4717710064822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2580337389807444</v>
+        <v>0.2570284238154621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.6871251124307</v>
+        <v>9452.299389152546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8610779793372845</v>
+        <v>2.590146362339194e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9462.37760252746</v>
+        <v>-12.61620463911819</v>
       </c>
       <c r="C12" t="n">
-        <v>3.169864340833467e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-12.87724671451477</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666127209567015</v>
+        <v>0.2702157257886212</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>747.7406596748158</v>
+        <v>729.4473171339416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4942984456565654</v>
+        <v>0.4943686954028348</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.5257524113033</v>
+        <v>61.45300588959665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02347134551169457</v>
+        <v>0.02292251386715094</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.8722554126765</v>
+        <v>118.337254928097</v>
       </c>
       <c r="C4" t="n">
-        <v>1.538295708243199e-08</v>
+        <v>3.343256790089498e-09</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0258338461748259</v>
+        <v>-0.02600653388568624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.028423972803376</v>
+        <v>0.02445399636235395</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.101101054747374e-05</v>
+        <v>4.053632407322684e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01849342840821615</v>
+        <v>0.01344539950474217</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.110481303347095</v>
+        <v>2.164934161408938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6645598776336644</v>
+        <v>0.6521125420767034</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.210291264889765</v>
+        <v>-3.096060361137397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5824116145340964</v>
+        <v>0.5839454182717045</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1668.288298388982</v>
+        <v>-1663.166754839703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003868852503191562</v>
+        <v>0.003619415895763072</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.08884510921098</v>
+        <v>54.70009416909761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9152180347661937</v>
+        <v>0.910395566677572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-54.28459624853645</v>
+        <v>9134.466265431556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.932558891494786</v>
+        <v>9.341728361621824e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9124.108458189565</v>
+        <v>-4.838816772838324</v>
       </c>
       <c r="C12" t="n">
-        <v>1.390226999200071e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.725917819131471</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6658039630700043</v>
+        <v>0.654428599239369</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-913.7501140978598</v>
+        <v>-757.5407560844133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4711213941486253</v>
+        <v>0.5375445241456918</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.25381424260463</v>
+        <v>80.86233011923784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008147866096769468</v>
+        <v>0.008211385747699649</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.4984425411085</v>
+        <v>145.1189892052501</v>
       </c>
       <c r="C4" t="n">
-        <v>1.792510145668475e-10</v>
+        <v>6.437075150096721e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02084141093387186</v>
+        <v>-0.02024297317627206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0661864137825235</v>
+        <v>0.07183829377395989</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.354374243697906e-05</v>
+        <v>4.669090088569371e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01733800415971501</v>
+        <v>0.00693061594222197</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.739205123582817</v>
+        <v>6.257239575403789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1783322081150232</v>
+        <v>0.2020421374247139</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.457809297385806</v>
+        <v>3.39994499536612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5390880150954558</v>
+        <v>0.6248515046964555</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1294.337443863024</v>
+        <v>-1344.026696974776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04023437403134444</v>
+        <v>0.03080988199473685</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-232.2141490995978</v>
+        <v>-238.872963519254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6510479956145676</v>
+        <v>0.6405245541802357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.7113714058554</v>
+        <v>10708.44201571418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5956864001859679</v>
+        <v>4.840920139574397e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10725.26088675013</v>
+        <v>-4.52417409660179</v>
       </c>
       <c r="C12" t="n">
-        <v>5.479186311595606e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.303190368594592</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6685126863745272</v>
+        <v>0.7120083127528364</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.38174503407026</v>
+        <v>-69.08757054342641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9625163213104956</v>
+        <v>0.9537204317845482</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.58053918952965</v>
+        <v>65.9824247048183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03789443577303208</v>
+        <v>0.0422445666487961</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.3590705566164</v>
+        <v>132.4257057878202</v>
       </c>
       <c r="C4" t="n">
-        <v>1.11041099208313e-07</v>
+        <v>6.184696675411184e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02954020836992026</v>
+        <v>-0.02962976979740715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02720173981947497</v>
+        <v>0.02620429618202351</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.891399986319006e-05</v>
+        <v>5.367830488953748e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006640461857274823</v>
+        <v>0.004474144889089234</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.904578935648727</v>
+        <v>5.183413318213905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.337325614079569</v>
+        <v>0.3061221061183832</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.641203735089913</v>
+        <v>-3.816758457165989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4675621002050716</v>
+        <v>0.5347937434309209</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-958.7624847863121</v>
+        <v>-898.7398025169246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1300783610221502</v>
+        <v>0.1467322221123599</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.1367922530949</v>
+        <v>240.1880514511513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6645619599869823</v>
+        <v>0.6403764839967856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-394.6569857282866</v>
+        <v>10543.63391930146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6166092080349136</v>
+        <v>7.341829927785871e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10551.47896428337</v>
+        <v>-4.398895105420625</v>
       </c>
       <c r="C12" t="n">
-        <v>8.54083353391325e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.920357381808735</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7477636388805209</v>
+        <v>0.7164538049122073</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-474.8196647959071</v>
+        <v>-543.4127337127222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7185973533729878</v>
+        <v>0.6739984449169358</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.84948993028371</v>
+        <v>73.91239853051522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009759958455621208</v>
+        <v>0.009390408924983419</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.6720551791009</v>
+        <v>124.3379399869226</v>
       </c>
       <c r="C4" t="n">
-        <v>4.973773856362904e-08</v>
+        <v>1.045013154948181e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01885230057192977</v>
+        <v>-0.0194417842383907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1260413957961806</v>
+        <v>0.1084880429846674</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.222486882150566e-05</v>
+        <v>3.042888014296989e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09155336058920838</v>
+        <v>0.09125228015268147</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.53402518460299</v>
+        <v>4.85606561973557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3840110468440816</v>
+        <v>0.3384607999819824</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.35390037158286</v>
+        <v>-3.877897255981608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4977735234264379</v>
+        <v>0.5309446141607019</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-755.1778295317267</v>
+        <v>-734.0416810322426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2453639147999397</v>
+        <v>0.2538276011798191</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.3999487438496</v>
+        <v>112.5350604910225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8187636405217088</v>
+        <v>0.8177881735471888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-195.2943065354802</v>
+        <v>10474.41432371935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7672996338245992</v>
+        <v>1.058914606620415e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10434.56666625511</v>
+        <v>11.97062941117143</v>
       </c>
       <c r="C12" t="n">
-        <v>1.791678311419614e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.6175421673036</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3732918821427661</v>
+        <v>0.3904945001816607</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.8511253406327</v>
+        <v>57.35787311529384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9282085204294597</v>
+        <v>0.9584793215667341</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.92452554311313</v>
+        <v>81.88957482852902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001462912309269716</v>
+        <v>0.00139852103512846</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.4860017715915</v>
+        <v>124.4698163657012</v>
       </c>
       <c r="C4" t="n">
-        <v>7.888952136865277e-10</v>
+        <v>1.287207008951998e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01433698935972682</v>
+        <v>-0.01442403429318974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1937419744393655</v>
+        <v>0.1887258555627263</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.730515473099379e-05</v>
+        <v>3.61720041919479e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02018580713704222</v>
+        <v>0.01497800319852262</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.405604400201126</v>
+        <v>1.609548973315048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7843016913190661</v>
+        <v>0.7476762539887976</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.68070448788928</v>
+        <v>-1.34022122968341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7912905856974046</v>
+        <v>0.8253477254032525</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1149.041605536275</v>
+        <v>-1140.678294415106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03204903115047266</v>
+        <v>0.03194761450518697</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301.0005234763075</v>
+        <v>291.5947656762592</v>
       </c>
       <c r="C10" t="n">
-        <v>0.532286997651396</v>
+        <v>0.5412832779165507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-110.953257249379</v>
+        <v>9161.11293986182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8470342332713814</v>
+        <v>4.090399354611765e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9156.929499630247</v>
+        <v>-3.661714864145409</v>
       </c>
       <c r="C12" t="n">
-        <v>5.219238375704718e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.39512888472262</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7509448666293115</v>
+        <v>0.728789319686165</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-322.3125772137882</v>
+        <v>-273.1021424364694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7859793043168379</v>
+        <v>0.8137865612578137</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.7030998220232</v>
+        <v>82.83298443192631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004046670332116636</v>
+        <v>0.003823552881923836</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.0765647528105</v>
+        <v>124.8095926784499</v>
       </c>
       <c r="C4" t="n">
-        <v>3.397022618923158e-09</v>
+        <v>8.858238570218062e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02151756966410111</v>
+        <v>-0.02126513139714696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05605420497056472</v>
+        <v>0.05646512857189195</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.819175692002033e-05</v>
+        <v>3.94502152663649e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02455501996332402</v>
+        <v>0.0130251741354197</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.198630897173464</v>
+        <v>4.019857963761812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3986385095011155</v>
+        <v>0.4102548417907079</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.552340594947784</v>
+        <v>-2.845405838226139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6839253437820914</v>
+        <v>0.640479048677598</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-495.5297738423451</v>
+        <v>-515.2580142136812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4427207616643922</v>
+        <v>0.418011334467604</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.06000752055093</v>
+        <v>67.24609787775898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.892280893645055</v>
+        <v>0.893085710431986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.7845132674022</v>
+        <v>10400.29208267675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8299097072761255</v>
+        <v>4.048601618344078e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10413.48190375228</v>
+        <v>1.811659696865959</v>
       </c>
       <c r="C12" t="n">
-        <v>4.999706023979595e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.564745384401903</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8954403730952061</v>
+        <v>0.8779595606961192</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.1092775579527</v>
+        <v>445.0936616726667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.727671479299927</v>
+        <v>0.7330950591258878</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.32153888114418</v>
+        <v>85.33985757872075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005685563810517263</v>
+        <v>0.005454269342284793</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1365261155261</v>
+        <v>120.5681075169594</v>
       </c>
       <c r="C4" t="n">
-        <v>6.279600284659082e-08</v>
+        <v>1.945046180826565e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01617546541086212</v>
+        <v>-0.01636414896856948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2004886228019291</v>
+        <v>0.185661594398562</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.898790717938199e-05</v>
+        <v>2.847645085344962e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1435185368079686</v>
+        <v>0.1278171358014862</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.041298063346339</v>
+        <v>6.104547829951283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2337794477605509</v>
+        <v>0.2212823730747311</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.18578698476697</v>
+        <v>-3.04664217995925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6461890357889529</v>
+        <v>0.6490104083997408</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1380.689327951198</v>
+        <v>-1374.194515820241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02494641204433147</v>
+        <v>0.02373211199164542</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-370.3068279935803</v>
+        <v>-368.418263142489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4851910654776024</v>
+        <v>0.4849726980108746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-55.73378445647882</v>
+        <v>10293.82426215811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9352136886435859</v>
+        <v>1.36642431738343e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10292.59006520106</v>
+        <v>-8.532031064960876</v>
       </c>
       <c r="C12" t="n">
-        <v>1.707349913348044e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.380362925108592</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5486113617046922</v>
+        <v>0.5358729908465739</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1039.488579094842</v>
+        <v>-1040.221953311705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4073704794767986</v>
+        <v>0.3961679701392854</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.87771395536551</v>
+        <v>62.87402266294393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04289273923507628</v>
+        <v>0.04178628123390155</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.6501507596901</v>
+        <v>150.6680308429578</v>
       </c>
       <c r="C4" t="n">
-        <v>5.352340474966832e-10</v>
+        <v>1.294617088331991e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02136653634390955</v>
+        <v>-0.02137185001196375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08576815427180488</v>
+        <v>0.08123548271567232</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.262621233274178e-05</v>
+        <v>4.26045841899476e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03517643865423591</v>
+        <v>0.02407293362988597</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.402199629195286</v>
+        <v>8.405624126733372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1375697083901547</v>
+        <v>0.1279419074840016</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7705003154149956</v>
+        <v>-0.7643310595012602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9089435638852639</v>
+        <v>0.904949574577625</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1104.018199748721</v>
+        <v>-1103.830791703435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06811448362608886</v>
+        <v>0.06549542701739798</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.558144699547</v>
+        <v>110.5564351686835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8351628804030163</v>
+        <v>0.8344044194231709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.201694261994135</v>
+        <v>10916.4777946285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9975478953376746</v>
+        <v>1.132291474791233e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10916.46268738878</v>
+        <v>3.721151794160175</v>
       </c>
       <c r="C12" t="n">
-        <v>1.439602892405032e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.72798031859951</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.769186806288918</v>
+        <v>0.7650317380952546</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>899.3125928984027</v>
+        <v>786.4026803652691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3901960406525111</v>
+        <v>0.4417536226631108</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.48499840241291</v>
+        <v>57.79038771918952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02508314264781845</v>
+        <v>0.02383872898898254</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.3864688670303</v>
+        <v>136.7526275896653</v>
       </c>
       <c r="C4" t="n">
-        <v>3.500919592570021e-11</v>
+        <v>5.104696681484715e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01817532908688604</v>
+        <v>-0.01933221781140426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1020211025173471</v>
+        <v>0.07576059693423558</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.747605221392869e-05</v>
+        <v>4.429162142650906e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003347405638380211</v>
+        <v>0.003161835546057072</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.995717573697876</v>
+        <v>-1.623623528962193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6748975817831673</v>
+        <v>0.7293842137164754</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.13601164939414</v>
+        <v>-8.404241649589263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1346000178395254</v>
+        <v>0.1566632897267387</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-924.7950677198903</v>
+        <v>-887.3301639721908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.100709025051096</v>
+        <v>0.1112290127170611</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.8585838675631</v>
+        <v>480.1149720032031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3124104280558684</v>
+        <v>0.2966905489040076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-342.7590692881472</v>
+        <v>9138.343130760724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5842131083677273</v>
+        <v>1.998684575972923e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9089.322277797386</v>
+        <v>-1.818744790805496</v>
       </c>
       <c r="C12" t="n">
-        <v>3.163171943753441e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.159368358914882</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9099349123636659</v>
+        <v>0.8577250390412992</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.0512725255071</v>
+        <v>49.33788419117263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9201537448045969</v>
+        <v>0.9623552130819329</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.34559700629046</v>
+        <v>68.21232629812216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008390172332145923</v>
+        <v>0.00825729362985533</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.0848430114025</v>
+        <v>122.0142789571292</v>
       </c>
       <c r="C4" t="n">
-        <v>4.958057048555181e-09</v>
+        <v>1.015997936037285e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006581247334150393</v>
+        <v>-0.007589142455352312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5717702677179193</v>
+        <v>0.5037122190144034</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.660262688556504e-05</v>
+        <v>2.435467439953604e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1388799481627248</v>
+        <v>0.1539752943054449</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.355771328000595</v>
+        <v>1.751104055646827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7648733309020805</v>
+        <v>0.6918743795839912</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.254430130133252</v>
+        <v>-1.692025446079875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6840983199811476</v>
+        <v>0.7520706576340965</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1370.503079570746</v>
+        <v>-1354.435304766176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009041399639397259</v>
+        <v>0.009385386239609132</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.4510226813693</v>
+        <v>-31.83210459582051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9661749055622508</v>
+        <v>0.944345880951136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-254.0873879322287</v>
+        <v>9096.328624201135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6736558516427263</v>
+        <v>8.72020140684496e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9132.619107203076</v>
+        <v>4.585588270815094</v>
       </c>
       <c r="C12" t="n">
-        <v>9.742128353129455e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.365961855664608</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6238727718261421</v>
+        <v>0.6694572219477671</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>596.2053153482018</v>
+        <v>419.0394810076803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6299461755529413</v>
+        <v>0.7243950310520972</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.02513222992997</v>
+        <v>73.51867937478269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007100958295161296</v>
+        <v>0.00776597811267536</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.54903069478978</v>
+        <v>103.3829467995029</v>
       </c>
       <c r="C4" t="n">
-        <v>1.278705683041283e-05</v>
+        <v>6.200244339419838e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03294387669458024</v>
+        <v>-0.03220007257477055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008607256983126182</v>
+        <v>0.009480995909685071</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.988545264933514e-05</v>
+        <v>4.556757146940292e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007623800872551684</v>
+        <v>0.006579364730171309</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.886574152958497</v>
+        <v>2.330150661452173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6940597720197745</v>
+        <v>0.6207939925760413</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3868673815292167</v>
+        <v>0.5942800722346377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9500620133569679</v>
+        <v>0.9195218424390182</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1745.186100694732</v>
+        <v>-1687.454107609481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004120520579712293</v>
+        <v>0.004637882818416313</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.298266392331</v>
+        <v>211.1410246996236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6356881555784855</v>
+        <v>0.6513358375243837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-348.3988748325428</v>
+        <v>8820.093749090731</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5912468066828321</v>
+        <v>6.897837168577537e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8754.436009173209</v>
+        <v>-3.836422077713351</v>
       </c>
       <c r="C12" t="n">
-        <v>1.158147967215562e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.424663084598976</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7726619788144878</v>
+        <v>0.7449087520636742</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>852.484396715206</v>
+        <v>680.7873215653199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4944941512237359</v>
+        <v>0.5770059171627757</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.82701447840707</v>
+        <v>47.32714252665896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.112928871723116</v>
+        <v>0.1157350585641093</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.6466096344546</v>
+        <v>132.9751487545749</v>
       </c>
       <c r="C4" t="n">
-        <v>1.469993231625038e-08</v>
+        <v>1.284697988698378e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02258684569692149</v>
+        <v>-0.02329569953166977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09998276210214214</v>
+        <v>0.08829683205483842</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.886046762616966e-05</v>
+        <v>4.343787814378251e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01943444989311994</v>
+        <v>0.0247083713978304</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4496848081977274</v>
+        <v>1.083229866539675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9301563433826736</v>
+        <v>0.8298333386375286</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.816360925487324</v>
+        <v>-6.467990094516966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2511038248451732</v>
+        <v>0.3208568864698655</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1576.391249404848</v>
+        <v>-1501.847421589632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01083516506312378</v>
+        <v>0.01339779071409241</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.1369287057598</v>
+        <v>212.9828663767134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6960333428038502</v>
+        <v>0.6797739900010507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-498.5024025434686</v>
+        <v>9587.319997987121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4803812021510916</v>
+        <v>2.960296900642168e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9606.928344363185</v>
+        <v>-0.2321354773382325</v>
       </c>
       <c r="C12" t="n">
-        <v>3.105339164447585e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.25742676983613</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9232881568382001</v>
+        <v>0.9855945353031657</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-140.0691045700821</v>
+        <v>-183.7132882879525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8997527933037203</v>
+        <v>0.8662360897983957</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.18636685276664</v>
+        <v>76.15628429121749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004821769916797306</v>
+        <v>0.00465203098420259</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.7476657889634</v>
+        <v>115.7384355225465</v>
       </c>
       <c r="C4" t="n">
-        <v>1.134074193387488e-08</v>
+        <v>3.284281818667092e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02032357935627022</v>
+        <v>-0.02050501094617092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06271636798630174</v>
+        <v>0.05864450701318034</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.405408387403781e-05</v>
+        <v>2.250374017582788e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1591583545789241</v>
+        <v>0.1493998068496123</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.398403872338449</v>
+        <v>7.58022876719496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1320586141137579</v>
+        <v>0.1163978236996075</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.768481771493583</v>
+        <v>-1.409003556577606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7560390214260346</v>
+        <v>0.7958968568109117</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1172.742659456752</v>
+        <v>-1164.321691655835</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04410824519744198</v>
+        <v>0.04424582854153119</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>203.9705148206564</v>
+        <v>193.5418948408544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6956088217430425</v>
+        <v>0.7081522156003097</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-136.7177064171693</v>
+        <v>9404.84109518122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8186885390435266</v>
+        <v>2.628485601140317e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9399.96065341057</v>
+        <v>0.1342237255403909</v>
       </c>
       <c r="C12" t="n">
-        <v>3.295999089023081e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.3940992142269559</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9722133932424321</v>
+        <v>0.9904445607303745</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-201.153900362799</v>
+        <v>-143.2278783943025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.857482762436409</v>
+        <v>0.8942991386793022</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.0633565375913</v>
+        <v>74.20684278923333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004393874060728154</v>
+        <v>0.004135655250339619</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.1971321413406</v>
+        <v>125.0316585962384</v>
       </c>
       <c r="C4" t="n">
-        <v>1.91568349270357e-09</v>
+        <v>4.766727681699889e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02331090045178798</v>
+        <v>-0.02297115405460078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04037686104912847</v>
+        <v>0.04015048772263474</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.690943800684503e-05</v>
+        <v>4.794365756991597e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007547016164097667</v>
+        <v>0.004169243693143943</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.360557344514504</v>
+        <v>-1.49717404325564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.77769532070849</v>
+        <v>0.7526330104532863</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.307245258833319</v>
+        <v>-3.630368411392929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5835454769387181</v>
+        <v>0.5308013886089119</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-546.2173602392364</v>
+        <v>-555.1649865797694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3557503105193153</v>
+        <v>0.3444417614839884</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>436.3202682590781</v>
+        <v>430.106998011579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3539531935565901</v>
+        <v>0.3576414625500902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.904629401803</v>
+        <v>10337.86242329694</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8398085281607587</v>
+        <v>1.503709261425215e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10390.2004348029</v>
+        <v>5.284408516703015</v>
       </c>
       <c r="C12" t="n">
-        <v>3.364379599372801e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.098949149873198</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6364433636814613</v>
+        <v>0.6214194427260235</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-358.2805520031216</v>
+        <v>-288.3280698139065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7633104741872823</v>
+        <v>0.8052783530041698</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.61763091965868</v>
+        <v>76.36822042023876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008929851847619824</v>
+        <v>0.00787830956714026</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.5833864993119</v>
+        <v>134.3929432960039</v>
       </c>
       <c r="C4" t="n">
-        <v>1.443937125250252e-09</v>
+        <v>5.058928088984012e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02093140273682634</v>
+        <v>-0.0203842275679158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06828234507992358</v>
+        <v>0.07207835857505528</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.818050414690593e-05</v>
+        <v>4.054260712896632e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0291303850899369</v>
+        <v>0.01251653859647027</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.029198749086845</v>
+        <v>5.783047858207546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2203641028658146</v>
+        <v>0.2333619999196104</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.093785406659961</v>
+        <v>0.635156962419595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8683919329395613</v>
+        <v>0.9216198304405812</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1009.726309105605</v>
+        <v>-1044.95110053245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1022222335782782</v>
+        <v>0.08577594584113035</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.84512836553699</v>
+        <v>17.98756365690429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9467694132366289</v>
+        <v>0.9697008681948617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.4891540647423</v>
+        <v>9772.672521886841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7135657249054368</v>
+        <v>2.567126508082692e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9776.683725609633</v>
+        <v>-6.486978353614852</v>
       </c>
       <c r="C12" t="n">
-        <v>3.055349241384353e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.051151235054121</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5491853242389677</v>
+        <v>0.5767524955763879</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-167.9188568668678</v>
+        <v>-206.6531229421071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8998759748825238</v>
+        <v>0.8734226784138702</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.76203883354793</v>
+        <v>97.74100478788392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002508633556030196</v>
+        <v>0.002401471634894862</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.0065726877232</v>
+        <v>128.985451508022</v>
       </c>
       <c r="C4" t="n">
-        <v>7.409791351100546e-08</v>
+        <v>1.074680720618231e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02259511090767439</v>
+        <v>-0.02277761242985632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06908594538873364</v>
+        <v>0.06405778433812577</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.050990993147719e-05</v>
+        <v>4.960418667899846e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008737536544053496</v>
+        <v>0.005714469240128342</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.834809621922817</v>
+        <v>5.997155457518994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28649682751728</v>
+        <v>0.259236027522853</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.090362590142867</v>
+        <v>-0.8299677231978961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.875716981263942</v>
+        <v>0.9009080735550413</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1335.829004162601</v>
+        <v>-1322.738224709225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0314211067235356</v>
+        <v>0.03018144145285612</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-331.6297259470127</v>
+        <v>-333.5781324501966</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5137564574489646</v>
+        <v>0.5091954130581433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-89.46285829527164</v>
+        <v>10351.28618627606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8932369623956661</v>
+        <v>2.426996935973499e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10345.19984759288</v>
+        <v>-3.09735307284225</v>
       </c>
       <c r="C12" t="n">
-        <v>3.193148402027277e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.854968819949336</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8305008025293938</v>
+        <v>0.8138557270961738</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>659.343504985429</v>
+        <v>623.8586882897595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5660898520170498</v>
+        <v>0.5802116413516334</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.56129750874423</v>
+        <v>75.64012666243647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007274773455503336</v>
+        <v>0.006951335713904726</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.9430251792749</v>
+        <v>128.8219387605891</v>
       </c>
       <c r="C4" t="n">
-        <v>4.787632409919357e-10</v>
+        <v>1.018095286018972e-10</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02175173243411156</v>
+        <v>-0.02212424665894836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06839953017706854</v>
+        <v>0.05901436394588764</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.775740521565966e-05</v>
+        <v>4.695520676904701e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009765510701353442</v>
+        <v>0.008648358288622537</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.280767627737945</v>
+        <v>3.40472774489315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5159951046335803</v>
+        <v>0.4946007902395513</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.806833276797892</v>
+        <v>-5.560007191703239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3367302137243724</v>
+        <v>0.3435695951269004</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-980.2960908892292</v>
+        <v>-970.9090510104548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.130285108774339</v>
+        <v>0.1310471918206813</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.30238341494442</v>
+        <v>-23.57121974073789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9626267835428122</v>
+        <v>0.9620250412472309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-117.4123854317288</v>
+        <v>9064.697272596328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8520972714199384</v>
+        <v>1.599463544989126e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9047.315462451537</v>
+        <v>-6.516664984431142</v>
       </c>
       <c r="C12" t="n">
-        <v>2.257525258205016e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.235682331193335</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6018150411101761</v>
+        <v>0.5808498140703131</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.37918582909606</v>
+        <v>-222.5980134186543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9742747469669281</v>
+        <v>0.8490161394732785</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.82713486549639</v>
+        <v>74.90981419663056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00907671669949449</v>
+        <v>0.009080579954603195</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.7157575749556</v>
+        <v>134.413752433185</v>
       </c>
       <c r="C4" t="n">
-        <v>2.065413025124188e-08</v>
+        <v>1.336128251228661e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02391741681797258</v>
+        <v>-0.02477852919927262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05417956227002333</v>
+        <v>0.04606496179740585</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.844599504310968e-05</v>
+        <v>4.887976721796124e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002386719445824121</v>
+        <v>0.004420051970272189</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.945636012116945</v>
+        <v>4.917074361111521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4541655046510805</v>
+        <v>0.3454541910243599</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.378497724453787</v>
+        <v>-1.452626598910815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6020724861961816</v>
+        <v>0.8164157801849562</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1499.553384615932</v>
+        <v>-1369.389733952686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008838238719016034</v>
+        <v>0.01450573435718946</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.9580346011301</v>
+        <v>360.527950854917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4851251457502223</v>
+        <v>0.4725680393802526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-766.8358303569166</v>
+        <v>10276.14041781522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2587409761597829</v>
+        <v>8.418771345040859e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10263.11074335802</v>
+        <v>-4.887453089339015</v>
       </c>
       <c r="C12" t="n">
-        <v>8.846890750150616e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.715427576637236</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8172085764938932</v>
+        <v>0.6737550275968388</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-871.2890811999323</v>
+        <v>-786.897553178469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4988914874596061</v>
+        <v>0.5282264507008656</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.96516898206642</v>
+        <v>94.89000636862031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001196322143011577</v>
+        <v>0.001148170869619493</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.3476642900289</v>
+        <v>131.2978532756366</v>
       </c>
       <c r="C4" t="n">
-        <v>3.740439282205931e-08</v>
+        <v>1.075619242769667e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0149011380964586</v>
+        <v>-0.0148523574961807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212612453540413</v>
+        <v>0.2120862432212207</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.284840499008584e-05</v>
+        <v>3.476969718233188e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07682956868782737</v>
+        <v>0.04340794125374215</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.621746445493397</v>
+        <v>4.377478654712066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3647132777113228</v>
+        <v>0.381525617159824</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5695306996258296</v>
+        <v>0.06079559608286544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9335831361427305</v>
+        <v>0.9926096964288255</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-977.5734159273459</v>
+        <v>-1003.259392664691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1114599958451611</v>
+        <v>0.09725412798206247</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.530644885447145</v>
+        <v>3.693610371205068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9958931578509629</v>
+        <v>0.9939798412908069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.0162374414467</v>
+        <v>10957.29256731338</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7778067687558498</v>
+        <v>6.077124662040406e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10975.61113854929</v>
+        <v>4.16404181368701</v>
       </c>
       <c r="C12" t="n">
-        <v>7.486894584338949e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.851169253647424</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7476355950600321</v>
+        <v>0.7256699298598377</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.2421724625531</v>
+        <v>142.9060745570728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9182056295807584</v>
+        <v>0.9017829098305722</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.89949319874098</v>
+        <v>59.14043628457915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04483642265797173</v>
+        <v>0.04196918190810031</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.7031754514044</v>
+        <v>121.1929073697935</v>
       </c>
       <c r="C4" t="n">
-        <v>8.700841144853862e-09</v>
+        <v>1.640122041490421e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02042439483610646</v>
+        <v>-0.02030664824342995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05396430630717693</v>
+        <v>0.05201047772175121</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.203158731065396e-05</v>
+        <v>3.255909168277751e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05717639345892304</v>
+        <v>0.03563684066239794</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.393121602058386</v>
+        <v>3.299215159471192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4805363515963814</v>
+        <v>0.4779723049798138</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.776838676099874</v>
+        <v>-2.924220861887985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6647163830788592</v>
+        <v>0.6328611198065243</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1224.832724808464</v>
+        <v>-1229.606166832458</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04309019311999988</v>
+        <v>0.04041202702055929</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.337477484400779</v>
+        <v>6.851177621678289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9913306350488074</v>
+        <v>0.9888124918362282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.36263506574835</v>
+        <v>8978.36216095342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9346608278459256</v>
+        <v>9.663675207875846e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8984.072307321811</v>
+        <v>6.106549505223047</v>
       </c>
       <c r="C12" t="n">
-        <v>1.215528466442732e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.991246854848999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6033556210171906</v>
+        <v>0.5919358084596029</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-907.9779327560655</v>
+        <v>-866.139736029425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4908742875232757</v>
+        <v>0.4940737240021917</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.13635625770527</v>
+        <v>76.35252324889662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01054246933551985</v>
+        <v>0.009852400993911346</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.994340940953</v>
+        <v>145.0123529168776</v>
       </c>
       <c r="C4" t="n">
-        <v>1.387499928334647e-09</v>
+        <v>1.325953864117036e-10</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02146252349007768</v>
+        <v>-0.02140109283060029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1061989139791752</v>
+        <v>0.1053297826471663</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.264506668584174e-05</v>
+        <v>4.324570558578994e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02117597402376899</v>
+        <v>0.01488956525668411</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.012227488762697</v>
+        <v>6.934114379931195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1827892417466438</v>
+        <v>0.1823727878284422</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9532472466538593</v>
+        <v>0.7091833169641646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8886789715782093</v>
+        <v>0.9128443644604191</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1100.251090400333</v>
+        <v>-1110.465939469714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06529575955318764</v>
+        <v>0.0591180421298023</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.30837259223301</v>
+        <v>35.16648815424196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9388787999116788</v>
+        <v>0.9435494943991483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.31024448349081</v>
+        <v>10044.99728535145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.90292517132566</v>
+        <v>1.111964782864162e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10059.1204602491</v>
+        <v>2.634739447987689</v>
       </c>
       <c r="C12" t="n">
-        <v>1.510267712038858e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.521879320939197</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8292745842769181</v>
+        <v>0.8203997557863213</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>126.0836502016273</v>
+        <v>242.4251572889907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9172611813191029</v>
+        <v>0.8371221553095691</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.08907986264417</v>
+        <v>63.69823903732119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02819325648370402</v>
+        <v>0.02599070281123431</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.3484876558783</v>
+        <v>123.7278006174328</v>
       </c>
       <c r="C4" t="n">
-        <v>1.325936982460101e-08</v>
+        <v>5.714459328116864e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03103996205949228</v>
+        <v>-0.03015194004059963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01961361785431373</v>
+        <v>0.02118576305719076</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.304046072668792e-05</v>
+        <v>4.567263811808906e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02370123822227511</v>
+        <v>0.01113720406996603</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.306267603020096</v>
+        <v>3.020627815975594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5111646063532411</v>
+        <v>0.5432761653711384</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.855684397954159</v>
+        <v>-2.547745076257076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7723624955495345</v>
+        <v>0.680659085292398</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-969.5128003969775</v>
+        <v>-1004.866500420986</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1076418808231599</v>
+        <v>0.09128577943946246</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311.6487167166215</v>
+        <v>291.2497944382458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55005223646377</v>
+        <v>0.5734183417328576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.3222659846924</v>
+        <v>10358.97535726901</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6650211185326096</v>
+        <v>1.662824162229516e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10392.41009394927</v>
+        <v>-8.233169846721633</v>
       </c>
       <c r="C12" t="n">
-        <v>1.834243592064266e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.602806612207466</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5104572432860777</v>
+        <v>0.5263252317617364</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440.7305804995776</v>
+        <v>454.2870543197082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7307848306473788</v>
+        <v>0.7148138393793637</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.61178059921939</v>
+        <v>63.63263901703537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03536729990842456</v>
+        <v>0.03444185296861371</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.1660380745128</v>
+        <v>129.8442263028591</v>
       </c>
       <c r="C4" t="n">
-        <v>5.226924339048901e-09</v>
+        <v>7.993176691948263e-10</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02047664995932405</v>
+        <v>-0.02044451147086677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1044264678508789</v>
+        <v>0.1028597010580802</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.785561013135604e-05</v>
+        <v>3.812738772489515e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03155658768233759</v>
+        <v>0.02153311755204729</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.390837923064383</v>
+        <v>3.353852090065553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5045205373588199</v>
+        <v>0.5021865649955698</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.380650692497934</v>
+        <v>-5.466596413144643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4263016566317447</v>
+        <v>0.39960183736558</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1236.902221091701</v>
+        <v>-1241.353817510992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04872086111966825</v>
+        <v>0.04448218430806687</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-89.37564403616238</v>
+        <v>-90.40135765616492</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8635661735162514</v>
+        <v>0.8612608503127096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.37474270299072</v>
+        <v>10388.59777457415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9619030218258307</v>
+        <v>5.554581040245862e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10392.02424620488</v>
+        <v>-3.790702102688995</v>
       </c>
       <c r="C12" t="n">
-        <v>7.252206479587952e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.870910388985008</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7486787742908032</v>
+        <v>0.7502559869696466</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>679.5282330126183</v>
+        <v>581.2058943046231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5530549773376545</v>
+        <v>0.602620053812859</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.85109225573862</v>
+        <v>49.01247361458736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06812510340959546</v>
+        <v>0.07094404154415682</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.5235762067019</v>
+        <v>139.8660422185019</v>
       </c>
       <c r="C4" t="n">
-        <v>1.81936273102008e-10</v>
+        <v>1.73383657309095e-11</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02636785934194504</v>
+        <v>-0.02672985022371217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02302808270533501</v>
+        <v>0.02040063685721732</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.422964541730888e-05</v>
+        <v>5.044286278493296e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004769318028382256</v>
+        <v>0.002681992167505933</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.29046360853126</v>
+        <v>4.591801801479409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3938911733786633</v>
+        <v>0.354759627353</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.789976416340039</v>
+        <v>-6.072922263637281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2787462126183076</v>
+        <v>0.3115011338679605</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1082.293777631125</v>
+        <v>-1038.723628726083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0791823714315328</v>
+        <v>0.08593328207217188</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.3041050654423</v>
+        <v>520.8245236080561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2748861779147669</v>
+        <v>0.2697227985060175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-277.6972892784565</v>
+        <v>9416.951768975643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6774646081721889</v>
+        <v>9.140178169025782e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9408.860385938042</v>
+        <v>-12.17692003079915</v>
       </c>
       <c r="C12" t="n">
-        <v>1.147234285225857e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.72387725169943</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3158381612099528</v>
+        <v>0.2936202632256445</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.8337869213483</v>
+        <v>247.4248066654632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7621221065996455</v>
+        <v>0.8337816859739633</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.8315956266037</v>
+        <v>84.01592269072952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007915501565893577</v>
+        <v>0.008189080731597988</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.7934211418195</v>
+        <v>117.0614982193659</v>
       </c>
       <c r="C4" t="n">
-        <v>6.022363116576858e-07</v>
+        <v>7.471775244114031e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02257762718186423</v>
+        <v>-0.02300798377183658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06367178596675091</v>
+        <v>0.05728128148710629</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.148447979702096e-05</v>
+        <v>3.807470476769748e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02868275070120169</v>
+        <v>0.02954274058169592</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6376330565829491</v>
+        <v>1.101034215714268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9046291642266955</v>
+        <v>0.8328200159168537</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.528319329961953</v>
+        <v>-3.819311024226742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501840178269132</v>
+        <v>0.5601182798024968</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1007.908136347461</v>
+        <v>-963.9842783908971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.124434406342202</v>
+        <v>0.1362561810662255</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>277.4384077322735</v>
+        <v>282.2131716061064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5968737716062216</v>
+        <v>0.5891840999141639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-310.7131831760094</v>
+        <v>9649.484104351728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6296552938654199</v>
+        <v>1.206311631297395e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9653.657046061806</v>
+        <v>0.5857036104401132</v>
       </c>
       <c r="C12" t="n">
-        <v>1.371553929668044e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.10741385980004</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.927391398986034</v>
+        <v>0.9612676714439592</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1060.598084366715</v>
+        <v>-967.0061898876972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3798966346885742</v>
+        <v>0.412151230119905</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.52338212008496</v>
+        <v>91.48794338185544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003999285730946931</v>
+        <v>0.0003808610042305634</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.0312813496693</v>
+        <v>122.9468899491637</v>
       </c>
       <c r="C4" t="n">
-        <v>6.578561300896251e-09</v>
+        <v>3.105163378133845e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01928577311051605</v>
+        <v>-0.01851039423876004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09410694284699184</v>
+        <v>0.1013736032504463</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.384999664587902e-05</v>
+        <v>3.5885508078633e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559449519941656</v>
+        <v>0.0335862798377857</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.514050570954688</v>
+        <v>6.210441371595911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1700906363540353</v>
+        <v>0.1830498589415219</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.01417754373621</v>
+        <v>3.389265897416978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5132331381904759</v>
+        <v>0.5659973168019836</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1207.578648579019</v>
+        <v>-1238.275959401927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02557519162236777</v>
+        <v>0.02026587032706588</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-124.4878206399403</v>
+        <v>-127.1370099785206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7826581589994988</v>
+        <v>0.7772757609153161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.0663218077807</v>
+        <v>10714.24046924023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6943452643834793</v>
+        <v>5.26499513223209e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10744.50894272142</v>
+        <v>3.525887402883617</v>
       </c>
       <c r="C12" t="n">
-        <v>6.100786917818326e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.043876329560643</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8032463820041374</v>
+        <v>0.7708991333111751</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-463.8021047298949</v>
+        <v>-492.3792814108327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6993513572438756</v>
+        <v>0.6753526213086891</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.06675096958577</v>
+        <v>68.18534218860543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02348907353542161</v>
+        <v>0.0225705256045929</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.9116906463213</v>
+        <v>130.6532973644207</v>
       </c>
       <c r="C4" t="n">
-        <v>1.364870854017966e-08</v>
+        <v>3.276903659848532e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02052309173533558</v>
+        <v>-0.02069621546977732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08787022880261987</v>
+        <v>0.08197641190614553</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.025921145641341e-05</v>
+        <v>3.94794859342997e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03286305902020439</v>
+        <v>0.02668182572434022</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.988013773858153</v>
+        <v>5.105139055865434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3332091401699304</v>
+        <v>0.3124369317303439</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01850232545634611</v>
+        <v>0.223637220887035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976788575127044</v>
+        <v>0.9709273623405148</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1341.298662062387</v>
+        <v>-1334.477497726289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03025376658852119</v>
+        <v>0.02974175756968787</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-218.8148288411294</v>
+        <v>-219.6978540433581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6866149729365725</v>
+        <v>0.6840383712776701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-83.82710334227113</v>
+        <v>9945.482461621421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8958040079466606</v>
+        <v>2.034896535163481e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9932.51507300865</v>
+        <v>6.706987553347439</v>
       </c>
       <c r="C12" t="n">
-        <v>3.047995496768914e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.961266787560653</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5794971999417264</v>
+        <v>0.5872237985850911</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.96280151070687</v>
+        <v>73.55762082058914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9802573930943523</v>
+        <v>0.9469730767648178</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.71917309605692</v>
+        <v>69.99902633814006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01566181358357532</v>
+        <v>0.01471477200103986</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6482676238888</v>
+        <v>126.2044697818049</v>
       </c>
       <c r="C4" t="n">
-        <v>9.097122814866083e-09</v>
+        <v>2.159165538271159e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01966749044356333</v>
+        <v>-0.01923995329245402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119251015899084</v>
+        <v>0.1212338687629391</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.48468127509827e-05</v>
+        <v>4.637394020025944e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02400178783363619</v>
+        <v>0.01245703458704421</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.733836022298813</v>
+        <v>3.461640211966656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4464578580493199</v>
+        <v>0.4637377410450551</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4262886934191741</v>
+        <v>-0.8259061503164915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9449495665145354</v>
+        <v>0.8882147996918925</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1440.756647301293</v>
+        <v>-1451.202785448766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0107621991620628</v>
+        <v>0.009630184558830111</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-316.0883622065221</v>
+        <v>-311.3239967952154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5030381088601956</v>
+        <v>0.5071529803619738</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.8441863907824</v>
+        <v>9909.49099051446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8254810362559754</v>
+        <v>1.994498281252334e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9902.883055475675</v>
+        <v>-2.04645124951886</v>
       </c>
       <c r="C12" t="n">
-        <v>2.533879773952468e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.570682150925919</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8297266743565681</v>
+        <v>0.8607090347585424</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1219.881700331194</v>
+        <v>-1307.818574343794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.336332736140988</v>
+        <v>0.2873486570876706</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.40098149988845</v>
+        <v>64.50413634037584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02123926809137379</v>
+        <v>0.0204849302687897</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.3484325669554</v>
+        <v>146.8689981828181</v>
       </c>
       <c r="C4" t="n">
-        <v>3.241231249053569e-11</v>
+        <v>4.732731128351434e-12</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01787255318707354</v>
+        <v>-0.01868850323446046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1332300653946916</v>
+        <v>0.1053744888071253</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.143909059556474e-05</v>
+        <v>3.968402320171848e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02265912931917363</v>
+        <v>0.02037218260020104</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.307794866099117</v>
+        <v>9.574962543206262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07648849239019855</v>
+        <v>0.06338440756040682</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.313144521128462</v>
+        <v>5.817920068508968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.44381265602639</v>
+        <v>0.3853299277455584</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1505.851129788751</v>
+        <v>-1476.143054583341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01361118624402231</v>
+        <v>0.01375931201019787</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-107.0561654444446</v>
+        <v>-94.5605510072487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.82731680713474</v>
+        <v>0.8460044237248285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-206.9223283744857</v>
+        <v>10378.86778168431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7657229093801722</v>
+        <v>2.842653794190116e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10370.23742524612</v>
+        <v>-0.7262889496770413</v>
       </c>
       <c r="C12" t="n">
-        <v>3.67672962824891e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.6309849980776292</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.958866965318721</v>
+        <v>0.9524432524907465</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.728185059674</v>
+        <v>1146.331060750582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2982604778351101</v>
+        <v>0.306070879478708</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.75444637083885</v>
+        <v>70.49904229154828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01145533874141209</v>
+        <v>0.01129888151486801</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.2167774716058</v>
+        <v>130.4521855988858</v>
       </c>
       <c r="C4" t="n">
-        <v>6.346187049645222e-10</v>
+        <v>6.796519380442765e-11</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02127114857704571</v>
+        <v>-0.02147113025807559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04592026576870874</v>
+        <v>0.04218586051926467</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.423635772145349e-05</v>
+        <v>4.308861116233141e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005028846630017674</v>
+        <v>0.003401346085851257</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.038843811871102</v>
+        <v>-0.8852605699756815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8297870730844518</v>
+        <v>0.8523194178036121</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.467098528377111</v>
+        <v>-9.149711135288754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1183353538775418</v>
+        <v>0.117299870614993</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-470.378638274663</v>
+        <v>-456.8561793962672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4319393603436987</v>
+        <v>0.4405672407217341</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7341435749156</v>
+        <v>478.3991437737379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3213650977540098</v>
+        <v>0.3185231429584612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-118.8139969300329</v>
+        <v>8564.606477254245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8335839660025328</v>
+        <v>1.213698150630889e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8555.841446475975</v>
+        <v>-7.899467146847595</v>
       </c>
       <c r="C12" t="n">
-        <v>1.510322564118329e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.66045089322585</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4941989232666311</v>
+        <v>0.4766140461337028</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-825.5030373656467</v>
+        <v>-691.1544053232482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5045505748566267</v>
+        <v>0.5658076205474871</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.45951596927442</v>
+        <v>95.2679244435212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001565870591879447</v>
+        <v>0.001537414229406526</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.7047622230103</v>
+        <v>113.6476428684456</v>
       </c>
       <c r="C4" t="n">
-        <v>1.873037013990778e-07</v>
+        <v>1.109171420103839e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02065569395962963</v>
+        <v>-0.02045654594294337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09098052057360841</v>
+        <v>0.09278540663795906</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.276791502324211e-05</v>
+        <v>2.688743735491586e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2584262657260214</v>
+        <v>0.1437557092629869</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.62585751211474</v>
+        <v>4.431329396916563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3416057824108952</v>
+        <v>0.359035533702072</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.057763065536738</v>
+        <v>-2.802400794624241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7553086299015455</v>
+        <v>0.6622652645523759</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-679.0743196709614</v>
+        <v>-747.4661115366935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.303999624452627</v>
+        <v>0.2463587230861362</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.4866365447108</v>
+        <v>324.9912625444397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.494830255252992</v>
+        <v>0.5179312124598119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>361.3627850980098</v>
+        <v>10608.57152116981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.612908461269918</v>
+        <v>2.2122742400494e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10719.7113649521</v>
+        <v>11.30861335727724</v>
       </c>
       <c r="C12" t="n">
-        <v>2.966722030518403e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.61690117284293</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3998151658068607</v>
+        <v>0.3654364316058413</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472.9606021450363</v>
+        <v>541.537027846322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7044585819141778</v>
+        <v>0.6567641750289652</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.36474362267427</v>
+        <v>94.06614123214435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003346135662108085</v>
+        <v>0.002913349461487589</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.2201180322346</v>
+        <v>113.2132393457738</v>
       </c>
       <c r="C4" t="n">
-        <v>3.593001044192666e-07</v>
+        <v>1.195082943648379e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03246994773305069</v>
+        <v>-0.03218623096231317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005982339189491027</v>
+        <v>0.006014831459560456</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.82004287790089e-05</v>
+        <v>5.013114133855774e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006610363569527445</v>
+        <v>0.002201885368739252</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.880184418509778</v>
+        <v>2.585988657185299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5785560190351967</v>
+        <v>0.6092890278242034</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.912999600050998</v>
+        <v>-3.360269918068571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6592662228123685</v>
+        <v>0.5991596704115569</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1297.167625484708</v>
+        <v>-1316.786389194789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02850399214307855</v>
+        <v>0.02462203259191384</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>277.2441724320115</v>
+        <v>278.7649571074094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5962324698237097</v>
+        <v>0.5926185304852523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.60723891149</v>
+        <v>10275.41324392546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7744785938243652</v>
+        <v>4.437563779288379e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10303.91045742616</v>
+        <v>-10.90314299865189</v>
       </c>
       <c r="C12" t="n">
-        <v>5.492429777958523e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.37736059996302</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3612842321034356</v>
+        <v>0.3752821829580437</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1025.683084510156</v>
+        <v>855.9689867377288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4009098429194495</v>
+        <v>0.4726361584175011</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.10002351468643</v>
+        <v>67.01162038167776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0188524715862513</v>
+        <v>0.02027629677129105</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.6621664621093</v>
+        <v>112.273246712719</v>
       </c>
       <c r="C4" t="n">
-        <v>2.866917898146704e-06</v>
+        <v>3.431101619784697e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02845648974865875</v>
+        <v>-0.02842622728930657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02356614161525526</v>
+        <v>0.02335934096109575</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.473566844578814e-05</v>
+        <v>4.003229372909464e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01500307263745333</v>
+        <v>0.01820450045602496</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5935748511677783</v>
+        <v>1.297647404030467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9138008240474129</v>
+        <v>0.809148213180974</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.901250525416685</v>
+        <v>-4.784187796150261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3509155800296502</v>
+        <v>0.4321692441045576</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1409.237447891998</v>
+        <v>-1354.447299408909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01845562406629752</v>
+        <v>0.02181883100941166</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.5978481147876</v>
+        <v>114.8224550002909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8092529713990972</v>
+        <v>0.8313593755999512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-448.1990606521015</v>
+        <v>9860.363249494978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4958793541404629</v>
+        <v>9.999201873767932e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9821.45444187549</v>
+        <v>-5.276447558503037</v>
       </c>
       <c r="C12" t="n">
-        <v>1.381120809666711e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.172617103954671</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7306187897483715</v>
+        <v>0.6596922327163512</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1045.394702546484</v>
+        <v>910.012808337171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3573685801303352</v>
+        <v>0.4112225134565713</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.71170754474213</v>
+        <v>96.47312654879657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001266795292042759</v>
+        <v>0.001361980644831785</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.9153633745514</v>
+        <v>117.2367390926506</v>
       </c>
       <c r="C4" t="n">
-        <v>2.481533067970967e-07</v>
+        <v>1.25736971011546e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03175669126974758</v>
+        <v>-0.03159463096866725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006325154069303025</v>
+        <v>0.006403768649065357</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.773741742637609e-05</v>
+        <v>5.332043187834037e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001570017624872631</v>
+        <v>0.001204303241836511</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8066989888605143</v>
+        <v>-0.3695921103082771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8728240257032169</v>
+        <v>0.9406831059155624</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.197920408296618</v>
+        <v>-5.250808080807822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3135371142532689</v>
+        <v>0.3738854313630828</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1658.703242298282</v>
+        <v>-1600.871924833159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004543519061277955</v>
+        <v>0.005234424654416145</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.2106404328147</v>
+        <v>461.2629351665557</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3686932365544177</v>
+        <v>0.3629422268327932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-372.0680121569623</v>
+        <v>9707.940933803447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5634074858065254</v>
+        <v>2.873980879384293e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9735.185506144242</v>
+        <v>-11.35911135927678</v>
       </c>
       <c r="C12" t="n">
-        <v>3.09155200220312e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-10.43538062848759</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3810756943011799</v>
+        <v>0.3346383468081892</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-78.2617728457044</v>
+        <v>-44.46452444677425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9446113922210366</v>
+        <v>0.9678198206305053</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.75749768404252</v>
+        <v>77.78802082545914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001581763875841912</v>
+        <v>0.001498626673356663</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.5917659290537</v>
+        <v>126.7323057266224</v>
       </c>
       <c r="C4" t="n">
-        <v>2.236920075244784e-10</v>
+        <v>4.998467567382822e-11</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01602064944252442</v>
+        <v>-0.01594258131925326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1486983515747504</v>
+        <v>0.1484361154849109</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.250411750659195e-05</v>
+        <v>3.352418662134814e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0475354324257779</v>
+        <v>0.02643666618416158</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.438359930170233</v>
+        <v>6.296628629057366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1458453447131546</v>
+        <v>0.1449558429114402</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.284660507918028</v>
+        <v>-1.519690804386556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.82008400528937</v>
+        <v>0.7798364628403949</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1061.92225406704</v>
+        <v>-1074.446591290824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05597709484862869</v>
+        <v>0.04987400664339096</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.24091726147435</v>
+        <v>22.88027576527736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9644478843111104</v>
+        <v>0.9596070108858017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.53803422331839</v>
+        <v>9469.247068363311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.870604754372631</v>
+        <v>2.43458788324612e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9475.106586386972</v>
+        <v>-4.510299970892419</v>
       </c>
       <c r="C12" t="n">
-        <v>3.105335246517047e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.739511268917752</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6675999449925289</v>
+        <v>0.6789227646309701</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-35.2099576600167</v>
+        <v>221.6450120485842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9771812946842174</v>
+        <v>0.8532868436051254</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.8520223959097</v>
+        <v>57.7125677407042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06207326749305542</v>
+        <v>0.0532780593944376</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.0606096230629</v>
+        <v>125.3605379802814</v>
       </c>
       <c r="C4" t="n">
-        <v>9.596258867038828e-09</v>
+        <v>9.180987022429785e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02357342138807517</v>
+        <v>-0.02203758554117394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03829848426341787</v>
+        <v>0.04980997249413893</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.449781255541234e-05</v>
+        <v>4.141801244937863e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06045061779680712</v>
+        <v>0.01392124884440287</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.390052739835594</v>
+        <v>0.4792349298515486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7956326360423933</v>
+        <v>0.9275643241272292</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.165324865126863</v>
+        <v>-4.738501147762735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6275736366433091</v>
+        <v>0.4519149006064007</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-610.6855152607031</v>
+        <v>-654.4942355573135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.358067931063302</v>
+        <v>0.3232097375797988</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.5452512203585</v>
+        <v>343.1463406569421</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5064233326619747</v>
+        <v>0.5066272406672766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>642.8485131104758</v>
+        <v>10397.2406085078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.355883892416072</v>
+        <v>2.368358553014448e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10628.98054150433</v>
+        <v>-0.421767690069613</v>
       </c>
       <c r="C12" t="n">
-        <v>1.998255772136352e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.574019630660795</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8957554264288109</v>
+        <v>0.9718212025571945</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-93.97741552084972</v>
+        <v>-152.3454400181026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9381653575534645</v>
+        <v>0.8974804181062201</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.2669733404163</v>
+        <v>71.30372618106179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01823905552092653</v>
+        <v>0.01767480767386551</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.3559569238022</v>
+        <v>126.7344524279032</v>
       </c>
       <c r="C4" t="n">
-        <v>2.993117933775161e-08</v>
+        <v>6.460615413712149e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02122869463129705</v>
+        <v>-0.02191680584945548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1162900839130023</v>
+        <v>0.09599653991290372</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.727069885063768e-05</v>
+        <v>3.583440703449733e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05290063958208914</v>
+        <v>0.04944045939943677</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.451688682084608</v>
+        <v>5.70177937579439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3104371639198866</v>
+        <v>0.2778454581001316</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7947567391388635</v>
+        <v>-0.3232810850186851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9060703658128691</v>
+        <v>0.9598632171023498</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1372.117669288162</v>
+        <v>-1355.800367820327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02199076160622582</v>
+        <v>0.02212392362010018</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-48.87773695800456</v>
+        <v>-45.43185893106352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9235610562332216</v>
+        <v>0.9285955355151552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-176.5789135773298</v>
+        <v>9456.033825547313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.807253793774223</v>
+        <v>4.378463425335609e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9461.407792779986</v>
+        <v>0.3215224620235873</v>
       </c>
       <c r="C12" t="n">
-        <v>5.14633583045968e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8439748898365593</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9481836277103948</v>
+        <v>0.9798857089146378</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-512.2243006253264</v>
+        <v>-691.2827166763905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6981715671187726</v>
+        <v>0.5921885398108619</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.49660000958075</v>
+        <v>59.40693110922945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04261536897649517</v>
+        <v>0.04238260765424229</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.6000395548348</v>
+        <v>138.3929736459462</v>
       </c>
       <c r="C4" t="n">
-        <v>5.435589931248842e-09</v>
+        <v>6.378459373726402e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01567943467990275</v>
+        <v>-0.01697820682441484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2101368925951523</v>
+        <v>0.1687222797801552</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.09434420282019e-05</v>
+        <v>3.75457654060065e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03688425973449353</v>
+        <v>0.0465818560102149</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.813427544353679</v>
+        <v>5.2581038422693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3535570489661831</v>
+        <v>0.3057991740681006</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.467383038640685</v>
+        <v>-1.371916885563621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7325041415824853</v>
+        <v>0.8448602167886782</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-981.3866385303791</v>
+        <v>-930.3596189429936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1184317091597222</v>
+        <v>0.1346635466997032</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-157.5722630028954</v>
+        <v>-143.4271857873118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7549286081261601</v>
+        <v>0.7755557720644454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-440.3552158627995</v>
+        <v>10429.76186862505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5043413211228486</v>
+        <v>1.200742011560698e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10372.16929915531</v>
+        <v>8.572530381261172</v>
       </c>
       <c r="C12" t="n">
-        <v>1.828263691024942e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.157515758340631</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.457293377192946</v>
+        <v>0.4842453020207773</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-178.3004771898359</v>
+        <v>-50.43002181546944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8818218537184215</v>
+        <v>0.9658253543320494</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.34608151577805</v>
+        <v>60.97692282305761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333300216506087</v>
+        <v>0.03094571628325707</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.9469918753992</v>
+        <v>138.5812860688844</v>
       </c>
       <c r="C4" t="n">
-        <v>2.162637135398071e-10</v>
+        <v>1.112439535846469e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02686184811191911</v>
+        <v>-0.0256437847254149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01884281564182503</v>
+        <v>0.02218083386500396</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.798691032349004e-05</v>
+        <v>5.150952982599304e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00432164054233077</v>
+        <v>0.001094452484544391</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.919627235633866</v>
+        <v>5.40811896776853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2042391289662354</v>
+        <v>0.2365269602685843</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3733683326337633</v>
+        <v>-0.5060648390135469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9494240413868729</v>
+        <v>0.9290921748112436</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1084.398344576273</v>
+        <v>-1135.77768982859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05418726583725023</v>
+        <v>0.04092526637968553</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.0998594160956</v>
+        <v>159.8107505995818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7191625444316474</v>
+        <v>0.7269685233664028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.3547881070373</v>
+        <v>9343.509296450258</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5457802592044061</v>
+        <v>6.578161639648374e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9371.327615909984</v>
+        <v>-8.735335277234185</v>
       </c>
       <c r="C12" t="n">
-        <v>6.968989427474748e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.633370788953101</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4216753311774428</v>
+        <v>0.4613349537984059</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.2400278879268</v>
+        <v>4.15926688599211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9066164690231505</v>
+        <v>0.9973735721774528</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.56242235203169</v>
+        <v>57.87273371677949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.055465488205264</v>
+        <v>0.05333497018648563</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.2750334076789</v>
+        <v>135.5739638015878</v>
       </c>
       <c r="C4" t="n">
-        <v>2.378897533336358e-08</v>
+        <v>3.074205537260187e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01805281662822533</v>
+        <v>-0.01858463082537311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1418051041446014</v>
+        <v>0.1280079950185116</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.471998945561703e-05</v>
+        <v>4.142738014902957e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02234445578586611</v>
+        <v>0.02498862345841994</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.10536823451973</v>
+        <v>2.636165137159356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6987509368137936</v>
+        <v>0.6210080662807572</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.169800996912038</v>
+        <v>-7.090562065877254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2758781063070341</v>
+        <v>0.3241054503431795</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-541.5690020525888</v>
+        <v>-509.312199193085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4681324015529982</v>
+        <v>0.4921196893730441</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.63230204048148</v>
+        <v>52.10603418141088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9146480055113719</v>
+        <v>0.9275252175429674</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-361.1670127533462</v>
+        <v>10487.21121712125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5936167887283424</v>
+        <v>2.717499122192338e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10463.15806578191</v>
+        <v>6.746650420285299</v>
       </c>
       <c r="C12" t="n">
-        <v>3.540648769441552e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.646386913664088</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.551165632433104</v>
+        <v>0.5944825798659097</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.15928250820662</v>
+        <v>24.53911273891003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.980721821553493</v>
+        <v>0.9828556095092726</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.2419419594518</v>
+        <v>111.2311202610477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001652652743650658</v>
+        <v>0.0001536859585554056</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.6025279809046</v>
+        <v>114.6986794256225</v>
       </c>
       <c r="C4" t="n">
-        <v>1.186984149513064e-07</v>
+        <v>3.775145584241132e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02178359200928188</v>
+        <v>-0.02181339021455324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05511971498455758</v>
+        <v>0.05105539219800659</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.491152029342352e-05</v>
+        <v>3.479982518788861e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04608100781358535</v>
+        <v>0.03223519704223828</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.260438126933495</v>
+        <v>2.274495885994183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6364263231849856</v>
+        <v>0.6279726130625</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.089973321703173</v>
+        <v>-3.063872463457161</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6098935113070398</v>
+        <v>0.6002564538849633</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1259.70235713572</v>
+        <v>-1258.461718423003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02536238263011366</v>
+        <v>0.02371678427728246</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.1840147291954</v>
+        <v>308.4445497944392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5213361625623734</v>
+        <v>0.5188393603865488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.25296564583664</v>
+        <v>10542.99601205381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9858647708404514</v>
+        <v>3.203605183377393e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10542.20485939445</v>
+        <v>-2.27645995670162</v>
       </c>
       <c r="C12" t="n">
-        <v>4.239619003729774e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.24743470714434</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8637237189782372</v>
+        <v>0.8602548914193842</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.44431382531</v>
+        <v>690.4700564069581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4796802295789895</v>
+        <v>0.5438910096635675</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.39936302837143</v>
+        <v>70.02723202372299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008500405892479201</v>
+        <v>0.008627421036949716</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.0777145816942</v>
+        <v>125.140939411325</v>
       </c>
       <c r="C4" t="n">
-        <v>3.601846885704408e-09</v>
+        <v>4.651074931673961e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01529778513894089</v>
+        <v>-0.01650934460374671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1891191469060408</v>
+        <v>0.1495439296388065</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.525809314517585e-05</v>
+        <v>3.234866220292236e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04133602800869587</v>
+        <v>0.05056429783019018</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.191839318594159</v>
+        <v>2.674685956516568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6641535617298204</v>
+        <v>0.5907097702716544</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.306414793956549</v>
+        <v>-4.418482169399434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3812426242958917</v>
+        <v>0.4512369652291126</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1410.774210260114</v>
+        <v>-1369.863022213151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01770461411705797</v>
+        <v>0.0200132263231267</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.243898800595957</v>
+        <v>-5.303077377697036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9978949220533561</v>
+        <v>0.9909987007343322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-373.7784780276982</v>
+        <v>8843.033269778751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5391127338285611</v>
+        <v>4.49090802822252e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8814.689438340583</v>
+        <v>-4.35720161388349</v>
       </c>
       <c r="C12" t="n">
-        <v>5.788742225775151e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.651848877436045</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7420298851679087</v>
+        <v>0.6921289807055198</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504.83718998071</v>
+        <v>357.6986431483142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6692829743484757</v>
+        <v>0.7560121886159372</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.11990342356262</v>
+        <v>69.94412194047956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01050640133919396</v>
+        <v>0.01045185918897114</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.4729039345007</v>
+        <v>118.9698754111018</v>
       </c>
       <c r="C4" t="n">
-        <v>4.885932481370126e-08</v>
+        <v>4.776927921962567e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0231788100872922</v>
+        <v>-0.02324582810001949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05124584098672133</v>
+        <v>0.0498742678610502</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.391362589528698e-05</v>
+        <v>3.88037014086197e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02347639412887992</v>
+        <v>0.02407846546785975</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.948697550380256</v>
+        <v>5.433920373873349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3286565226316605</v>
+        <v>0.2757007240244153</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.277028948376753</v>
+        <v>-3.276119598978283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5283157382879917</v>
+        <v>0.6164989740466136</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1235.617641347784</v>
+        <v>-1169.292608585816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04794862026234271</v>
+        <v>0.05602410440498731</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-189.8874810393486</v>
+        <v>-188.7540141240431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.70411257704261</v>
+        <v>0.7049402750041249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-389.7440261457937</v>
+        <v>9709.277374492816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5582011707487133</v>
+        <v>9.288873238996333e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9686.945958338649</v>
+        <v>-2.852012148982407</v>
       </c>
       <c r="C12" t="n">
-        <v>1.207828387972693e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.973801873483545</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8742544273037438</v>
+        <v>0.817295392189374</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-431.7591578948532</v>
+        <v>-388.8666231869283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7211011698272116</v>
+        <v>0.7384555579310221</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.15019976771383</v>
+        <v>66.46573884198983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02400018445253034</v>
+        <v>0.02232877393713201</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.1564010778533</v>
+        <v>119.9944303080944</v>
       </c>
       <c r="C4" t="n">
-        <v>9.866378369599585e-08</v>
+        <v>1.157658649465342e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0270125661164467</v>
+        <v>-0.02720497317488833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04604683197405391</v>
+        <v>0.04250611020132992</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.943543222409935e-05</v>
+        <v>4.089497223632971e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06501870192393766</v>
+        <v>0.02778601080004987</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.250995075923719</v>
+        <v>5.158203811622702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3374511019452389</v>
+        <v>0.340266209535844</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.066025335485975</v>
+        <v>0.8174067223288581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8740125419302895</v>
+        <v>0.8992260434642103</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1354.002137543872</v>
+        <v>-1370.601780646017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02585059714466912</v>
+        <v>0.02089895630724714</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.51699688993415</v>
+        <v>-34.57329662628302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9547887755798412</v>
+        <v>0.9466859629459042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.8655527826152</v>
+        <v>10324.17749990728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8886833792759532</v>
+        <v>7.0702210405785e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10339.61847667045</v>
+        <v>3.208045560833931</v>
       </c>
       <c r="C12" t="n">
-        <v>9.427541738494442e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.013000980029467</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7965315533674815</v>
+        <v>0.7812010618820862</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.55253329797642</v>
+        <v>152.3819108344028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9466494096808917</v>
+        <v>0.8874288295889741</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.05263081096454</v>
+        <v>63.99666815417054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01664545309155325</v>
+        <v>0.01630751665291849</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.2351573248077</v>
+        <v>124.3810573336701</v>
       </c>
       <c r="C4" t="n">
-        <v>2.242967400451257e-09</v>
+        <v>1.166015467211913e-09</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01884969341252086</v>
+        <v>-0.01868389158792012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1049902514441786</v>
+        <v>0.1064229364345815</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.799437309416483e-05</v>
+        <v>3.106034885012239e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1485259282766469</v>
+        <v>0.07903405656123878</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.448329956761923</v>
+        <v>3.291845751091392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4724406762640383</v>
+        <v>0.4895102931960565</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.151886392576818</v>
+        <v>-5.648773204480035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3910412933774072</v>
+        <v>0.3342755234156635</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1178.068786246675</v>
+        <v>-1214.997699292815</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03919942028076994</v>
+        <v>0.03051332459792087</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.68019000932668</v>
+        <v>35.87030475766551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9371061321940471</v>
+        <v>0.9382483958170204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.946629717275</v>
+        <v>10675.89233791161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6948586182702938</v>
+        <v>1.348024017551169e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10758.49648699953</v>
+        <v>3.415810079554696</v>
       </c>
       <c r="C12" t="n">
-        <v>2.182642758949525e-13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.8739749361077</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7969109371409689</v>
+        <v>0.7569944153357935</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1626.839555478995</v>
+        <v>-1510.636427967127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2051531911194696</v>
+        <v>0.2268371483903055</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.1326741790579</v>
+        <v>109.2334407299178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003201648442156383</v>
+        <v>0.0002997148179521614</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.2344743197563</v>
+        <v>132.6058493932621</v>
       </c>
       <c r="C4" t="n">
-        <v>1.311124966844945e-09</v>
+        <v>4.640232517585632e-10</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02164867523827887</v>
+        <v>-0.02113248213682643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08392628542550126</v>
+        <v>0.08876876370825341</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.44852348112086e-05</v>
+        <v>4.658779037585581e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0117951478937761</v>
+        <v>0.005955878019228778</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.786167596310168</v>
+        <v>7.377262971985064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09558522110359086</v>
+        <v>0.1052400946650062</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.711794061342871</v>
+        <v>6.853574318989038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2527666241650347</v>
+        <v>0.2852591817220769</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1304.368092862296</v>
+        <v>-1329.174812368424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03186100506537116</v>
+        <v>0.02750119514770687</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-495.6902544377376</v>
+        <v>-485.0687251579764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3437564322840569</v>
+        <v>0.351787863303927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.4865682560144</v>
+        <v>9592.399801657726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6664458105772624</v>
+        <v>9.521160080229124e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9593.721372297246</v>
+        <v>10.81731367611651</v>
       </c>
       <c r="C12" t="n">
-        <v>1.142109856228383e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.251481375621</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3927676348089388</v>
+        <v>0.3625575850362948</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.6561513773636</v>
+        <v>830.0146130823196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4467580798000883</v>
+        <v>0.505662563068573</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.23209806620963</v>
+        <v>62.14400201252545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03548516822499204</v>
+        <v>0.03507883492132378</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.8897120911817</v>
+        <v>124.0143828642646</v>
       </c>
       <c r="C4" t="n">
-        <v>1.353849229852979e-07</v>
+        <v>1.731705601974297e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01896022270095017</v>
+        <v>-0.01972261216843884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1160901484517929</v>
+        <v>0.09819173013025891</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.344099775594743e-05</v>
+        <v>4.032651398900853e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01934884689904979</v>
+        <v>0.02002156889785414</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3808392126333011</v>
+        <v>0.1465292552558388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9440493337405087</v>
+        <v>0.9779353926093308</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.87937101989014</v>
+        <v>-6.974615355883945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242560373608481</v>
+        <v>0.2797473714999997</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-580.1256685703538</v>
+        <v>-551.0324327435244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3756003854297364</v>
+        <v>0.396265821972954</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6361730347426</v>
+        <v>256.6117024646064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6203777350475541</v>
+        <v>0.6135853500686923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-325.3884195414087</v>
+        <v>9603.29673485276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6270324917888591</v>
+        <v>1.02278205628897e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9573.420393456134</v>
+        <v>-6.163606077665889</v>
       </c>
       <c r="C12" t="n">
-        <v>1.340997914329478e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.856176926006363</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6415610858233265</v>
+        <v>0.6225067402116634</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-36.34975856014762</v>
+        <v>-143.9708363816926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9760105219384441</v>
+        <v>0.9036652090912594</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.30835999646129</v>
+        <v>76.66553670235979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01375522034423137</v>
+        <v>0.0156137221703667</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.7106208778059</v>
+        <v>128.6306304000732</v>
       </c>
       <c r="C4" t="n">
-        <v>8.108996888277535e-08</v>
+        <v>6.561594136687625e-09</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02259571201346762</v>
+        <v>-0.02390807878195849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07237658725584291</v>
+        <v>0.05241193133919768</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.518574367877391e-05</v>
+        <v>4.067645906832346e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01785072228198504</v>
+        <v>0.01784252203254636</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.993558426194748</v>
+        <v>5.474173343530975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3412344669959054</v>
+        <v>0.2888579827016586</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.512312602901159</v>
+        <v>-2.599922161269941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5934700965317006</v>
+        <v>0.6822515004017016</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1272.070489606939</v>
+        <v>-1227.91688158703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03822276026312482</v>
+        <v>0.04283548105144579</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.1945822936518</v>
+        <v>139.224472539302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8228812670882707</v>
+        <v>0.7890668078247006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-392.5620760996819</v>
+        <v>9936.731157765946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5771816422273339</v>
+        <v>2.756645423268463e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9953.255216242691</v>
+        <v>0.1562786652955808</v>
       </c>
       <c r="C12" t="n">
-        <v>3.060572775040182e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.414624155364297</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.913059298054901</v>
+        <v>0.9901955593279697</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42786386" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42901290" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43007532" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43132758" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43311834" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43412108" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ43512791" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43613804" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43713318" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ43820005" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ43932875" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ44046622" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ44152929" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ44260959" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ44372386" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ44490045" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ44607912" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ44729119" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ44870606" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ45023668" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ45176704" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ45324738" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ45490738" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ45680281" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ45924710" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ46229559" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ46424232" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ46615992" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ46786419" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ46945960" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ47120886" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ47294680" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ47471255" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ47642245" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ47808058" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ47983585" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ48162611" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ48330979" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ48499331" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ48664755" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ48839935" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ49009224" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ49173903" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ49344770" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ49508425" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ49676209" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ49847611" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ50004478" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ50124622" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ50253731" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ28993959" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ29105748" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ29209169" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ29311532" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29408860" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ29510731" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ29609552" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ29836543" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ29976107" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30103428" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ30242880" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ30370636" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ30490494" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ30590266" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ30686057" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ30791776" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ30898540" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ30999328" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ31098079" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ31202357" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ31312346" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ31430393" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ31558039" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ31685060" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ31812234" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ31934030" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ32060862" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ32201230" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ32336921" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ32485879" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ32619716" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ32753536" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ32891605" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ33052852" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ33209475" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ33347051" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ33483439" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ33627006" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ33750497" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ33885273" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ34016493" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ34148043" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ34304960" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ34465136" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ34617639" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ34759505" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ34929930" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ35096358" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ35220581" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ35365470" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ28993959" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ29105748" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ29209169" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29311532" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ29408860" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ29510731" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29609552" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ29836543" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ29976107" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ30103428" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ30242880" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ30370636" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ30490494" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ30590266" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ30686057" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ30791776" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ30898540" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ30999328" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ31098079" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ31202357" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ31312346" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ31430393" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ31558039" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ31685060" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ31812234" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ31934030" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ32060862" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ32201230" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ32336921" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ32485879" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ32619716" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ32753536" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ32891605" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ33052852" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ33209475" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ33347051" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ33483439" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ33627006" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ33750497" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ33885273" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ34016493" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ34148043" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ34304960" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ34465136" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ34617639" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ34759505" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ34929930" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ35096358" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ35220581" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ35365470" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ23978248" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ24112509" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ24252004" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ24396423" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ24513725" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ24651852" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ24779051" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ24944770" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ25080429" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ25227247" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ25363071" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ25513201" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ25645880" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ25779909" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ25912907" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ26052954" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ26208808" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ26413192" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ26563307" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ26730575" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ26952987" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ27147344" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ27329103" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ27498410" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ27678225" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ27831080" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ27961676" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ28113273" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ28246341" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ28379228" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ28496807" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ28629381" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ28763040" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ28879089" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ29012633" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ29153764" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ29279145" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ29396135" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ29530323" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ29662491" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ29796637" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ29928238" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ30060546" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ30193160" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ30314621" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ30445871" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ30579081" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ30710558" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ30829027" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ30963476" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-295.9374155473961</v>
+        <v>-1602.259788017973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8024181302860108</v>
+        <v>0.05805801205221272</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.11961701639936</v>
+        <v>51.67162399723643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07344892802407475</v>
+        <v>0.1104121220208102</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.6557901072611</v>
+        <v>157.1565298596654</v>
       </c>
       <c r="C4" t="n">
-        <v>1.280830407679473e-10</v>
+        <v>1.566045275553917e-10</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0220763700336963</v>
+        <v>-0.009973472282763435</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04709876135480334</v>
+        <v>0.4780625837774699</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.878781423857016e-05</v>
+        <v>2.29760087273986e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02190860848615772</v>
+        <v>0.237533874593896</v>
       </c>
     </row>
     <row r="7">
@@ -572,75 +572,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.862627477617359</v>
+        <v>5.43376719519912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5777887528439926</v>
+        <v>0.2628750972237065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.817182696366135</v>
+        <v>349.5990147031998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5408696163144235</v>
+        <v>0.494048918447564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-493.4242037354456</v>
+        <v>11319.43968341519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4872913627570555</v>
+        <v>9.722567387828919e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.0234314162259</v>
+        <v>22.89097007066454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4136142596738732</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10439.94194885337</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.623587746968134e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.145772014366322</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8643594606659133</v>
+        <v>0.09863345303091563</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>447.9717782436792</v>
+        <v>-606.2518420320351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6927067539285194</v>
+        <v>0.4794038222920485</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.45339782238013</v>
+        <v>94.61388484682709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01822197246605911</v>
+        <v>0.005012692575004668</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.1729664575583</v>
+        <v>139.3146266154462</v>
       </c>
       <c r="C4" t="n">
-        <v>4.371743523124071e-10</v>
+        <v>7.852552600623364e-09</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02529006392801222</v>
+        <v>-0.01011713451815956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01994188512338602</v>
+        <v>0.4613627569299809</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.218299512314569e-05</v>
+        <v>2.361296244353443e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007762901257065592</v>
+        <v>0.2067693094360932</v>
       </c>
     </row>
     <row r="7">
@@ -751,75 +725,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.257396033305316</v>
+        <v>4.322514845855062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6579595725175105</v>
+        <v>0.3740897147059098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.428253961209515</v>
+        <v>63.64078118570899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8109973537002337</v>
+        <v>0.8988602316747563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1264.528515106012</v>
+        <v>9703.353487537115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03335682401733017</v>
+        <v>1.607062036377691e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.4717710064822</v>
+        <v>9.469246044381208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2570284238154621</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9452.299389152546</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.590146362339194e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-12.61620463911819</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2702157257886212</v>
+        <v>0.5036196409748478</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.4473171339416</v>
+        <v>-1203.62530066464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4943686954028348</v>
+        <v>0.1163603031637965</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.45300588959665</v>
+        <v>77.99124259986536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02292251386715094</v>
+        <v>0.02287656440945052</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.337254928097</v>
+        <v>147.9071022253011</v>
       </c>
       <c r="C4" t="n">
-        <v>3.343256790089498e-09</v>
+        <v>9.669928057745291e-10</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02600653388568624</v>
+        <v>-0.0138327642325863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02445399636235395</v>
+        <v>0.3698711411182095</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.053632407322684e-05</v>
+        <v>3.015835055457237e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01344539950474217</v>
+        <v>0.1153563897229262</v>
       </c>
     </row>
     <row r="7">
@@ -930,75 +878,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.164934161408938</v>
+        <v>4.505729015502181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6521125420767034</v>
+        <v>0.3170204162806711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.096060361137397</v>
+        <v>108.1160877676937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5839454182717045</v>
+        <v>0.8269931307511921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1663.166754839703</v>
+        <v>10491.76859032973</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003619415895763072</v>
+        <v>1.02904655468724e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.70009416909761</v>
+        <v>18.09253048284617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.910395566677572</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9134.466265431556</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.341728361621824e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.838816772838324</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.654428599239369</v>
+        <v>0.1641307957869692</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-757.5407560844133</v>
+        <v>-1385.367852470557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5375445241456918</v>
+        <v>0.09966109783115523</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.86233011923784</v>
+        <v>70.55190335826009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008211385747699649</v>
+        <v>0.03087269108839046</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.1189892052501</v>
+        <v>163.0237261771045</v>
       </c>
       <c r="C4" t="n">
-        <v>6.437075150096721e-11</v>
+        <v>6.56168437087614e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02024297317627206</v>
+        <v>-0.003016800413644299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07183829377395989</v>
+        <v>0.8292933890032306</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.669090088569371e-05</v>
+        <v>2.50520571749161e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00693061594222197</v>
+        <v>0.2645730129807418</v>
       </c>
     </row>
     <row r="7">
@@ -1109,75 +1031,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.257239575403789</v>
+        <v>5.422665581749921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2020421374247139</v>
+        <v>0.224237920618959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.39994499536612</v>
+        <v>263.4485631003126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6248515046964555</v>
+        <v>0.5775942238139473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1344.026696974776</v>
+        <v>10045.67734152434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03080988199473685</v>
+        <v>9.20699942751602e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-238.872963519254</v>
+        <v>16.80934733845517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6405245541802357</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10708.44201571418</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.840920139574397e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.52417409660179</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7120083127528364</v>
+        <v>0.2136009798048142</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-69.08757054342641</v>
+        <v>-1216.394044295627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9537204317845482</v>
+        <v>0.112508434002895</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.9824247048183</v>
+        <v>79.93745394160734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0422445666487961</v>
+        <v>0.01327857919375642</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.4257057878202</v>
+        <v>141.8652195273768</v>
       </c>
       <c r="C4" t="n">
-        <v>6.184696675411184e-09</v>
+        <v>4.036427177753334e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02962976979740715</v>
+        <v>-0.004548448220657106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02620429618202351</v>
+        <v>0.7239281950036883</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.367830488953748e-05</v>
+        <v>9.172196518073109e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004474144889089234</v>
+        <v>0.6325767137990884</v>
       </c>
     </row>
     <row r="7">
@@ -1288,75 +1184,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.183413318213905</v>
+        <v>3.391727079813419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3061221061183832</v>
+        <v>0.4780463660261545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.816758457165989</v>
+        <v>308.8726242261974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5347937434309209</v>
+        <v>0.54566419404943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-898.7398025169246</v>
+        <v>9319.184722896851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1467322221123599</v>
+        <v>1.773597413722487e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.1880514511513</v>
+        <v>26.75500955952066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6403764839967856</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10543.63391930146</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.341829927785871e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.398895105420625</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7164538049122073</v>
+        <v>0.03930412617284108</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-543.4127337127222</v>
+        <v>-528.450884806502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6739984449169358</v>
+        <v>0.5216403717540384</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.91239853051522</v>
+        <v>75.99739997991051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009390408924983419</v>
+        <v>0.02634163026931543</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.3379399869226</v>
+        <v>132.652424150259</v>
       </c>
       <c r="C4" t="n">
-        <v>1.045013154948181e-08</v>
+        <v>1.02902843905804e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0194417842383907</v>
+        <v>-0.009635246379732718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1084880429846674</v>
+        <v>0.4840197133759483</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.042888014296989e-05</v>
+        <v>1.503878608676486e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09125228015268147</v>
+        <v>0.4426699008903778</v>
       </c>
     </row>
     <row r="7">
@@ -1467,75 +1337,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.85606561973557</v>
+        <v>4.647331384219402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3384607999819824</v>
+        <v>0.3535935673662456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.877897255981608</v>
+        <v>-36.60308684355778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5309446141607019</v>
+        <v>0.9450687848962606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-734.0416810322426</v>
+        <v>10374.13156593976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2538276011798191</v>
+        <v>4.639888771249298e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.5350604910225</v>
+        <v>10.29265080871338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8177881735471888</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10474.41432371935</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.058914606620415e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.97062941117143</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3904945001816607</v>
+        <v>0.4495761205466634</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.35787311529384</v>
+        <v>-482.074327982044</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9584793215667341</v>
+        <v>0.551232396064508</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.88957482852902</v>
+        <v>44.65358399253161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00139852103512846</v>
+        <v>0.1803751874468084</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.4698163657012</v>
+        <v>142.3025643951641</v>
       </c>
       <c r="C4" t="n">
-        <v>1.287207008951998e-10</v>
+        <v>2.908785624445224e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01442403429318974</v>
+        <v>-0.01685596711671258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1887258555627263</v>
+        <v>0.1885874404024593</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.61720041919479e-05</v>
+        <v>1.970787380663002e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01497800319852262</v>
+        <v>0.296776564619994</v>
       </c>
     </row>
     <row r="7">
@@ -1646,75 +1490,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.609548973315048</v>
+        <v>3.295560350885906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7476762539887976</v>
+        <v>0.4746558509426916</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.34022122968341</v>
+        <v>270.4083726972094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8253477254032525</v>
+        <v>0.5924059270018187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1140.678294415106</v>
+        <v>8730.322421274088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03194761450518697</v>
+        <v>9.99343112567448e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.5947656762592</v>
+        <v>18.33428898441908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5412832779165507</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9161.11293986182</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.090399354611765e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.661714864145409</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.728789319686165</v>
+        <v>0.1778029324477591</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-273.1021424364694</v>
+        <v>-743.3727373598963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8137865612578137</v>
+        <v>0.3928683693131226</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.83298443192631</v>
+        <v>77.16477266194164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003823552881923836</v>
+        <v>0.03117132170450411</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.8095926784499</v>
+        <v>134.8380059127343</v>
       </c>
       <c r="C4" t="n">
-        <v>8.858238570218062e-10</v>
+        <v>9.720699676801885e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02126513139714696</v>
+        <v>-0.01282911790084035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05646512857189195</v>
+        <v>0.3791306194010612</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.94502152663649e-05</v>
+        <v>1.997617588762812e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0130251741354197</v>
+        <v>0.351633942390611</v>
       </c>
     </row>
     <row r="7">
@@ -1825,75 +1643,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.019857963761812</v>
+        <v>3.595079212904932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4102548417907079</v>
+        <v>0.4680589725464931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.845405838226139</v>
+        <v>231.1746186348878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.640479048677598</v>
+        <v>0.6621023485894371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-515.2580142136812</v>
+        <v>9215.612680740374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.418011334467604</v>
+        <v>8.036496809840661e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.24609787775898</v>
+        <v>18.73283642304209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.893085710431986</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10400.29208267675</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.048601618344078e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.811659696865959</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8779595606961192</v>
+        <v>0.2040363737395586</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>445.0936616726667</v>
+        <v>-1153.983147033972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7330950591258878</v>
+        <v>0.1469169600408728</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.33985757872075</v>
+        <v>63.63966111259465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005454269342284793</v>
+        <v>0.06619566943859065</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.5681075169594</v>
+        <v>158.644614985519</v>
       </c>
       <c r="C4" t="n">
-        <v>1.945046180826565e-08</v>
+        <v>7.798205408184667e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01636414896856948</v>
+        <v>-0.006802173116274221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.185661594398562</v>
+        <v>0.6080541271165525</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.847645085344962e-05</v>
+        <v>2.23822537646186e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1278171358014862</v>
+        <v>0.2371524797600159</v>
       </c>
     </row>
     <row r="7">
@@ -2004,75 +1796,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.104547829951283</v>
+        <v>6.794156855437407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2212823730747311</v>
+        <v>0.1482621078293662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.04664217995925</v>
+        <v>-248.243895949943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6490104083997408</v>
+        <v>0.6188418357880987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1374.194515820241</v>
+        <v>9414.358137526506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02373211199164542</v>
+        <v>1.260435205910396e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-368.418263142489</v>
+        <v>21.24164777282028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4849726980108746</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10293.82426215811</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.36642431738343e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.532031064960876</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5358729908465739</v>
+        <v>0.1234236217920111</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1040.221953311705</v>
+        <v>-1157.251913324508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3961679701392854</v>
+        <v>0.1578894154047736</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.87402266294393</v>
+        <v>62.7160746870984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04178628123390155</v>
+        <v>0.07110148145915242</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.6680308429578</v>
+        <v>147.3784883794661</v>
       </c>
       <c r="C4" t="n">
-        <v>1.294617088331991e-10</v>
+        <v>1.222871130575062e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02137185001196375</v>
+        <v>-0.0151580665852213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08123548271567232</v>
+        <v>0.3169252291516426</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.26045841899476e-05</v>
+        <v>2.006687842582673e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02407293362988597</v>
+        <v>0.3266717372732794</v>
       </c>
     </row>
     <row r="7">
@@ -2183,75 +1949,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.405624126733372</v>
+        <v>6.018623081578943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1279419074840016</v>
+        <v>0.2103624722427695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7643310595012602</v>
+        <v>136.5384676208168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.904949574577625</v>
+        <v>0.7924222694731777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1103.830791703435</v>
+        <v>10846.31399433425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06549542701739798</v>
+        <v>6.462405302713362e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.5564351686835</v>
+        <v>18.51939986822627</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8344044194231709</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10916.4777946285</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.132291474791233e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.721151794160175</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7650317380952546</v>
+        <v>0.1609002922388937</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>786.4026803652691</v>
+        <v>-1170.787839600057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4417536226631108</v>
+        <v>0.1234819403668444</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.79038771918952</v>
+        <v>44.48921191700721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02383872898898254</v>
+        <v>0.1500402077885495</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.7526275896653</v>
+        <v>172.9977801867427</v>
       </c>
       <c r="C4" t="n">
-        <v>5.104696681484715e-12</v>
+        <v>3.612432264476544e-13</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01933221781140426</v>
+        <v>-0.001794816144849089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07576059693423558</v>
+        <v>0.8914894693228811</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.429162142650906e-05</v>
+        <v>3.346855308210828e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003161835546057072</v>
+        <v>0.09486923818220541</v>
       </c>
     </row>
     <row r="7">
@@ -2362,75 +2102,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.623623528962193</v>
+        <v>5.037273330868228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7293842137164754</v>
+        <v>0.2725814805290265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.404241649589263</v>
+        <v>38.99424308746421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1566632897267387</v>
+        <v>0.9355226104107803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-887.3301639721908</v>
+        <v>10420.02368971944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1112290127170611</v>
+        <v>2.55285939411116e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.1149720032031</v>
+        <v>11.56811694571127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2966905489040076</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9138.343130760724</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.998684575972923e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.818744790805496</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8577250390412992</v>
+        <v>0.3747624500151241</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.33788419117263</v>
+        <v>-691.8468845289181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9623552130819329</v>
+        <v>0.3877802224414248</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.21232629812216</v>
+        <v>64.69252125627395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00825729362985533</v>
+        <v>0.04759665916097922</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.0142789571292</v>
+        <v>140.8320486853469</v>
       </c>
       <c r="C4" t="n">
-        <v>1.015997936037285e-09</v>
+        <v>3.603101372446445e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007589142455352312</v>
+        <v>-0.01346193366424037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5037122190144034</v>
+        <v>0.3110968909786755</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.435467439953604e-05</v>
+        <v>2.611962620809189e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1539752943054449</v>
+        <v>0.1521750932869808</v>
       </c>
     </row>
     <row r="7">
@@ -2541,75 +2255,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.751104055646827</v>
+        <v>3.088479707412548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6918743795839912</v>
+        <v>0.5196416834180284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.692025446079875</v>
+        <v>444.9026005695459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7520706576340965</v>
+        <v>0.4062093200917338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1354.435304766176</v>
+        <v>9969.653150492875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009385386239609132</v>
+        <v>5.468188441392551e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.83210459582051</v>
+        <v>10.11501721883241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.944345880951136</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9096.328624201135</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.72020140684496e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.585588270815094</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6694572219477671</v>
+        <v>0.4488479464740827</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.0394810076803</v>
+        <v>-803.3244902513421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7243950310520972</v>
+        <v>0.2803331987079975</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.51867937478269</v>
+        <v>104.0535669432392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00776597811267536</v>
+        <v>0.0005978581415641473</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.3829467995029</v>
+        <v>118.4730367901344</v>
       </c>
       <c r="C4" t="n">
-        <v>6.200244339419838e-07</v>
+        <v>2.676876468790062e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03220007257477055</v>
+        <v>-0.01102870371098929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009480995909685071</v>
+        <v>0.3523248271575082</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.556757146940292e-05</v>
+        <v>6.981341156050692e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006579364730171309</v>
+        <v>0.6883964093872292</v>
       </c>
     </row>
     <row r="7">
@@ -2720,75 +2408,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.330150661452173</v>
+        <v>1.711836371067161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6207939925760413</v>
+        <v>0.6826869304207166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5942800722346377</v>
+        <v>847.8325681894754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9195218424390182</v>
+        <v>0.07397776753273286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1687.454107609481</v>
+        <v>8876.786065481554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004637882818416313</v>
+        <v>1.56484138450741e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.1410246996236</v>
+        <v>19.80324628594851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6513358375243837</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8820.093749090731</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.897837168577537e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.836422077713351</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7449087520636742</v>
+        <v>0.09782802753945408</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>680.7873215653199</v>
+        <v>-1557.807927234999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5770059171627757</v>
+        <v>0.03636604845749913</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.32714252665896</v>
+        <v>73.73781838607448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1157350585641093</v>
+        <v>0.01588598802102668</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.9751487545749</v>
+        <v>162.9175808325679</v>
       </c>
       <c r="C4" t="n">
-        <v>1.284697988698378e-09</v>
+        <v>5.000006440629156e-13</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02329569953166977</v>
+        <v>-0.01234473066796331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08829683205483842</v>
+        <v>0.3280462638549462</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.343787814378251e-05</v>
+        <v>4.288701039982896e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0247083713978304</v>
+        <v>0.01691091893502236</v>
       </c>
     </row>
     <row r="7">
@@ -2899,75 +2561,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.083229866539675</v>
+        <v>4.091340794545955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8298333386375286</v>
+        <v>0.3136898550591483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.467990094516966</v>
+        <v>286.7049925713494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3208568864698655</v>
+        <v>0.5305289121122488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1501.847421589632</v>
+        <v>11240.20528439719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01339779071409241</v>
+        <v>2.4729342160644e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.9828663767134</v>
+        <v>16.4278893996302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6797739900010507</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9587.319997987121</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.960296900642168e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.2321354773382325</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9855945353031657</v>
+        <v>0.1701821097750574</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-183.7132882879525</v>
+        <v>-748.6993157234383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8662360897983957</v>
+        <v>0.3485001534432262</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.15628429121749</v>
+        <v>53.4079446705116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00465203098420259</v>
+        <v>0.120504343032901</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.7384355225465</v>
+        <v>143.347838205775</v>
       </c>
       <c r="C4" t="n">
-        <v>3.284281818667092e-09</v>
+        <v>1.482850940104994e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02050501094617092</v>
+        <v>-0.01290383949631252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05864450701318034</v>
+        <v>0.3978773279944408</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.250374017582788e-05</v>
+        <v>2.056866434553239e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1493998068496123</v>
+        <v>0.2855858295419604</v>
       </c>
     </row>
     <row r="7">
@@ -3078,75 +2714,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.58022876719496</v>
+        <v>2.827070194005529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1163978236996075</v>
+        <v>0.5603338112436067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.409003556577606</v>
+        <v>366.7254431703041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7958968568109117</v>
+        <v>0.4669669920904168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1164.321691655835</v>
+        <v>9055.848829877476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04424582854153119</v>
+        <v>7.373432978589168e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193.5418948408544</v>
+        <v>19.59619521601374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7081522156003097</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9404.84109518122</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.628485601140317e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1342237255403909</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9904445607303745</v>
+        <v>0.1589313418577405</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-143.2278783943025</v>
+        <v>-1056.810629329466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8942991386793022</v>
+        <v>0.1954657137781965</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.20684278923333</v>
+        <v>81.09820243870752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004135655250339619</v>
+        <v>0.01642025303560733</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.0316585962384</v>
+        <v>142.6715719756421</v>
       </c>
       <c r="C4" t="n">
-        <v>4.766727681699889e-10</v>
+        <v>4.540221462865968e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02297115405460078</v>
+        <v>-0.007885069846145766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04015048772263474</v>
+        <v>0.5495167334931124</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.794365756991597e-05</v>
+        <v>2.003665322268618e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004169243693143943</v>
+        <v>0.2934587323371962</v>
       </c>
     </row>
     <row r="7">
@@ -3257,75 +2867,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.49717404325564</v>
+        <v>5.185507873774678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7526330104532863</v>
+        <v>0.291632068488248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.630368411392929</v>
+        <v>227.6144286283239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5308013886089119</v>
+        <v>0.6559920762396714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-555.1649865797694</v>
+        <v>9998.129804001328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3444417614839884</v>
+        <v>1.278225948014063e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>430.106998011579</v>
+        <v>16.27486627523352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3576414625500902</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10337.86242329694</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.503709261425215e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.284408516703015</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6214194427260235</v>
+        <v>0.2280519038462849</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-288.3280698139065</v>
+        <v>-696.528275517413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8052783530041698</v>
+        <v>0.38474782240407</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.36822042023876</v>
+        <v>71.62751807262015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00787830956714026</v>
+        <v>0.04088687532581121</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.3929432960039</v>
+        <v>135.2185421577344</v>
       </c>
       <c r="C4" t="n">
-        <v>5.058928088984012e-10</v>
+        <v>4.498359186132654e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0203842275679158</v>
+        <v>-0.000608683388330488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07207835857505528</v>
+        <v>0.9655557971280454</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.054260712896632e-05</v>
+        <v>-8.501518409152986e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01251653859647027</v>
+        <v>0.7112388729123453</v>
       </c>
     </row>
     <row r="7">
@@ -3436,75 +3020,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.783047858207546</v>
+        <v>7.011729800845369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2333619999196104</v>
+        <v>0.1596817530330678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.635156962419595</v>
+        <v>-198.9979529529244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9216198304405812</v>
+        <v>0.7088088305687832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1044.95110053245</v>
+        <v>9585.198880702374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08577594584113035</v>
+        <v>2.009959475091373e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.98756365690429</v>
+        <v>17.50438996059203</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9697008681948617</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9772.672521886841</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.567126508082692e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.486978353614852</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5767524955763879</v>
+        <v>0.1907652144739547</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-206.6531229421071</v>
+        <v>-905.6959744182677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8734226784138702</v>
+        <v>0.2854751501216698</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.74100478788392</v>
+        <v>75.8245790416189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002401471634894862</v>
+        <v>0.02018563844077105</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.985451508022</v>
+        <v>151.6520288635208</v>
       </c>
       <c r="C4" t="n">
-        <v>1.074680720618231e-08</v>
+        <v>6.149543167867768e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02277761242985632</v>
+        <v>-0.006490590303039832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06405778433812577</v>
+        <v>0.6347328233413569</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.960418667899846e-05</v>
+        <v>2.073681060977089e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005714469240128342</v>
+        <v>0.2966501335908834</v>
       </c>
     </row>
     <row r="7">
@@ -3615,75 +3173,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.997155457518994</v>
+        <v>3.061952848147452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.259236027522853</v>
+        <v>0.5061111618619355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8299677231978961</v>
+        <v>135.6065619662481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9009080735550413</v>
+        <v>0.7912976955036568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1322.738224709225</v>
+        <v>8856.236654048647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03018144145285612</v>
+        <v>9.119649664244559e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-333.5781324501966</v>
+        <v>20.3736669264614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5091954130581433</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10351.28618627606</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.426996935973499e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.09735307284225</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8138557270961738</v>
+        <v>0.1460930956526149</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>623.8586882897595</v>
+        <v>-1174.903053309604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5802116413516334</v>
+        <v>0.1416909814161086</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.64012666243647</v>
+        <v>45.23509511701576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006951335713904726</v>
+        <v>0.1577181640017922</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.8219387605891</v>
+        <v>155.2671634037702</v>
       </c>
       <c r="C4" t="n">
-        <v>1.018095286018972e-10</v>
+        <v>1.238933097705918e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02212424665894836</v>
+        <v>-0.01067669261538224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05901436394588764</v>
+        <v>0.4587838801960658</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.695520676904701e-05</v>
+        <v>1.77293978233693e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008648358288622537</v>
+        <v>0.3722905566844213</v>
       </c>
     </row>
     <row r="7">
@@ -3794,75 +3326,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.40472774489315</v>
+        <v>5.366524230914179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4946007902395513</v>
+        <v>0.2608604830131029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.560007191703239</v>
+        <v>191.0193560791392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3435695951269004</v>
+        <v>0.7082279778921929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-970.9090510104548</v>
+        <v>10629.3119812589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1310471918206813</v>
+        <v>1.330006173625622e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.57121974073789</v>
+        <v>19.46849579988009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9620250412472309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9064.697272596328</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.599463544989126e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.516664984431142</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5808498140703131</v>
+        <v>0.1428363171686827</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-222.5980134186543</v>
+        <v>-651.5418822727424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8490161394732785</v>
+        <v>0.4141512623556812</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.90981419663056</v>
+        <v>91.78080130169045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009080579954603195</v>
+        <v>0.008215646265584143</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.413752433185</v>
+        <v>142.1865308779992</v>
       </c>
       <c r="C4" t="n">
-        <v>1.336128251228661e-09</v>
+        <v>4.947812106040797e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02477852919927262</v>
+        <v>-0.003732132623298811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04606496179740585</v>
+        <v>0.7811908369644573</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.887976721796124e-05</v>
+        <v>1.773234640264782e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004420051970272189</v>
+        <v>0.3618595463271138</v>
       </c>
     </row>
     <row r="7">
@@ -3973,75 +3479,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.917074361111521</v>
+        <v>2.910188984993185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3454541910243599</v>
+        <v>0.5530228076193267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.452626598910815</v>
+        <v>353.5537212318477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8164157801849562</v>
+        <v>0.4924523296349846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1369.389733952686</v>
+        <v>9105.56891765683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01450573435718946</v>
+        <v>1.238525499320981e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.527950854917</v>
+        <v>10.63370955684405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4725680393802526</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10276.14041781522</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.418771345040859e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.887453089339015</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6737550275968388</v>
+        <v>0.4467377937001742</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-786.897553178469</v>
+        <v>-392.7053862379544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5282264507008656</v>
+        <v>0.6011000902687766</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.89000636862031</v>
+        <v>34.21061197769313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001148170869619493</v>
+        <v>0.2492762312805476</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.2978532756366</v>
+        <v>152.4898082215672</v>
       </c>
       <c r="C4" t="n">
-        <v>1.075619242769667e-08</v>
+        <v>4.627314284909504e-12</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0148523574961807</v>
+        <v>-0.006129221038726576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2120862432212207</v>
+        <v>0.6255626037557236</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.476969718233188e-05</v>
+        <v>2.48235551549721e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04340794125374215</v>
+        <v>0.173388709679453</v>
       </c>
     </row>
     <row r="7">
@@ -4152,75 +3632,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.377478654712066</v>
+        <v>1.624553986977176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.381525617159824</v>
+        <v>0.7008897287430425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06079559608286544</v>
+        <v>282.0315161972876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9926096964288255</v>
+        <v>0.5413837525050367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1003.259392664691</v>
+        <v>8270.548212640144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09725412798206247</v>
+        <v>1.625779448429117e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.693610371205068</v>
+        <v>13.18588848909438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9939798412908069</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10957.29256731338</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.077124662040406e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.16404181368701</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7256699298598377</v>
+        <v>0.2932867074474113</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9060745570728</v>
+        <v>-1404.187220619931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9017829098305722</v>
+        <v>0.104052130882753</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.14043628457915</v>
+        <v>91.78938987230967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04196918190810031</v>
+        <v>0.008116799035254661</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.1929073697935</v>
+        <v>135.1049689985776</v>
       </c>
       <c r="C4" t="n">
-        <v>1.640122041490421e-09</v>
+        <v>3.380559156873206e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02030664824342995</v>
+        <v>-0.02813458205569877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05201047772175121</v>
+        <v>0.05908959073479937</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.255909168277751e-05</v>
+        <v>3.423687837120946e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03563684066239794</v>
+        <v>0.09546969784976271</v>
       </c>
     </row>
     <row r="7">
@@ -4331,75 +3785,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.299215159471192</v>
+        <v>7.455122663180834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4779723049798138</v>
+        <v>0.1168222779773727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.924220861887985</v>
+        <v>271.5429802585518</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6328611198065243</v>
+        <v>0.594327496547844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1229.606166832458</v>
+        <v>10269.43180787684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04041202702055929</v>
+        <v>5.701690983112197e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.851177621678289</v>
+        <v>23.1748657112431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9888124918362282</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8978.36216095342</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.663675207875846e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.106549505223047</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5919358084596029</v>
+        <v>0.09053208705504515</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-866.139736029425</v>
+        <v>-966.9265694683427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4940737240021917</v>
+        <v>0.201782615094604</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.35252324889662</v>
+        <v>79.54871811892967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009852400993911346</v>
+        <v>0.02345899404595385</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.0123529168776</v>
+        <v>122.9072234681094</v>
       </c>
       <c r="C4" t="n">
-        <v>1.325953864117036e-10</v>
+        <v>3.037154258764906e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02140109283060029</v>
+        <v>-0.0097400775334434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1053297826471663</v>
+        <v>0.4459709034151867</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.324570558578994e-05</v>
+        <v>5.561995550446344e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01488956525668411</v>
+        <v>0.7828666953630216</v>
       </c>
     </row>
     <row r="7">
@@ -4510,75 +3938,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.934114379931195</v>
+        <v>5.605895934163769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1823727878284422</v>
+        <v>0.2090377255306174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7091833169641646</v>
+        <v>82.47356262742255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9128443644604191</v>
+        <v>0.8558627530227988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1110.465939469714</v>
+        <v>9003.813325191551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0591180421298023</v>
+        <v>5.635912690229625e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.16648815424196</v>
+        <v>28.03398030672201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9435494943991483</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10044.99728535145</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.111964782864162e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.634739447987689</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8203997557863213</v>
+        <v>0.02647040770233862</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.4251572889907</v>
+        <v>-1337.564677396083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8371221553095691</v>
+        <v>0.0869620918578293</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.69823903732119</v>
+        <v>105.2221043534086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02599070281123431</v>
+        <v>0.003502498828111874</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.7278006174328</v>
+        <v>142.8153124967396</v>
       </c>
       <c r="C4" t="n">
-        <v>5.714459328116864e-09</v>
+        <v>3.451856652383009e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03015194004059963</v>
+        <v>-0.001919409261652818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02118576305719076</v>
+        <v>0.8794515557986389</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.567263811808906e-05</v>
+        <v>1.353442519859051e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01113720406996603</v>
+        <v>0.5118390568126947</v>
       </c>
     </row>
     <row r="7">
@@ -4689,75 +4091,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.020627815975594</v>
+        <v>5.716040114838334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5432761653711384</v>
+        <v>0.2232517103429498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.547745076257076</v>
+        <v>-202.6941363402787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.680659085292398</v>
+        <v>0.6910927490847563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1004.866500420986</v>
+        <v>10668.0262682686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09128577943946246</v>
+        <v>3.196294767445884e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.2497944382458</v>
+        <v>21.68072876485581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5734183417328576</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10358.97535726901</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.662824162229516e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.233169846721633</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5263252317617364</v>
+        <v>0.103248069851976</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>454.2870543197082</v>
+        <v>-793.6903711057491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7148138393793637</v>
+        <v>0.348331752086516</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.63263901703537</v>
+        <v>66.9115384892491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03444185296861371</v>
+        <v>0.0709758947620233</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.8442263028591</v>
+        <v>150.0997350256267</v>
       </c>
       <c r="C4" t="n">
-        <v>7.993176691948263e-10</v>
+        <v>3.581965230374417e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02044451147086677</v>
+        <v>-0.01220799408932391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1028597010580802</v>
+        <v>0.395885560006648</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.812738772489515e-05</v>
+        <v>2.676675334863015e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02153311755204729</v>
+        <v>0.2174740004864621</v>
       </c>
     </row>
     <row r="7">
@@ -4868,75 +4244,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.353852090065553</v>
+        <v>3.853199739209753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5021865649955698</v>
+        <v>0.4362882186291025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.466596413144643</v>
+        <v>38.82397908144367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.39960183736558</v>
+        <v>0.938566623503567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1241.353817510992</v>
+        <v>10127.30538694483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04448218430806687</v>
+        <v>2.561379727280961e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-90.40135765616492</v>
+        <v>13.77249399205913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8612608503127096</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10388.59777457415</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.554581040245862e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.790702102688995</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7502559869696466</v>
+        <v>0.3222299553456516</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>581.2058943046231</v>
+        <v>-709.005735570038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602620053812859</v>
+        <v>0.3995746357066432</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.01247361458736</v>
+        <v>84.5893084013579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07094404154415682</v>
+        <v>0.01273817167831955</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.8660422185019</v>
+        <v>144.9877976202013</v>
       </c>
       <c r="C4" t="n">
-        <v>1.73383657309095e-11</v>
+        <v>1.763117693787621e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02672985022371217</v>
+        <v>-0.01289594799392932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02040063685721732</v>
+        <v>0.3653641136483229</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.044286278493296e-05</v>
+        <v>1.905478181839001e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002681992167505933</v>
+        <v>0.3799937202558139</v>
       </c>
     </row>
     <row r="7">
@@ -5047,75 +4397,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.591801801479409</v>
+        <v>5.110352797707893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.354759627353</v>
+        <v>0.3040521719819584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.072922263637281</v>
+        <v>214.1343850888825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3115011338679605</v>
+        <v>0.6955001588314942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1038.723628726083</v>
+        <v>9117.63349909697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08593328207217188</v>
+        <v>3.997525419382943e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.8245236080561</v>
+        <v>13.29244411146083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2697227985060175</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9416.951768975643</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.140178169025782e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-12.17692003079915</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2936202632256445</v>
+        <v>0.3451363398327451</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247.4248066654632</v>
+        <v>-669.8732285953064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8337816859739633</v>
+        <v>0.3938123999837713</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.01592269072952</v>
+        <v>49.03400713967231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008189080731597988</v>
+        <v>0.1078133924977214</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.0614982193659</v>
+        <v>146.1554566581929</v>
       </c>
       <c r="C4" t="n">
-        <v>7.471775244114031e-08</v>
+        <v>8.158436215158833e-11</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02300798377183658</v>
+        <v>-0.0103724072204881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05728128148710629</v>
+        <v>0.3991488751206708</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.807470476769748e-05</v>
+        <v>2.369896587742498e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02954274058169592</v>
+        <v>0.182531630619739</v>
       </c>
     </row>
     <row r="7">
@@ -5226,75 +4550,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.101034215714268</v>
+        <v>2.031189827428684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8328200159168537</v>
+        <v>0.6420862698927574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.819311024226742</v>
+        <v>274.5381910181165</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5601182798024968</v>
+        <v>0.5566881642175723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-963.9842783908971</v>
+        <v>9106.789612248456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1362561810662255</v>
+        <v>3.25340940142158e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>282.2131716061064</v>
+        <v>17.3319226086562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5891840999141639</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9649.484104351728</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.206311631297395e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5857036104401132</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9612676714439592</v>
+        <v>0.1754823803401125</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-967.0061898876972</v>
+        <v>-1697.118159323556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.412151230119905</v>
+        <v>0.02203241791036065</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.48794338185544</v>
+        <v>101.8336842732538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003808610042305634</v>
+        <v>0.001251319886053437</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.9468899491637</v>
+        <v>125.9706502143994</v>
       </c>
       <c r="C4" t="n">
-        <v>3.105163378133845e-09</v>
+        <v>7.093363673144484e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01851039423876004</v>
+        <v>3.384377023342433e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1013736032504463</v>
+        <v>0.9979467483300943</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.5885508078633e-05</v>
+        <v>2.222077997206465e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0335862798377857</v>
+        <v>0.9900600212025223</v>
       </c>
     </row>
     <row r="7">
@@ -5405,75 +4703,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.210441371595911</v>
+        <v>5.605452122271048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1830498589415219</v>
+        <v>0.1798199599951908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.389265897416978</v>
+        <v>92.45787449839008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5659973168019836</v>
+        <v>0.8384355867121041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1238.275959401927</v>
+        <v>10310.84674457535</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02026587032706588</v>
+        <v>3.17261982420471e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-127.1370099785206</v>
+        <v>34.48842451032023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7772757609153161</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10714.24046924023</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.26499513223209e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.525887402883617</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7708991333111751</v>
+        <v>0.007171465983698925</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-492.3792814108327</v>
+        <v>-1134.152475806378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6753526213086891</v>
+        <v>0.1502236062915896</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.18534218860543</v>
+        <v>61.73673145760814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0225705256045929</v>
+        <v>0.06662880779068811</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.6532973644207</v>
+        <v>162.2179040757093</v>
       </c>
       <c r="C4" t="n">
-        <v>3.276903659848532e-09</v>
+        <v>1.43177558610176e-10</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02069621546977732</v>
+        <v>-0.007703879177925019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08197641190614553</v>
+        <v>0.5776700577650771</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.94794859342997e-05</v>
+        <v>2.814725430508826e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02668182572434022</v>
+        <v>0.1594789920848603</v>
       </c>
     </row>
     <row r="7">
@@ -5584,75 +4856,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.105139055865434</v>
+        <v>6.610704783367717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3124369317303439</v>
+        <v>0.170450326959109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.223637220887035</v>
+        <v>135.2974050155935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9709273623405148</v>
+        <v>0.8019023563238249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1334.477497726289</v>
+        <v>10040.44843559383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02974175756968787</v>
+        <v>3.054424010613075e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-219.6978540433581</v>
+        <v>12.77068893145187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6840383712776701</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9945.482461621421</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.034896535163481e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.706987553347439</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5872237985850911</v>
+        <v>0.3290324182065189</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.55762082058914</v>
+        <v>-1064.437836665999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9469730767648178</v>
+        <v>0.171815198015352</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.99902633814006</v>
+        <v>119.3659854685426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01471477200103986</v>
+        <v>0.0009047478944152304</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.2044697818049</v>
+        <v>153.4289866333158</v>
       </c>
       <c r="C4" t="n">
-        <v>2.159165538271159e-09</v>
+        <v>9.939814809529356e-11</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01923995329245402</v>
+        <v>-0.0007304622983037995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1212338687629391</v>
+        <v>0.9556475956075416</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.637394020025944e-05</v>
+        <v>1.834222050054346e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01245703458704421</v>
+        <v>0.3641858973540383</v>
       </c>
     </row>
     <row r="7">
@@ -5763,75 +5009,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.461640211966656</v>
+        <v>2.843103418847635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4637377410450551</v>
+        <v>0.5434542096731851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8259061503164915</v>
+        <v>329.5165566182268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8882147996918925</v>
+        <v>0.5394630276349545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1451.202785448766</v>
+        <v>8512.489694421474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009630184558830111</v>
+        <v>1.702827765638973e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-311.3239967952154</v>
+        <v>18.71101614792322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5071529803619738</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9909.49099051446</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.994498281252334e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.04645124951886</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8607090347585424</v>
+        <v>0.1574155735238872</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1307.818574343794</v>
+        <v>-1301.880568731937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2873486570876706</v>
+        <v>0.1012126793568174</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.50413634037584</v>
+        <v>64.16622456006937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0204849302687897</v>
+        <v>0.04183228761105363</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8689981828181</v>
+        <v>136.4161249869213</v>
       </c>
       <c r="C4" t="n">
-        <v>4.732731128351434e-12</v>
+        <v>1.552809668461869e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01868850323446046</v>
+        <v>-0.01068491442909961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1053744888071253</v>
+        <v>0.4445954585386703</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.968402320171848e-05</v>
+        <v>1.814940707435543e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02037218260020104</v>
+        <v>0.3370154160461134</v>
       </c>
     </row>
     <row r="7">
@@ -5942,75 +5162,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.574962543206262</v>
+        <v>3.264877294624606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06338440756040682</v>
+        <v>0.493781227543636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.817920068508968</v>
+        <v>89.46796723962808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3853299277455584</v>
+        <v>0.8603131877377383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1476.143054583341</v>
+        <v>11539.96007945887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01375931201019787</v>
+        <v>1.593531432775615e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-94.5605510072487</v>
+        <v>25.30600076235327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8460044237248285</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10378.86778168431</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.842653794190116e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.7262889496770413</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9524432524907465</v>
+        <v>0.06788840002592005</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1146.331060750582</v>
+        <v>-887.8019332575768</v>
       </c>
       <c r="C2" t="n">
-        <v>0.306070879478708</v>
+        <v>0.3197908815636704</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.49904229154828</v>
+        <v>67.01243038969112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01129888151486801</v>
+        <v>0.04118695264714897</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4521855988858</v>
+        <v>153.4261638427827</v>
       </c>
       <c r="C4" t="n">
-        <v>6.796519380442765e-11</v>
+        <v>1.861236893946651e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02147113025807559</v>
+        <v>-0.01633823684204481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04218586051926467</v>
+        <v>0.3030880877934894</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.308861116233141e-05</v>
+        <v>2.974680492820551e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003401346085851257</v>
+        <v>0.1486857777924376</v>
       </c>
     </row>
     <row r="7">
@@ -6121,75 +5315,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8852605699756815</v>
+        <v>6.235257655042254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8523194178036121</v>
+        <v>0.2081837486379106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.149711135288754</v>
+        <v>218.7271612731793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117299870614993</v>
+        <v>0.6790260030657863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-456.8561793962672</v>
+        <v>9995.070894590823</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4405672407217341</v>
+        <v>1.080896558537673e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.3991437737379</v>
+        <v>9.257362006180959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3185231429584612</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8564.606477254245</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.213698150630889e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.899467146847595</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4766140461337028</v>
+        <v>0.5226113772707093</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-691.1544053232482</v>
+        <v>-823.7016448292666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5658076205474871</v>
+        <v>0.2599308126549151</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.2679244435212</v>
+        <v>39.00103379316953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001537414229406526</v>
+        <v>0.2134890228564242</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.6476428684456</v>
+        <v>153.9463836850199</v>
       </c>
       <c r="C4" t="n">
-        <v>1.109171420103839e-07</v>
+        <v>5.115958607952941e-12</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02045654594294337</v>
+        <v>-0.014877733189776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09278540663795906</v>
+        <v>0.2298558487830271</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.688743735491586e-05</v>
+        <v>3.192191670774824e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1437557092629869</v>
+        <v>0.0734859247801294</v>
       </c>
     </row>
     <row r="7">
@@ -6300,75 +5468,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.431329396916563</v>
+        <v>3.621668221193373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359035533702072</v>
+        <v>0.3958973946249799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.802400794624241</v>
+        <v>380.4498275605864</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6622652645523759</v>
+        <v>0.3843475590510919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-747.4661115366935</v>
+        <v>9418.336233746517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2463587230861362</v>
+        <v>2.962394399678321e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>324.9912625444397</v>
+        <v>14.54488779166206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5179312124598119</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10608.57152116981</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.2122742400494e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.30861335727724</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3654364316058413</v>
+        <v>0.2126815363863155</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>541.537027846322</v>
+        <v>-793.6484011679336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6567641750289652</v>
+        <v>0.3467935573624814</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.06614123214435</v>
+        <v>66.81601156198333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002913349461487589</v>
+        <v>0.06454299893474857</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.2132393457738</v>
+        <v>146.9744584501547</v>
       </c>
       <c r="C4" t="n">
-        <v>1.195082943648379e-07</v>
+        <v>2.666333857928291e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03218623096231317</v>
+        <v>-0.0101772807977563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006014831459560456</v>
+        <v>0.4523960073982841</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.013114133855774e-05</v>
+        <v>1.899354869162109e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002201885368739252</v>
+        <v>0.3259176156419921</v>
       </c>
     </row>
     <row r="7">
@@ -6479,75 +5621,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.585988657185299</v>
+        <v>6.483322912449198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6092890278242034</v>
+        <v>0.1740610934138498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.360269918068571</v>
+        <v>-185.0987964435117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5991596704115569</v>
+        <v>0.7217891233595137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1316.786389194789</v>
+        <v>10055.78674967652</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02462203259191384</v>
+        <v>8.138244646993899e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.7649571074094</v>
+        <v>13.36280226476518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5926185304852523</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10275.41324392546</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.437563779288379e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-10.90314299865189</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3752821829580437</v>
+        <v>0.3446602280079537</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>855.9689867377288</v>
+        <v>-838.9722595146604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4726361584175011</v>
+        <v>0.292474541085147</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.01162038167776</v>
+        <v>76.82628788730339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02027629677129105</v>
+        <v>0.02756091104273816</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.273246712719</v>
+        <v>131.6727851770054</v>
       </c>
       <c r="C4" t="n">
-        <v>3.431101619784697e-07</v>
+        <v>4.511923533194333e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02842622728930657</v>
+        <v>-0.004748091421687894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02335934096109575</v>
+        <v>0.7125644465852832</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.003229372909464e-05</v>
+        <v>2.76317159792311e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01820450045602496</v>
+        <v>0.8937525441387498</v>
       </c>
     </row>
     <row r="7">
@@ -6658,75 +5774,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.297647404030467</v>
+        <v>5.591884561306674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.809148213180974</v>
+        <v>0.2249703505771787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.784187796150261</v>
+        <v>27.71184473918606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4321692441045576</v>
+        <v>0.9558422117009252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1354.447299408909</v>
+        <v>9421.165321951887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02181883100941166</v>
+        <v>1.162219610457827e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.8224550002909</v>
+        <v>20.61947125695376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8313593755999512</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9860.363249494978</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.999201873767932e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.276447558503037</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6596922327163512</v>
+        <v>0.1220226038325258</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>910.012808337171</v>
+        <v>-1523.070252674807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4112225134565713</v>
+        <v>0.04258740200347251</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.47312654879657</v>
+        <v>56.16818056644776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001361980644831785</v>
+        <v>0.07164502762141702</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.2367390926506</v>
+        <v>171.0285819613151</v>
       </c>
       <c r="C4" t="n">
-        <v>1.25736971011546e-08</v>
+        <v>1.401825261640253e-13</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03159463096866725</v>
+        <v>-0.002098676708198792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006403768649065357</v>
+        <v>0.8771650328635344</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.332043187834037e-05</v>
+        <v>3.201119523210767e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001204303241836511</v>
+        <v>0.07150226320884925</v>
       </c>
     </row>
     <row r="7">
@@ -6837,75 +5927,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3695921103082771</v>
+        <v>6.420965244095992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9406831059155624</v>
+        <v>0.143946044823758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.250808080807822</v>
+        <v>-158.2324819041805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3738854313630828</v>
+        <v>0.7253265277913223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1600.871924833159</v>
+        <v>10399.63990428792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005234424654416145</v>
+        <v>1.642114464035239e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2629351665557</v>
+        <v>20.71552205894317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3629422268327932</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9707.940933803447</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.873980879384293e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.35911135927678</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3346383468081892</v>
+        <v>0.09712640985819562</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-44.46452444677425</v>
+        <v>-977.3821518509208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9678198206305053</v>
+        <v>0.245565561356878</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.78802082545914</v>
+        <v>67.05970428698632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001498626673356663</v>
+        <v>0.05465382489172781</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.7323057266224</v>
+        <v>135.2089194317977</v>
       </c>
       <c r="C4" t="n">
-        <v>4.998467567382822e-11</v>
+        <v>5.679689124476414e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01594258131925326</v>
+        <v>-0.02160549520050042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1484361154849109</v>
+        <v>0.1704847415890947</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.352418662134814e-05</v>
+        <v>2.530328869297492e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02643666618416158</v>
+        <v>0.2462814852105173</v>
       </c>
     </row>
     <row r="7">
@@ -7016,75 +6080,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.296628629057366</v>
+        <v>3.975915363555238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1449558429114402</v>
+        <v>0.4025046237598349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.519690804386556</v>
+        <v>243.6900595821168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7798364628403949</v>
+        <v>0.649991847564894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1074.446591290824</v>
+        <v>10875.49392477398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04987400664339096</v>
+        <v>6.005385227675537e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.88027576527736</v>
+        <v>19.20315157208506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9596070108858017</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9469.247068363311</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.43458788324612e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.510299970892419</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6789227646309701</v>
+        <v>0.1463991866795289</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>221.6450120485842</v>
+        <v>-946.8630141444204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8532868436051254</v>
+        <v>0.2069259411949301</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.7125677407042</v>
+        <v>74.63592703136077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0532780593944376</v>
+        <v>0.01891468994855139</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.3605379802814</v>
+        <v>127.1960394087352</v>
       </c>
       <c r="C4" t="n">
-        <v>9.180987022429785e-09</v>
+        <v>2.724760320666661e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02203758554117394</v>
+        <v>-0.002671820226534304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04980997249413893</v>
+        <v>0.8320337074156052</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.141801244937863e-05</v>
+        <v>-6.940576154370559e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01392124884440287</v>
+        <v>0.7180303887471975</v>
       </c>
     </row>
     <row r="7">
@@ -7195,75 +6233,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4792349298515486</v>
+        <v>2.104878525457718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9275643241272292</v>
+        <v>0.6450079137130654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.738501147762735</v>
+        <v>225.9359740218829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4519149006064007</v>
+        <v>0.6538008835221507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-654.4942355573135</v>
+        <v>9761.692831050634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3232097375797988</v>
+        <v>4.383292981546267e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.1463406569421</v>
+        <v>27.414457873544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5066272406672766</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10397.2406085078</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.368358553014448e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.421767690069613</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9718212025571945</v>
+        <v>0.03892936874352657</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-152.3454400181026</v>
+        <v>-1335.835211338829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8974804181062201</v>
+        <v>0.1267671688344343</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.30372618106179</v>
+        <v>88.60523771481499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01767480767386551</v>
+        <v>0.01155444064283602</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.7344524279032</v>
+        <v>168.1665421206053</v>
       </c>
       <c r="C4" t="n">
-        <v>6.460615413712149e-09</v>
+        <v>2.552014339331369e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02191680584945548</v>
+        <v>-0.006234826794600717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09599653991290372</v>
+        <v>0.6625940398543966</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.583440703449733e-05</v>
+        <v>3.613515363579271e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04944045939943677</v>
+        <v>0.1132330639104169</v>
       </c>
     </row>
     <row r="7">
@@ -7374,75 +6386,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.70177937579439</v>
+        <v>3.832365902489435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2778454581001316</v>
+        <v>0.4399436259762759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3232810850186851</v>
+        <v>457.7007140976968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9598632171023498</v>
+        <v>0.3941126744035787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1355.800367820327</v>
+        <v>10053.33086826538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02212392362010018</v>
+        <v>5.317460987305123e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-45.43185893106352</v>
+        <v>12.96096066868259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9285955355151552</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9456.033825547313</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.378463425335609e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.3215224620235873</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9798857089146378</v>
+        <v>0.3734683985226607</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-691.2827166763905</v>
+        <v>-276.6849204818118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5921885398108619</v>
+        <v>0.7209998936912665</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.40693110922945</v>
+        <v>77.17762723695866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04238260765424229</v>
+        <v>0.01832808995474653</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.3929736459462</v>
+        <v>129.4359338729712</v>
       </c>
       <c r="C4" t="n">
-        <v>6.378459373726402e-10</v>
+        <v>2.996281031010481e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01697820682441484</v>
+        <v>-0.0128508748807826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1687222797801552</v>
+        <v>0.2824099950979773</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.75457654060065e-05</v>
+        <v>1.879348896570327e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0465818560102149</v>
+        <v>0.2773938992035037</v>
       </c>
     </row>
     <row r="7">
@@ -7553,75 +6539,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.2581038422693</v>
+        <v>5.684750621449673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3057991740681006</v>
+        <v>0.2080353961712544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.371916885563621</v>
+        <v>208.3669888556797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8448602167886782</v>
+        <v>0.661243844750914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-930.3596189429936</v>
+        <v>8018.114855375788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1346635466997032</v>
+        <v>3.534572530824223e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-143.4271857873118</v>
+        <v>9.310848656928037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7755557720644454</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10429.76186862505</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.200742011560698e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.572530381261172</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4842453020207773</v>
+        <v>0.4753154399862963</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-50.43002181546944</v>
+        <v>-535.9683872701346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9658253543320494</v>
+        <v>0.489863684085692</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.97692282305761</v>
+        <v>46.63482652475352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03094571628325707</v>
+        <v>0.1680472832153541</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.5812860688844</v>
+        <v>146.3720812871561</v>
       </c>
       <c r="C4" t="n">
-        <v>1.112439535846469e-10</v>
+        <v>2.897921916258244e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0256437847254149</v>
+        <v>-0.01123492127600188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02218083386500396</v>
+        <v>0.3631542405748585</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.150952982599304e-05</v>
+        <v>1.890133447228331e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001094452484544391</v>
+        <v>0.3053641025048755</v>
       </c>
     </row>
     <row r="7">
@@ -7732,75 +6692,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.40811896776853</v>
+        <v>5.161244225585964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2365269602685843</v>
+        <v>0.2807350259896859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5060648390135469</v>
+        <v>-30.26455305436292</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9290921748112436</v>
+        <v>0.951968811249621</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1135.77768982859</v>
+        <v>8205.44328386845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04092526637968553</v>
+        <v>9.435002856740294e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.8107505995818</v>
+        <v>18.79332094290138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7269685233664028</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9343.509296450258</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.578161639648374e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.735335277234185</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4613349537984059</v>
+        <v>0.1561486746201684</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.15926688599211</v>
+        <v>-1674.576660170829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973735721774528</v>
+        <v>0.03759759175597278</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.87273371677949</v>
+        <v>86.50237994972728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05333497018648563</v>
+        <v>0.01162286336122347</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.5739638015878</v>
+        <v>166.8264136558474</v>
       </c>
       <c r="C4" t="n">
-        <v>3.074205537260187e-09</v>
+        <v>2.597213570709224e-11</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01858463082537311</v>
+        <v>-0.002581974940539508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1280079950185116</v>
+        <v>0.8367491485191498</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.142738014902957e-05</v>
+        <v>3.165212122736411e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02498862345841994</v>
+        <v>0.0770718627571613</v>
       </c>
     </row>
     <row r="7">
@@ -7911,75 +6845,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.636165137159356</v>
+        <v>5.604301437429763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6210080662807572</v>
+        <v>0.2349653002033464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.090562065877254</v>
+        <v>-90.96746073835902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3241054503431795</v>
+        <v>0.8531852735108278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-509.312199193085</v>
+        <v>10829.88627194659</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4921196893730441</v>
+        <v>3.7090711429003e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.10603418141088</v>
+        <v>20.41253068926536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9275252175429674</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10487.21121712125</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.717499122192338e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.746650420285299</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5944825798659097</v>
+        <v>0.1262134476018647</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.53911273891003</v>
+        <v>-346.5869738783676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9828556095092726</v>
+        <v>0.6376701234515331</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.2311202610477</v>
+        <v>77.72008883148905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001536859585554056</v>
+        <v>0.01505082088087899</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.6986794256225</v>
+        <v>138.1705491926583</v>
       </c>
       <c r="C4" t="n">
-        <v>3.775145584241132e-08</v>
+        <v>1.801150346037553e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02181339021455324</v>
+        <v>-0.0117137149922221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05105539219800659</v>
+        <v>0.3681753335315419</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.479982518788861e-05</v>
+        <v>1.805753106697774e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03223519704223828</v>
+        <v>0.3621867525486246</v>
       </c>
     </row>
     <row r="7">
@@ -8090,75 +6998,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.274495885994183</v>
+        <v>1.367171801346082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6279726130625</v>
+        <v>0.7552319577641377</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.063872463457161</v>
+        <v>430.8104804863897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6002564538849633</v>
+        <v>0.3881067402913091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1258.461718423003</v>
+        <v>8265.896996786923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02371678427728246</v>
+        <v>2.034781055935634e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.4445497944392</v>
+        <v>12.36977620186734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5188393603865488</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10542.99601205381</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.203605183377393e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.27645995670162</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8602548914193842</v>
+        <v>0.3268343125011649</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690.4700564069581</v>
+        <v>-1304.870100420587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5438910096635675</v>
+        <v>0.1233366109843791</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.02723202372299</v>
+        <v>62.60895571782193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008627421036949716</v>
+        <v>0.06943347359632154</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.140939411325</v>
+        <v>156.823373075413</v>
       </c>
       <c r="C4" t="n">
-        <v>4.651074931673961e-10</v>
+        <v>1.230550005764957e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01650934460374671</v>
+        <v>-0.004548350591738626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1495439296388065</v>
+        <v>0.7674942824875831</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.234866220292236e-05</v>
+        <v>2.516152329324072e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05056429783019018</v>
+        <v>0.2658862906640925</v>
       </c>
     </row>
     <row r="7">
@@ -8269,75 +7151,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.674685956516568</v>
+        <v>1.372758390265678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5907097702716544</v>
+        <v>0.7771482982001964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.418482169399434</v>
+        <v>498.6593563248673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4512369652291126</v>
+        <v>0.3385204919544509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1369.863022213151</v>
+        <v>10627.33951651923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0200132263231267</v>
+        <v>4.064267450428348e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.303077377697036</v>
+        <v>20.19639923734729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9909987007343322</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8843.033269778751</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.49090802822252e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.35720161388349</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6921289807055198</v>
+        <v>0.1337391580186017</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357.6986431483142</v>
+        <v>-863.399991474027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7560121886159372</v>
+        <v>0.2525482086215934</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.94412194047956</v>
+        <v>100.9735887415212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01045185918897114</v>
+        <v>0.001042147882513324</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.9698754111018</v>
+        <v>160.8154089142976</v>
       </c>
       <c r="C4" t="n">
-        <v>4.776927921962567e-09</v>
+        <v>1.07879410884286e-12</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02324582810001949</v>
+        <v>0.005297648106026256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0498742678610502</v>
+        <v>0.7190917048242067</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.88037014086197e-05</v>
+        <v>1.40796358034934e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02407846546785975</v>
+        <v>0.5265895136775054</v>
       </c>
     </row>
     <row r="7">
@@ -8448,75 +7304,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.433920373873349</v>
+        <v>1.105780647482749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2757007240244153</v>
+        <v>0.8005342122117686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.276119598978283</v>
+        <v>53.80522994430885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6164989740466136</v>
+        <v>0.912816316730455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1169.292608585816</v>
+        <v>8640.900773701636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05602410440498731</v>
+        <v>1.583418317114467e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-188.7540141240431</v>
+        <v>16.78247179690451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7049402750041249</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9709.277374492816</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.288873238996333e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.852012148982407</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.817295392189374</v>
+        <v>0.1865791837290774</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-388.8666231869283</v>
+        <v>-1127.899489441948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7384555579310221</v>
+        <v>0.172107376532695</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.46573884198983</v>
+        <v>72.48896968144606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02232877393713201</v>
+        <v>0.02048691394434956</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.9944303080944</v>
+        <v>125.1325530800446</v>
       </c>
       <c r="C4" t="n">
-        <v>1.157658649465342e-08</v>
+        <v>1.126966549397215e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02720497317488833</v>
+        <v>-0.01233500197335977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04250611020132992</v>
+        <v>0.4195810624698256</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.089497223632971e-05</v>
+        <v>2.686531190907552e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02778601080004987</v>
+        <v>0.8928718760677297</v>
       </c>
     </row>
     <row r="7">
@@ -8627,75 +7457,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.158203811622702</v>
+        <v>8.490221908505761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.340266209535844</v>
+        <v>0.05944066145623177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8174067223288581</v>
+        <v>108.3722434353988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8992260434642103</v>
+        <v>0.822656871292664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1370.601780646017</v>
+        <v>11024.76292934834</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02089895630724714</v>
+        <v>5.868429209732166e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-34.57329662628302</v>
+        <v>19.45067418585308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9466859629459042</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10324.17749990728</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.0702210405785e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.208045560833931</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7812010618820862</v>
+        <v>0.1568812593559096</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.3819108344028</v>
+        <v>-1206.847164052668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8874288295889741</v>
+        <v>0.1546686810840555</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.99666815417054</v>
+        <v>27.1720628914222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01630751665291849</v>
+        <v>0.446418441760469</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.3810573336701</v>
+        <v>168.1960848131661</v>
       </c>
       <c r="C4" t="n">
-        <v>1.166015467211913e-09</v>
+        <v>4.503483091314009e-11</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01868389158792012</v>
+        <v>-0.0137493818322189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1064229364345815</v>
+        <v>0.3122319581742112</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.106034885012239e-05</v>
+        <v>2.629234506561864e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07903405656123878</v>
+        <v>0.2123294300927855</v>
       </c>
     </row>
     <row r="7">
@@ -8806,75 +7610,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.291845751091392</v>
+        <v>6.157264625165316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4895102931960565</v>
+        <v>0.2019446309850803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.648773204480035</v>
+        <v>302.5582920360653</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3342755234156635</v>
+        <v>0.5580155089865955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1214.997699292815</v>
+        <v>10236.21929513361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03051332459792087</v>
+        <v>5.276502439505752e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.87030475766551</v>
+        <v>16.00405556126414</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9382483958170204</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10675.89233791161</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.348024017551169e-13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.415810079554696</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7569944153357935</v>
+        <v>0.2219088999727824</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1510.636427967127</v>
+        <v>-471.8371771692957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2268371483903055</v>
+        <v>0.5114457124229956</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.2334407299178</v>
+        <v>78.84945369386224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002997148179521614</v>
+        <v>0.0108996067979153</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.6058493932621</v>
+        <v>126.0505518649723</v>
       </c>
       <c r="C4" t="n">
-        <v>4.640232517585632e-10</v>
+        <v>6.858860503936933e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02113248213682643</v>
+        <v>-0.009843916279197104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08876876370825341</v>
+        <v>0.4396141416654052</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.658779037585581e-05</v>
+        <v>1.803201748611289e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005955878019228778</v>
+        <v>0.9193269306320165</v>
       </c>
     </row>
     <row r="7">
@@ -8985,75 +7763,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.377262971985064</v>
+        <v>2.487132753705993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1052400946650062</v>
+        <v>0.5530945734387691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.853574318989038</v>
+        <v>496.8713535176166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2852591817220769</v>
+        <v>0.2946186398137706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1329.174812368424</v>
+        <v>7012.037780626231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02750119514770687</v>
+        <v>5.904766270634532e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-485.0687251579764</v>
+        <v>24.6392216349922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351787863303927</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9592.399801657726</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.521160080229124e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.81731367611651</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3625575850362948</v>
+        <v>0.05417887584324996</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>830.0146130823196</v>
+        <v>-1530.907642819895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.505662563068573</v>
+        <v>0.04447401072584237</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.14400201252545</v>
+        <v>62.93886303051008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03507883492132378</v>
+        <v>0.04640087303910626</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.0143828642646</v>
+        <v>167.2994295424219</v>
       </c>
       <c r="C4" t="n">
-        <v>1.731705601974297e-08</v>
+        <v>2.19252568177452e-12</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01972261216843884</v>
+        <v>0.002398171578132012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09819173013025891</v>
+        <v>0.8611025145022799</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.032651398900853e-05</v>
+        <v>3.142757330510613e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02002156889785414</v>
+        <v>0.111449485917133</v>
       </c>
     </row>
     <row r="7">
@@ -9164,75 +7916,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1465292552558388</v>
+        <v>2.960324007641109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9779353926093308</v>
+        <v>0.4914599250380766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.974615355883945</v>
+        <v>-55.69132414524711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2797473714999997</v>
+        <v>0.9077333015939668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-551.0324327435244</v>
+        <v>11279.62953255785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.396265821972954</v>
+        <v>5.784489578855071e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.6117024646064</v>
+        <v>19.73252345211621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6135853500686923</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9603.29673485276</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.02278205628897e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.163606077665889</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6225067402116634</v>
+        <v>0.1115774821789766</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-143.9708363816926</v>
+        <v>-1351.631091135038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9036652090912594</v>
+        <v>0.09657943055777576</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.66553670235979</v>
+        <v>80.39698739941537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0156137221703667</v>
+        <v>0.0186042541258349</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.6306304000732</v>
+        <v>137.0224044875777</v>
       </c>
       <c r="C4" t="n">
-        <v>6.561594136687625e-09</v>
+        <v>1.551224230152821e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02390807878195849</v>
+        <v>-0.01457004278871126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05241193133919768</v>
+        <v>0.2925940420219852</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.067645906832346e-05</v>
+        <v>1.692454935985561e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01784252203254636</v>
+        <v>0.4101921089964125</v>
       </c>
     </row>
     <row r="7">
@@ -9343,75 +8069,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.474173343530975</v>
+        <v>6.505332550026413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2888579827016586</v>
+        <v>0.2021982679295616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.599922161269941</v>
+        <v>144.8227594465626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6822515004017016</v>
+        <v>0.7831032873247874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1227.91688158703</v>
+        <v>10656.64560435847</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04283548105144579</v>
+        <v>7.642728970231592e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.224472539302</v>
+        <v>24.60570049467843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7890668078247006</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9936.731157765946</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.756645423268463e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1562786652955808</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9901955593279697</v>
+        <v>0.08345124704204655</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ23978248" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ24112509" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ24252004" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ24396423" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ24513725" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ24651852" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ24779051" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ24944770" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ25080429" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ25227247" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ25363071" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ25513201" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ25645880" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ25779909" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ25912907" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ26052954" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ26208808" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ26413192" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ26563307" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ26730575" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ26952987" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ27147344" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ27329103" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ27498410" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ27678225" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ27831080" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ27961676" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ28113273" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ28246341" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ28379228" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ28496807" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ28629381" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ28763040" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ28879089" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ29012633" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ29153764" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ29279145" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ29396135" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ29530323" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ29662491" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ29796637" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ29928238" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ30060546" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ30193160" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ30314621" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ30445871" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ30579081" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ30710558" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ30829027" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ30963476" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ16127352" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ16251100" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ16349078" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ16458526" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ16568431" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16736136" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16853071" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16995990" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ17109174" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ17217312" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ17323151" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ17435692" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ17540569" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ17758395" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ17885426" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ17990164" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ18093397" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ18205647" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ18315391" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ18420033" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ18530306" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ18636075" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ18739933" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ18849937" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ18954739" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ19065198" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ19169958" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ19280226" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ19386715" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ19499991" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ19609844" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ19719719" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ19835162" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ19939792" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ20050047" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ20156289" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ20275044" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ20395994" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ20562767" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ20704202" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ20849910" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21004822" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ21145165" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ21304757" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ21459929" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ21604835" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ21745237" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ21900074" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ22060099" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ22225104" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16127352" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ16251100" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ16349078" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ16458526" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16568431" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16736136" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ16853071" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16995990" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ17109174" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ17217312" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ17323151" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ17435692" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ17540569" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ17758395" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ17885426" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ17990164" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ18093397" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ18205647" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ18315391" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ18420033" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ18530306" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ18636075" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ18739933" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ18849937" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ18954739" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ19065198" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ19169958" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ19280226" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ19386715" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ19499991" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ19609844" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ19719719" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ19835162" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ19939792" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ20050047" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ20156289" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ20275044" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ20395994" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ20562767" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ20704202" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ20849910" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ21004822" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ21145165" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ21304757" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ21459929" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ21604835" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ21745237" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ21900074" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ22060099" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ22225104" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ18067155" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ18179118" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18287628" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18392381" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ18499400" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ18607428" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ18716940" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ18936974" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19058907" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ19178063" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ19297714" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ19417783" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ19530612" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ19640518" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ19748427" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ19870974" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ19989483" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ20096632" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ20201145" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ20308660" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ20414173" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ20521963" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ20628699" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ20739804" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ20845658" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ20952169" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ21055677" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ21160188" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ21263224" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ21371814" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ21476324" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ21583494" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ21691141" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ21793653" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ21898674" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ22005197" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ22110733" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ22216323" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ22320835" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ22424345" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ22529855" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ22635342" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ22741185" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ22846698" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ22951327" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ23052840" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ23156350" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ23261513" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ23368022" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ23474691" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1602.259788017973</v>
+        <v>11.35904321396629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05805801205221272</v>
+        <v>0.9936074913773718</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.67162399723643</v>
+        <v>44.39421307037196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1104121220208102</v>
+        <v>0.1699010148531906</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1565298596654</v>
+        <v>138.9872096175785</v>
       </c>
       <c r="C4" t="n">
-        <v>1.566045275553917e-10</v>
+        <v>2.040724907084707e-08</v>
       </c>
     </row>
     <row r="5">
@@ -546,75 +546,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009973472282763435</v>
+        <v>-0.005852227696157203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4780625837774699</v>
+        <v>0.6428534048053307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.29760087273986e-05</v>
+        <v>3.858045984647255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237533874593896</v>
+        <v>0.5266485914540314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.43376719519912</v>
+        <v>-4.744959662899635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2628750972237065</v>
+        <v>0.5285661153104413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>349.5990147031998</v>
+        <v>-790.7554558856702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.494048918447564</v>
+        <v>0.248389551137113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11319.43968341519</v>
+        <v>-107.1842904745213</v>
       </c>
       <c r="C9" t="n">
-        <v>9.722567387828919e-10</v>
+        <v>0.8535486605213503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10542.09514514948</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.320958081181485e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>22.89097007066454</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09863345303091563</v>
+      <c r="B11" t="n">
+        <v>17.76273439543115</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2171727113862532</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-606.2518420320351</v>
+        <v>1774.53416279164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4794038222920485</v>
+        <v>0.2177026899539783</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.61388484682709</v>
+        <v>78.7332079626301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005012692575004668</v>
+        <v>0.01756117821874706</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.3146266154462</v>
+        <v>113.0114577671653</v>
       </c>
       <c r="C4" t="n">
-        <v>7.852552600623364e-09</v>
+        <v>3.591407915045608e-06</v>
       </c>
     </row>
     <row r="5">
@@ -699,75 +712,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01011713451815956</v>
+        <v>-0.008726705626541535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4613627569299809</v>
+        <v>0.4759570830371256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.361296244353443e-05</v>
+        <v>2.278427517917141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2067693094360932</v>
+        <v>0.6980382781402765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.322514845855062</v>
+        <v>-6.87429553748604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3740897147059098</v>
+        <v>0.3371137380304547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.64078118570899</v>
+        <v>-1257.314607770865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8988602316747563</v>
+        <v>0.05482748026824284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9703.353487537115</v>
+        <v>-614.4544909046913</v>
       </c>
       <c r="C9" t="n">
-        <v>1.607062036377691e-08</v>
+        <v>0.26789882564128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8808.753134243841</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.349821516109145e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9.469246044381208</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5036196409748478</v>
+      <c r="B11" t="n">
+        <v>0.0290947825459682</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9984122547603049</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1203.62530066464</v>
+        <v>903.7985274601324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1163603031637965</v>
+        <v>0.5088350751640037</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.99124259986536</v>
+        <v>48.94166326394203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02287656440945052</v>
+        <v>0.1559290425707375</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.9071022253011</v>
+        <v>132.8739277038566</v>
       </c>
       <c r="C4" t="n">
-        <v>9.669928057745291e-10</v>
+        <v>4.276565486083343e-08</v>
       </c>
     </row>
     <row r="5">
@@ -852,75 +878,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0138327642325863</v>
+        <v>-0.004953652510049865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3698711411182095</v>
+        <v>0.7089713303177325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.015835055457237e-05</v>
+        <v>2.760053372057058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1153563897229262</v>
+        <v>0.6248798827249837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.505729015502181</v>
+        <v>-5.797886058914791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3170204162806711</v>
+        <v>0.4160403550265773</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.1160877676937</v>
+        <v>-1135.855964073254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8269931307511921</v>
+        <v>0.1008200241552496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10491.76859032973</v>
+        <v>-697.6077414317868</v>
       </c>
       <c r="C9" t="n">
-        <v>1.02904655468724e-09</v>
+        <v>0.2262916142661006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9560.787162491888</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.605655351967726e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.09253048284617</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641307957869692</v>
+      <c r="B11" t="n">
+        <v>11.4542513767778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3978324253708676</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1385.367852470557</v>
+        <v>448.9217488382092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09966109783115523</v>
+        <v>0.7411857490154796</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.55190335826009</v>
+        <v>52.67552424847139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03087269108839046</v>
+        <v>0.09708724602833896</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.0237261771045</v>
+        <v>146.3815318728349</v>
       </c>
       <c r="C4" t="n">
-        <v>6.56168437087614e-12</v>
+        <v>5.756084640397576e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1005,75 +1044,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003016800413644299</v>
+        <v>0.0009466478915697296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8292933890032306</v>
+        <v>0.9348879484339121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.50520571749161e-05</v>
+        <v>4.69468237266668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2645730129807418</v>
+        <v>0.3985148146033216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.422665581749921</v>
+        <v>-3.433317402265612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224237920618959</v>
+        <v>0.6250978040157013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.4485631003126</v>
+        <v>-1213.637833757753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5775942238139473</v>
+        <v>0.05074750916721085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10045.67734152434</v>
+        <v>-386.2477989648428</v>
       </c>
       <c r="C9" t="n">
-        <v>9.20699942751602e-09</v>
+        <v>0.4612630552066498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9115.593967054383</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.163375902975963e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.80934733845517</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2136009798048142</v>
+      <c r="B11" t="n">
+        <v>7.305022890823551</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6039864362688505</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1216.394044295627</v>
+        <v>881.2117016799393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112508434002895</v>
+        <v>0.5089601352382719</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.93745394160734</v>
+        <v>71.17910608293181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01327857919375642</v>
+        <v>0.02523650647878064</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.8652195273768</v>
+        <v>122.3782279864175</v>
       </c>
       <c r="C4" t="n">
-        <v>4.036427177753334e-09</v>
+        <v>2.356399439072262e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1158,75 +1210,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004548448220657106</v>
+        <v>-0.006925323094320028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7239281950036883</v>
+        <v>0.5473748559847336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.172196518073109e-06</v>
+        <v>0.1519256608538164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6325767137990884</v>
+        <v>0.9786193406817685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.391727079813419</v>
+        <v>-7.865475602581483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4780463660261545</v>
+        <v>0.2746599914598212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.8726242261974</v>
+        <v>-1013.431278975335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.54566419404943</v>
+        <v>0.1402071163934007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9319.184722896851</v>
+        <v>-14.19095535136205</v>
       </c>
       <c r="C9" t="n">
-        <v>1.773597413722487e-08</v>
+        <v>0.9789801749172233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8723.794201936595</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.36211677098951e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.75500955952066</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03930412617284108</v>
+      <c r="B11" t="n">
+        <v>17.93461814722934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1822346965543106</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-528.450884806502</v>
+        <v>1434.691544291649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5216403717540384</v>
+        <v>0.2807788801968611</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.99739997991051</v>
+        <v>62.70737767647792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02634163026931543</v>
+        <v>0.06381092016559715</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.652424150259</v>
+        <v>110.6221589776216</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02902843905804e-07</v>
+        <v>4.963288423811813e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1311,75 +1376,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009635246379732718</v>
+        <v>-0.01064295805777368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4840197133759483</v>
+        <v>0.3931018333583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.503878608676486e-05</v>
+        <v>3.097736063834013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4426699008903778</v>
+        <v>0.5981093325177563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.647331384219402</v>
+        <v>-3.715523956471124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3535935673662456</v>
+        <v>0.610065998107467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.60308684355778</v>
+        <v>-1555.324031958932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9450687848962606</v>
+        <v>0.03396272802616401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10374.13156593976</v>
+        <v>-853.117749325608</v>
       </c>
       <c r="C9" t="n">
-        <v>4.639888771249298e-09</v>
+        <v>0.1656637366795616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10002.60291085237</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.096863469491488e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10.29265080871338</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4495761205466634</v>
+      <c r="B11" t="n">
+        <v>1.507051179270178</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9133445823139824</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-482.074327982044</v>
+        <v>750.2731459326596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.551232396064508</v>
+        <v>0.5786126495873518</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.65358399253161</v>
+        <v>39.91923858495367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1803751874468084</v>
+        <v>0.2320668254587452</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3025643951641</v>
+        <v>131.6347630886036</v>
       </c>
       <c r="C4" t="n">
-        <v>2.908785624445224e-10</v>
+        <v>9.238023670728883e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1464,75 +1542,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01685596711671258</v>
+        <v>-0.01084217258163272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1885874404024593</v>
+        <v>0.3324896012531968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.970787380663002e-05</v>
+        <v>0.6518525960489061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296776564619994</v>
+        <v>0.9129616068999747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.295560350885906</v>
+        <v>-7.035712426722959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4746558509426916</v>
+        <v>0.3415215838436974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.4083726972094</v>
+        <v>121.1627675351333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5924059270018187</v>
+        <v>0.8677616292728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8730.322421274088</v>
+        <v>186.5917177726169</v>
       </c>
       <c r="C9" t="n">
-        <v>9.99343112567448e-08</v>
+        <v>0.7454850583421251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8278.142548814914</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.766736705777979e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.33428898441908</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1778029324477591</v>
+      <c r="B11" t="n">
+        <v>16.76538134746933</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2489534510155453</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-743.3727373598963</v>
+        <v>1075.941844645821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3928683693131226</v>
+        <v>0.4357603052955363</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.16477266194164</v>
+        <v>69.01783436945584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03117132170450411</v>
+        <v>0.05463127825119199</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.8380059127343</v>
+        <v>119.2162127202462</v>
       </c>
       <c r="C4" t="n">
-        <v>9.720699676801885e-08</v>
+        <v>3.164889444367549e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1617,75 +1708,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01282911790084035</v>
+        <v>-0.008061207487670811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3791306194010612</v>
+        <v>0.5210443853453705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.997617588762812e-05</v>
+        <v>-0.5940120499445314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.351633942390611</v>
+        <v>0.9252624979174724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.595079212904932</v>
+        <v>-9.641899623045267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4680589725464931</v>
+        <v>0.2079396633165428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.1746186348878</v>
+        <v>-162.6175578462942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6621023485894371</v>
+        <v>0.8300360077039766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9215.612680740374</v>
+        <v>90.13486496901578</v>
       </c>
       <c r="C9" t="n">
-        <v>8.036496809840661e-07</v>
+        <v>0.8823713129816275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8884.012703707664</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.433995023269612e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.73283642304209</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2040363737395586</v>
+      <c r="B11" t="n">
+        <v>14.71919253860499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3358757391101616</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1153.983147033972</v>
+        <v>2119.545416845377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1469169600408728</v>
+        <v>0.1281860499592302</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.63966111259465</v>
+        <v>42.79099554886174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06619566943859065</v>
+        <v>0.2020934330542874</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.644614985519</v>
+        <v>135.4861654230149</v>
       </c>
       <c r="C4" t="n">
-        <v>7.798205408184667e-11</v>
+        <v>5.39687219369696e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1770,75 +1874,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006802173116274221</v>
+        <v>-0.004472207687036035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6080541271165525</v>
+        <v>0.6937783575401977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.23822537646186e-05</v>
+        <v>3.488389768203984</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2371524797600159</v>
+        <v>0.5279816996606375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.794156855437407</v>
+        <v>-12.42891153214703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1482621078293662</v>
+        <v>0.1154781205201289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-248.243895949943</v>
+        <v>-1463.418175942503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6188418357880987</v>
+        <v>0.03796954242220112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9414.358137526506</v>
+        <v>-1088.741443811894</v>
       </c>
       <c r="C9" t="n">
-        <v>1.260435205910396e-08</v>
+        <v>0.05525657056677411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8477.643739508196</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.972890158930865e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.24164777282028</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1234236217920111</v>
+      <c r="B11" t="n">
+        <v>7.834075846436889</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.579643137054527</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1157.251913324508</v>
+        <v>1181.936353808047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1578894154047736</v>
+        <v>0.3750744553405534</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.7160746870984</v>
+        <v>44.89707848443288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07110148145915242</v>
+        <v>0.1843581649360421</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.3784883794661</v>
+        <v>128.5474621092587</v>
       </c>
       <c r="C4" t="n">
-        <v>1.222871130575062e-09</v>
+        <v>8.465027146031903e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1923,75 +2040,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0151580665852213</v>
+        <v>-0.01365952392748405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3169252291516426</v>
+        <v>0.3081657930721468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.006687842582673e-05</v>
+        <v>2.762012598490799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3266717372732794</v>
+        <v>0.6317802346654149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.018623081578943</v>
+        <v>-9.049306519501709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2103624722427695</v>
+        <v>0.1922209365653419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.5384676208168</v>
+        <v>-933.8244739502649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7924222694731777</v>
+        <v>0.1579127107015193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10846.31399433425</v>
+        <v>-276.6679497093282</v>
       </c>
       <c r="C9" t="n">
-        <v>6.462405302713362e-10</v>
+        <v>0.627855291818515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9951.965201168208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.366015579145443e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.51939986822627</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1609002922388937</v>
+      <c r="B11" t="n">
+        <v>10.49479275656504</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4430663587284261</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2037,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1170.787839600057</v>
+        <v>238.5093354122509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1234819403668444</v>
+        <v>0.8489267577674653</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.48921191700721</v>
+        <v>34.1491267909824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1500402077885495</v>
+        <v>0.2745750496712758</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9977801867427</v>
+        <v>154.9602279599913</v>
       </c>
       <c r="C4" t="n">
-        <v>3.612432264476544e-13</v>
+        <v>1.010287464414813e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2076,75 +2206,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001794816144849089</v>
+        <v>0.005832130304565503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8914894693228811</v>
+        <v>0.6221310952806904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.346855308210828e-05</v>
+        <v>3.919534842101916</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09486923818220541</v>
+        <v>0.4884076030165317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.037273330868228</v>
+        <v>-3.782896253199958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2725814805290265</v>
+        <v>0.5631206746112036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.99424308746421</v>
+        <v>-659.1260920780077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9355226104107803</v>
+        <v>0.3014130340300409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10420.02368971944</v>
+        <v>-477.3051768313301</v>
       </c>
       <c r="C9" t="n">
-        <v>2.55285939411116e-10</v>
+        <v>0.3700537235444346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9756.791956588359</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.914746104320655e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11.56811694571127</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3747624500151241</v>
+      <c r="B11" t="n">
+        <v>9.026186183995215</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.503172769178752</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-691.8468845289181</v>
+        <v>1286.809848504509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3877802224414248</v>
+        <v>0.3147682185709129</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.69252125627395</v>
+        <v>49.86722838320358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04759665916097922</v>
+        <v>0.1288467429850291</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.8320486853469</v>
+        <v>122.9413269417127</v>
       </c>
       <c r="C4" t="n">
-        <v>3.603101372446445e-09</v>
+        <v>1.655443391089634e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2229,75 +2372,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01346193366424037</v>
+        <v>-0.008039145113777457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3110968909786755</v>
+        <v>0.5000536001656576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.611962620809189e-05</v>
+        <v>0.7152419247266213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1521750932869808</v>
+        <v>0.8998266255460857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.088479707412548</v>
+        <v>-7.081619554434329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5196416834180284</v>
+        <v>0.2955299749650245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>444.9026005695459</v>
+        <v>-787.6731096064277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4062093200917338</v>
+        <v>0.2529586767309591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9969.653150492875</v>
+        <v>-12.68356658399233</v>
       </c>
       <c r="C9" t="n">
-        <v>5.468188441392551e-09</v>
+        <v>0.9825627030129938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9108.322100909947</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.244650751433937e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10.11501721883241</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4488479464740827</v>
+      <c r="B11" t="n">
+        <v>4.21228019417142</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.762643620325663</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-803.3244902513421</v>
+        <v>-456.4137295315741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2803331987079975</v>
+        <v>0.7399797308554776</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.0535669432392</v>
+        <v>94.14650440981853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005978581415641473</v>
+        <v>0.001652930740905558</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.4730367901344</v>
+        <v>112.2082191007799</v>
       </c>
       <c r="C4" t="n">
-        <v>2.676876468790062e-08</v>
+        <v>1.230990257531285e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2382,75 +2538,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01102870371098929</v>
+        <v>-0.0115080132034495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3523248271575082</v>
+        <v>0.2627574197593007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.981341156050692e-06</v>
+        <v>4.963204957393692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6883964093872292</v>
+        <v>0.3555172269025333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.711836371067161</v>
+        <v>6.174290077373975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6826869304207166</v>
+        <v>0.3838344075929369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8325681894754</v>
+        <v>-1440.571596360651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07397776753273286</v>
+        <v>0.02480179310457522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8876.786065481554</v>
+        <v>130.6838809311844</v>
       </c>
       <c r="C9" t="n">
-        <v>1.56484138450741e-08</v>
+        <v>0.8008109128400268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8378.45197654732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.628270708511629e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.80324628594851</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09782802753945408</v>
+      <c r="B11" t="n">
+        <v>11.73238176896546</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3559634414101783</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2496,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1557.807927234999</v>
+        <v>442.7146160919046</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03636604845749913</v>
+        <v>0.7302784492490852</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.73781838607448</v>
+        <v>54.76742961759527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01588598802102668</v>
+        <v>0.07675775677420477</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.9175808325679</v>
+        <v>138.9604966856009</v>
       </c>
       <c r="C4" t="n">
-        <v>5.000006440629156e-13</v>
+        <v>5.633602618144499e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2535,75 +2704,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01234473066796331</v>
+        <v>-0.003221739747553617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3280462638549462</v>
+        <v>0.7865374767487582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.288701039982896e-05</v>
+        <v>2.842672089839596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01691091893502236</v>
+        <v>0.5855107086475987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.091340794545955</v>
+        <v>-5.159257735092876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3136898550591483</v>
+        <v>0.4332076070677745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.7049925713494</v>
+        <v>-781.0376043547474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5305289121122488</v>
+        <v>0.2311502017931161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11240.20528439719</v>
+        <v>-388.1828474012689</v>
       </c>
       <c r="C9" t="n">
-        <v>2.4729342160644e-12</v>
+        <v>0.4664112172128612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10106.76064698877</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.063665892755065e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.4278893996302</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1701821097750574</v>
+      <c r="B11" t="n">
+        <v>11.15185337693004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3870183498320662</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-748.6993157234383</v>
+        <v>1107.274406191286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3485001534432262</v>
+        <v>0.4057393114535693</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.4079446705116</v>
+        <v>43.18712381193419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120504343032901</v>
+        <v>0.2069941909177982</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.347838205775</v>
+        <v>128.1888522764422</v>
       </c>
       <c r="C4" t="n">
-        <v>1.482850940104994e-09</v>
+        <v>6.530571591000356e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2688,75 +2870,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01290383949631252</v>
+        <v>-0.007617412860170925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3978773279944408</v>
+        <v>0.5791801032617259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.056866434553239e-05</v>
+        <v>-0.8609700760381021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2855858295419604</v>
+        <v>0.8868376177145447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.827070194005529</v>
+        <v>-9.373385546021773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5603338112436067</v>
+        <v>0.194289535763622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.7254431703041</v>
+        <v>-276.231647946528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4669669920904168</v>
+        <v>0.7046998774232427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9055.848829877476</v>
+        <v>145.7258568295133</v>
       </c>
       <c r="C9" t="n">
-        <v>7.373432978589168e-08</v>
+        <v>0.8018867103726689</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8490.645215961993</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.030098861542595e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.59619521601374</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1589313418577405</v>
+      <c r="B11" t="n">
+        <v>16.02064342066558</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2655936749870171</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1056.810629329466</v>
+        <v>820.3159087714157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1954657137781965</v>
+        <v>0.5507910328151622</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.09820243870752</v>
+        <v>65.84168545705796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01642025303560733</v>
+        <v>0.04802413030193362</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.6715719756421</v>
+        <v>123.8379929267925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.540221462865968e-09</v>
+        <v>3.13777475487906e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2841,75 +3036,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007885069846145766</v>
+        <v>-0.005306415507619275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5495167334931124</v>
+        <v>0.647422943496557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.003665322268618e-05</v>
+        <v>3.659459016881064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2934587323371962</v>
+        <v>0.559291320242539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.185507873774678</v>
+        <v>-4.649639448944847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291632068488248</v>
+        <v>0.5598229227107889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.6144286283239</v>
+        <v>-1286.901600310477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6559920762396714</v>
+        <v>0.07206797108396593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9998.129804001328</v>
+        <v>-454.2054380803811</v>
       </c>
       <c r="C9" t="n">
-        <v>1.278225948014063e-08</v>
+        <v>0.4257433029946897</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9449.200765503909</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.268907009721631e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.27486627523352</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2280519038462849</v>
+      <c r="B11" t="n">
+        <v>8.933455044094529</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5192344596786467</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-696.528275517413</v>
+        <v>255.3826536317083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38474782240407</v>
+        <v>0.8479083886320886</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.62751807262015</v>
+        <v>64.21921477050564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04088687532581121</v>
+        <v>0.06628291465937665</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.2185421577344</v>
+        <v>129.3705560765497</v>
       </c>
       <c r="C4" t="n">
-        <v>4.498359186132654e-08</v>
+        <v>1.587566909738903e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2994,75 +3202,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.000608683388330488</v>
+        <v>-0.007493639694484036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9655557971280454</v>
+        <v>0.5208800839131984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.501518409152986e-06</v>
+        <v>6.354204155982167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7112388729123453</v>
+        <v>0.2876337423901464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.011729800845369</v>
+        <v>-1.570854715065749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1596817530330678</v>
+        <v>0.8270091022718127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-198.9979529529244</v>
+        <v>-1043.661639328146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7088088305687832</v>
+        <v>0.1128085606975923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9585.198880702374</v>
+        <v>-504.7878183989137</v>
       </c>
       <c r="C9" t="n">
-        <v>2.009959475091373e-08</v>
+        <v>0.3701857583161475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9334.682279464318</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.325581153800434e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>17.50438996059203</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1907652144739547</v>
+      <c r="B11" t="n">
+        <v>10.82149536237284</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4337903039407446</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-905.6959744182677</v>
+        <v>2022.134900231724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2854751501216698</v>
+        <v>0.1754057031137146</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.8245790416189</v>
+        <v>52.76529639296078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02018563844077105</v>
+        <v>0.09993107245064035</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.6520288635208</v>
+        <v>130.3615555606867</v>
       </c>
       <c r="C4" t="n">
-        <v>6.149543167867768e-10</v>
+        <v>7.265465012969377e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3147,75 +3368,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006490590303039832</v>
+        <v>-0.003928706984847128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6347328233413569</v>
+        <v>0.7356195545832462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.073681060977089e-05</v>
+        <v>0.3768750191115999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2966501335908834</v>
+        <v>0.945834630088631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.061952848147452</v>
+        <v>-8.439903723888948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5061111618619355</v>
+        <v>0.2567591814704771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.6065619662481</v>
+        <v>-1449.772952902397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7912976955036568</v>
+        <v>0.03664418725980877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8856.236654048647</v>
+        <v>-571.8762544684892</v>
       </c>
       <c r="C9" t="n">
-        <v>9.119649664244559e-07</v>
+        <v>0.3313223179442767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7427.170518120065</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.277257240204792e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.3736669264614</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1460930956526149</v>
+      <c r="B11" t="n">
+        <v>4.156100337442396</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7838915940984263</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3261,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1174.903053309604</v>
+        <v>192.6029085405298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1416909814161086</v>
+        <v>0.8893571969303722</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.23509511701576</v>
+        <v>36.38985727289583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1577181640017922</v>
+        <v>0.2499319350538302</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.2671634037702</v>
+        <v>141.8984571740838</v>
       </c>
       <c r="C4" t="n">
-        <v>1.238933097705918e-10</v>
+        <v>1.168657364643581e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3300,75 +3534,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01067669261538224</v>
+        <v>-0.007345264607741687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4587838801960658</v>
+        <v>0.5530044484092289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.77293978233693e-05</v>
+        <v>4.931891811194898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3722905566844213</v>
+        <v>0.3952918889450545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.366524230914179</v>
+        <v>-2.646840626629057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2608604830131029</v>
+        <v>0.713432104102522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.0193560791392</v>
+        <v>-974.1771060252968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7082279778921929</v>
+        <v>0.1543874029921886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10629.3119812589</v>
+        <v>-345.4803279086104</v>
       </c>
       <c r="C9" t="n">
-        <v>1.330006173625622e-09</v>
+        <v>0.5548089675194077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10089.77274519882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.804471328604524e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.46849579988009</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1428363171686827</v>
+      <c r="B11" t="n">
+        <v>12.32121153744608</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3789628343050241</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-651.5418822727424</v>
+        <v>1482.948074724239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4141512623556812</v>
+        <v>0.3192965039767207</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.78080130169045</v>
+        <v>76.86787133685053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008215646265584143</v>
+        <v>0.02527895031993898</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.1865308779992</v>
+        <v>123.6990461772511</v>
       </c>
       <c r="C4" t="n">
-        <v>4.947812106040797e-09</v>
+        <v>2.675693658686728e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3453,75 +3700,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003732132623298811</v>
+        <v>-0.003066245294646001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7811908369644573</v>
+        <v>0.7952968530479245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.773234640264782e-05</v>
+        <v>2.01784113908115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3618595463271138</v>
+        <v>0.744623500357904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.910188984993185</v>
+        <v>-5.968412610102151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5530228076193267</v>
+        <v>0.4726663665593597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.5537212318477</v>
+        <v>-1316.89580181439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4924523296349846</v>
+        <v>0.04899480859682067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9105.56891765683</v>
+        <v>-405.0375209021253</v>
       </c>
       <c r="C9" t="n">
-        <v>1.238525499320981e-07</v>
+        <v>0.4762720728791343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8341.991015819642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.531495230694757e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10.63370955684405</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4467377937001742</v>
+      <c r="B11" t="n">
+        <v>1.222205508017865</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9327195036260201</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3567,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-392.7053862379544</v>
+        <v>1699.458442611247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6011000902687766</v>
+        <v>0.1556443166397727</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.21061197769313</v>
+        <v>25.20006580408577</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2492762312805476</v>
+        <v>0.39453479721982</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.4898082215672</v>
+        <v>133.5424456550777</v>
       </c>
       <c r="C4" t="n">
-        <v>4.627314284909504e-12</v>
+        <v>7.020052359135899e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3606,75 +3866,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006129221038726576</v>
+        <v>-0.0003188528442832801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6255626037557236</v>
+        <v>0.9769623290058524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.48235551549721e-05</v>
+        <v>-3.231772413694239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.173388709679453</v>
+        <v>0.5432141505335751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.624553986977176</v>
+        <v>-11.18327425338793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7008897287430425</v>
+        <v>0.1009243275475425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.0315161972876</v>
+        <v>-187.0141485465424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5413837525050367</v>
+        <v>0.7923821204355725</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8270.548212640144</v>
+        <v>48.43383010951356</v>
       </c>
       <c r="C9" t="n">
-        <v>1.625779448429117e-07</v>
+        <v>0.9265314383294142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7684.550749662692</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.761196007621028e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13.18588848909438</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2932867074474113</v>
+      <c r="B11" t="n">
+        <v>11.15496422783956</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3936783619108022</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1404.187220619931</v>
+        <v>634.3234649980259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.104052130882753</v>
+        <v>0.6617156040130032</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.78938987230967</v>
+        <v>69.03318639444467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008116799035254661</v>
+        <v>0.05305618012680891</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.1049689985776</v>
+        <v>118.7739280848309</v>
       </c>
       <c r="C4" t="n">
-        <v>3.380559156873206e-08</v>
+        <v>1.114683246434257e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3759,75 +4032,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02813458205569877</v>
+        <v>-0.01723170627419048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05908959073479937</v>
+        <v>0.175861881251162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.423687837120946e-05</v>
+        <v>5.769718350125785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09546969784976271</v>
+        <v>0.3334638115943527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.455122663180834</v>
+        <v>-4.398588839606255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1168222779773727</v>
+        <v>0.5372201809786638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.5429802585518</v>
+        <v>-965.8949231010993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.594327496547844</v>
+        <v>0.1770910869665528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10269.43180787684</v>
+        <v>-387.6172251213488</v>
       </c>
       <c r="C9" t="n">
-        <v>5.701690983112197e-09</v>
+        <v>0.4879559375701279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9096.632869072655</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.253815768686117e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>23.1748657112431</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09053208705504515</v>
+      <c r="B11" t="n">
+        <v>12.90807610975345</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3842834854842435</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-966.9265694683427</v>
+        <v>-845.0902670326593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201782615094604</v>
+        <v>0.5422651617010819</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.54871811892967</v>
+        <v>76.96663172042403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02345899404595385</v>
+        <v>0.03056418547141601</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.9072234681094</v>
+        <v>119.9741869816669</v>
       </c>
       <c r="C4" t="n">
-        <v>3.037154258764906e-07</v>
+        <v>3.161802572536442e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3912,75 +4198,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0097400775334434</v>
+        <v>-0.008828603530141263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4459709034151867</v>
+        <v>0.4483436766002385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.561995550446344e-06</v>
+        <v>6.610259190767295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7828666953630216</v>
+        <v>0.2765799164041005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.605895934163769</v>
+        <v>1.387505135395294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2090377255306174</v>
+        <v>0.8563562091496665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82.47356262742255</v>
+        <v>-363.2872488390774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8558627530227988</v>
+        <v>0.6095843464022519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9003.813325191551</v>
+        <v>-130.8610113715017</v>
       </c>
       <c r="C9" t="n">
-        <v>5.635912690229625e-08</v>
+        <v>0.8089827406252439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8917.517830739516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.481167312681556e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>28.03398030672201</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02647040770233862</v>
+      <c r="B11" t="n">
+        <v>26.24751631728257</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05139413289410028</v>
       </c>
     </row>
   </sheetData>
@@ -3994,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4026,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1337.564677396083</v>
+        <v>274.679185168683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0869620918578293</v>
+        <v>0.8312107996447395</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.2221043534086</v>
+        <v>90.24107062265263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003502498828111874</v>
+        <v>0.01002732073271654</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.8153124967396</v>
+        <v>127.8925057762346</v>
       </c>
       <c r="C4" t="n">
-        <v>3.451856652383009e-09</v>
+        <v>4.548168725533066e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4065,75 +4364,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001919409261652818</v>
+        <v>-0.002474503006306181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8794515557986389</v>
+        <v>0.8308481373435377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.353442519859051e-05</v>
+        <v>4.273980779222237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5118390568126947</v>
+        <v>0.4540849546655811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.716040114838334</v>
+        <v>-5.229585268588854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2232517103429498</v>
+        <v>0.4569170376315971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-202.6941363402787</v>
+        <v>-942.31330881539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6910927490847563</v>
+        <v>0.1519967148391267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10668.0262682686</v>
+        <v>-638.1571538413052</v>
       </c>
       <c r="C9" t="n">
-        <v>3.196294767445884e-10</v>
+        <v>0.2689772929270761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10096.07429938341</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.138389039470538e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.68072876485581</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.103248069851976</v>
+      <c r="B11" t="n">
+        <v>16.37829072892079</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2241822550005152</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4179,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-793.6903711057491</v>
+        <v>764.4389251061639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.348331752086516</v>
+        <v>0.5994801977889912</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.9115384892491</v>
+        <v>51.1530578220589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0709758947620233</v>
+        <v>0.1626106913276328</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.0997350256267</v>
+        <v>130.6242702970921</v>
       </c>
       <c r="C4" t="n">
-        <v>3.581965230374417e-09</v>
+        <v>8.632702271524713e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4218,75 +4530,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01220799408932391</v>
+        <v>-0.006977397696577285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.395885560006648</v>
+        <v>0.5849375156062424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.676675334863015e-05</v>
+        <v>2.309886344789596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2174740004864621</v>
+        <v>0.7035230436417423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.853199739209753</v>
+        <v>-4.538698865789993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4362882186291025</v>
+        <v>0.5648843060354699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.82397908144367</v>
+        <v>-668.4906846375366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.938566623503567</v>
+        <v>0.3368565612863479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10127.30538694483</v>
+        <v>-311.3875489330671</v>
       </c>
       <c r="C9" t="n">
-        <v>2.561379727280961e-08</v>
+        <v>0.59339451562422</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9521.188932785444</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.406370405444937e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13.77249399205913</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3222299553456516</v>
+      <c r="B11" t="n">
+        <v>8.180755033251998</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5771811803573099</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-709.005735570038</v>
+        <v>1375.509557545471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3995746357066432</v>
+        <v>0.3232577990941005</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.5893084013579</v>
+        <v>71.87962826330227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01273817167831955</v>
+        <v>0.02852444552486787</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.9877976202013</v>
+        <v>125.7527981003141</v>
       </c>
       <c r="C4" t="n">
-        <v>1.763117693787621e-09</v>
+        <v>1.902143755757144e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4371,75 +4696,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01289594799392932</v>
+        <v>-0.01272367457967934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3653641136483229</v>
+        <v>0.3085282590350505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.905478181839001e-05</v>
+        <v>4.853710536779527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3799937202558139</v>
+        <v>0.4162992629220206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.110352797707893</v>
+        <v>-3.804627844830359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3040521719819584</v>
+        <v>0.603950421425654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.1343850888825</v>
+        <v>-1512.15673081801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6955001588314942</v>
+        <v>0.02965605452009163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9117.63349909697</v>
+        <v>-558.348026636244</v>
       </c>
       <c r="C9" t="n">
-        <v>3.997525419382943e-08</v>
+        <v>0.3344244351278306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8306.435575311283</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.222659491081013e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13.29244411146083</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3451363398327451</v>
+      <c r="B11" t="n">
+        <v>0.004547691378959939</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9997543855919798</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-669.8732285953064</v>
+        <v>1551.13654584119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3938123999837713</v>
+        <v>0.242787195224195</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.03400713967231</v>
+        <v>40.10757372085149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1078133924977214</v>
+        <v>0.1857986827641117</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.1554566581929</v>
+        <v>127.5740400559907</v>
       </c>
       <c r="C4" t="n">
-        <v>8.158436215158833e-11</v>
+        <v>1.03128562125987e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4524,75 +4862,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0103724072204881</v>
+        <v>-0.004478030757838408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3991488751206708</v>
+        <v>0.6856971134090756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.369896587742498e-05</v>
+        <v>-3.243726860147333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182531630619739</v>
+        <v>0.5684214535637639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.031189827428684</v>
+        <v>-11.90165180514758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6420862698927574</v>
+        <v>0.09374813911205437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.5381910181165</v>
+        <v>-127.0009662996567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5566881642175723</v>
+        <v>0.8578965683356641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9106.789612248456</v>
+        <v>143.8118359295809</v>
       </c>
       <c r="C9" t="n">
-        <v>3.25340940142158e-07</v>
+        <v>0.7875191302860853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8237.047792896294</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.776141125773223e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>17.3319226086562</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1754823803401125</v>
+      <c r="B11" t="n">
+        <v>13.70888188435706</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.313418162106232</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4638,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1697.118159323556</v>
+        <v>-234.2189772202136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02203241791036065</v>
+        <v>0.8464808495807432</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.8336842732538</v>
+        <v>82.6547990547477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001251319886053437</v>
+        <v>0.01000967368988374</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.9706502143994</v>
+        <v>120.3210435084163</v>
       </c>
       <c r="C4" t="n">
-        <v>7.093363673144484e-09</v>
+        <v>1.428847557410349e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4677,75 +5028,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.384377023342433e-05</v>
+        <v>-0.003108652937477224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9979467483300943</v>
+        <v>0.7843908776069131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.222077997206465e-07</v>
+        <v>4.033961547716968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9900600212025223</v>
+        <v>0.4243413583031234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.605452122271048</v>
+        <v>-3.708032686981568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1798199599951908</v>
+        <v>0.5351201113517853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.45787449839008</v>
+        <v>-1165.288529574012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8384355867121041</v>
+        <v>0.06402392892977375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10310.84674457535</v>
+        <v>-382.6078334667618</v>
       </c>
       <c r="C9" t="n">
-        <v>3.17261982420471e-11</v>
+        <v>0.4485427368298076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9784.897538447825</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.129772391607597e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>34.48842451032023</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.007171465983698925</v>
+      <c r="B11" t="n">
+        <v>27.29250948510292</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0348740721501458</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4791,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1134.152475806378</v>
+        <v>786.7775664705705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1502236062915896</v>
+        <v>0.5744189312915942</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.73673145760814</v>
+        <v>46.89203571802452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06662880779068811</v>
+        <v>0.1682743957308093</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.2179040757093</v>
+        <v>142.787520300571</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43177558610176e-10</v>
+        <v>6.786462618484145e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4830,75 +5194,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007703879177925019</v>
+        <v>-0.001664025498778508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5776700577650771</v>
+        <v>0.8894901559976676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.814725430508826e-05</v>
+        <v>5.369953927709137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1594789920848603</v>
+        <v>0.3760726689672308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.610704783367717</v>
+        <v>-4.82322516672124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.170450326959109</v>
+        <v>0.5542299016067157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.2974050155935</v>
+        <v>-1149.025699244567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8019023563238249</v>
+        <v>0.1018063087313699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10040.44843559383</v>
+        <v>-717.57249520086</v>
       </c>
       <c r="C9" t="n">
-        <v>3.054424010613075e-09</v>
+        <v>0.242922247942651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9525.292318245843</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.002531157099014e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>12.77068893145187</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3290324182065189</v>
+      <c r="B11" t="n">
+        <v>6.511686150943788</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6307575589920701</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1064.437836665999</v>
+        <v>777.7151030102616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.171815198015352</v>
+        <v>0.5517349701791521</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3659854685426</v>
+        <v>99.95441163310672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009047478944152304</v>
+        <v>0.004725582674893055</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.4289866333158</v>
+        <v>135.305222619768</v>
       </c>
       <c r="C4" t="n">
-        <v>9.939814809529356e-11</v>
+        <v>9.165449383301616e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4983,75 +5360,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0007304622983037995</v>
+        <v>-0.0007478189791703775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9556475956075416</v>
+        <v>0.949663249179602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.834222050054346e-05</v>
+        <v>1.572313403956936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3641858973540383</v>
+        <v>0.7808442241246094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.843103418847635</v>
+        <v>-5.035381446785099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5434542096731851</v>
+        <v>0.4699402300442785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>329.5165566182268</v>
+        <v>-1088.77509123359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5394630276349545</v>
+        <v>0.09423218883846705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8512.489694421474</v>
+        <v>-245.1445838147283</v>
       </c>
       <c r="C9" t="n">
-        <v>1.702827765638973e-07</v>
+        <v>0.6725819257221727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7790.340763202263</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.614950434656287e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.71101614792322</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1574155735238872</v>
+      <c r="B11" t="n">
+        <v>12.05916100466465</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3737626912057055</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1301.880568731937</v>
+        <v>1411.807524538548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1012126793568174</v>
+        <v>0.2899523834972244</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.16622456006937</v>
+        <v>44.45413126056751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04183228761105363</v>
+        <v>0.1495710676017452</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.4161249869213</v>
+        <v>117.2726212773899</v>
       </c>
       <c r="C4" t="n">
-        <v>1.552809668461869e-08</v>
+        <v>6.804668365628101e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5136,75 +5526,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01068491442909961</v>
+        <v>-0.008827957087333874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4445954585386703</v>
+        <v>0.4570866174074564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.814940707435543e-05</v>
+        <v>-1.434966047811736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3370154160461134</v>
+        <v>0.8041640212695363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.264877294624606</v>
+        <v>-9.947568545445339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.493781227543636</v>
+        <v>0.1587160479979034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.46796723962808</v>
+        <v>-1298.028384527861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8603131877377383</v>
+        <v>0.04705281406629802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11539.96007945887</v>
+        <v>-521.9536593668454</v>
       </c>
       <c r="C9" t="n">
-        <v>1.593531432775615e-10</v>
+        <v>0.3488316774842121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11089.69430103705</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.683277129121759e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25.30600076235327</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06788840002592005</v>
+      <c r="B11" t="n">
+        <v>14.73237208758189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2961643333270442</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5250,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-887.8019332575768</v>
+        <v>1268.560478849596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3197908815636704</v>
+        <v>0.3717341200155289</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.01243038969112</v>
+        <v>53.4839853185083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04118695264714897</v>
+        <v>0.1009914737712784</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.4261638427827</v>
+        <v>128.3160550012379</v>
       </c>
       <c r="C4" t="n">
-        <v>1.861236893946651e-09</v>
+        <v>6.304759797149998e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5289,75 +5692,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01633823684204481</v>
+        <v>-0.009979010335898979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3030880877934894</v>
+        <v>0.473946644395127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.974680492820551e-05</v>
+        <v>4.896151002308647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1486857777924376</v>
+        <v>0.422857745238321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.235257655042254</v>
+        <v>-4.824308546749464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2081837486379106</v>
+        <v>0.5012711103717518</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.7271612731793</v>
+        <v>-1220.481836736099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6790260030657863</v>
+        <v>0.09133505454215428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9995.070894590823</v>
+        <v>-587.99661731321</v>
       </c>
       <c r="C9" t="n">
-        <v>1.080896558537673e-08</v>
+        <v>0.3103072597518685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8838.376844320404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.315738532258675e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9.257362006180959</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5226113772707093</v>
+      <c r="B11" t="n">
+        <v>1.368448671657596</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9274487308702863</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5403,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-823.7016448292666</v>
+        <v>-285.6773003614344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2599308126549151</v>
+        <v>0.8343286856487947</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.00103379316953</v>
+        <v>32.72929696092356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2134890228564242</v>
+        <v>0.3043563566588809</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.9463836850199</v>
+        <v>146.5971529443542</v>
       </c>
       <c r="C4" t="n">
-        <v>5.115958607952941e-12</v>
+        <v>2.230713566219379e-10</v>
       </c>
     </row>
     <row r="5">
@@ -5442,75 +5858,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.014877733189776</v>
+        <v>-0.002129023161028205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2298558487830271</v>
+        <v>0.8429779808825266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.192191670774824e-05</v>
+        <v>2.506797353958216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0734859247801294</v>
+        <v>0.6518127329146937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.621668221193373</v>
+        <v>-3.635699818674045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3958973946249799</v>
+        <v>0.6289509544986689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.4498275605864</v>
+        <v>460.2594238514032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3843475590510919</v>
+        <v>0.5409213491054456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9418.336233746517</v>
+        <v>318.3961488101525</v>
       </c>
       <c r="C9" t="n">
-        <v>2.962394399678321e-08</v>
+        <v>0.5421376415682755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9080.092470494241</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.217204670690922e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>14.54488779166206</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2126815363863155</v>
+      <c r="B11" t="n">
+        <v>16.76604976981891</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1951148947468123</v>
       </c>
     </row>
   </sheetData>
@@ -5524,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5556,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-793.6484011679336</v>
+        <v>2759.15536029226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3467935573624814</v>
+        <v>0.05588701494501883</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.81601156198333</v>
+        <v>36.03055598058005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06454299893474857</v>
+        <v>0.2984765865780283</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.9744584501547</v>
+        <v>121.9141831710461</v>
       </c>
       <c r="C4" t="n">
-        <v>2.666333857928291e-09</v>
+        <v>3.700863072634267e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5595,75 +6024,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0101772807977563</v>
+        <v>-0.0104134084318034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4523960073982841</v>
+        <v>0.3761645830687084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.899354869162109e-05</v>
+        <v>2.335911533076231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3259176156419921</v>
+        <v>0.6828349121442094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.483322912449198</v>
+        <v>-13.07970924642013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1740610934138498</v>
+        <v>0.08262532860731504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-185.0987964435117</v>
+        <v>-1651.405294800913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7217891233595137</v>
+        <v>0.01539935108163295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10055.78674967652</v>
+        <v>-1184.120045478603</v>
       </c>
       <c r="C9" t="n">
-        <v>8.138244646993899e-09</v>
+        <v>0.04296551045525567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9354.928371261192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.68443007642847e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13.36280226476518</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3446602280079537</v>
+      <c r="B11" t="n">
+        <v>-0.8683783765681312</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.951482430469342</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-838.9722595146604</v>
+        <v>750.8452450408786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.292474541085147</v>
+        <v>0.5712732861315299</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.82628788730339</v>
+        <v>68.2643792214329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02756091104273816</v>
+        <v>0.04700803136895024</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.6727851770054</v>
+        <v>120.3419407295936</v>
       </c>
       <c r="C4" t="n">
-        <v>4.511923533194333e-08</v>
+        <v>1.350114600192277e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5748,75 +6190,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004748091421687894</v>
+        <v>-0.00767216291367848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7125644465852832</v>
+        <v>0.5046097746287719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.76317159792311e-06</v>
+        <v>4.408044930028235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8937525441387498</v>
+        <v>0.4372156319240159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.591884561306674</v>
+        <v>-3.849805144798554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2249703505771787</v>
+        <v>0.5972831768849667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.71184473918606</v>
+        <v>-1227.344965057393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9558422117009252</v>
+        <v>0.06193674710388174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9421.165321951887</v>
+        <v>-485.1403395154912</v>
       </c>
       <c r="C9" t="n">
-        <v>1.162219610457827e-08</v>
+        <v>0.3949804674305173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8960.572133089398</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.266342298627684e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.61947125695376</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1220226038325258</v>
+      <c r="B11" t="n">
+        <v>10.9228555726982</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4295794475843457</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5862,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1523.070252674807</v>
+        <v>-1076.703757746197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04258740200347251</v>
+        <v>0.4164330084197965</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.16818056644776</v>
+        <v>41.93897501794578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07164502762141702</v>
+        <v>0.1813683228119537</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.0285819613151</v>
+        <v>160.8119335168783</v>
       </c>
       <c r="C4" t="n">
-        <v>1.401825261640253e-13</v>
+        <v>1.570752052310524e-11</v>
       </c>
     </row>
     <row r="5">
@@ -5901,75 +6356,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002098676708198792</v>
+        <v>0.007562365721632915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8771650328635344</v>
+        <v>0.540323375656396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.201119523210767e-05</v>
+        <v>9.459987221554865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07150226320884925</v>
+        <v>0.08434937104992032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.420965244095992</v>
+        <v>3.847458152017044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.143946044823758</v>
+        <v>0.5868628240522684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-158.2324819041805</v>
+        <v>-889.6415669366424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7253265277913223</v>
+        <v>0.1453175309115134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10399.63990428792</v>
+        <v>-827.7475023531674</v>
       </c>
       <c r="C9" t="n">
-        <v>1.642114464035239e-11</v>
+        <v>0.1014576549729606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9669.565564308888</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.316060194265575e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.71552205894317</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09712640985819562</v>
+      <c r="B11" t="n">
+        <v>17.58327876506904</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1822274986884294</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-977.3821518509208</v>
+        <v>1979.876759174419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.245565561356878</v>
+        <v>0.158969690889854</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.05970428698632</v>
+        <v>45.15394989092724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05465382489172781</v>
+        <v>0.1902897180108878</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.2089194317977</v>
+        <v>113.2381051712208</v>
       </c>
       <c r="C4" t="n">
-        <v>5.679689124476414e-08</v>
+        <v>4.094575484112551e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6054,75 +6522,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02160549520050042</v>
+        <v>-0.01719859951697075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1704847415890947</v>
+        <v>0.1731977430100327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.530328869297492e-05</v>
+        <v>0.8345118732504346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2462814852105173</v>
+        <v>0.8851681634461508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.975915363555238</v>
+        <v>-10.37494288464444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4025046237598349</v>
+        <v>0.1701126764648462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.6900595821168</v>
+        <v>-1357.31866205916</v>
       </c>
       <c r="C8" t="n">
-        <v>0.649991847564894</v>
+        <v>0.04236325615716525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10875.49392477398</v>
+        <v>-570.7845534433818</v>
       </c>
       <c r="C9" t="n">
-        <v>6.005385227675537e-09</v>
+        <v>0.3164645520373657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10171.47351750483</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.663636614473529e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.20315157208506</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1463991866795289</v>
+      <c r="B11" t="n">
+        <v>6.344870397170538</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6440027628083091</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6168,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-946.8630141444204</v>
+        <v>766.308621685954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2069259411949301</v>
+        <v>0.5416980283003632</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.63592703136077</v>
+        <v>68.28575226050091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01891468994855139</v>
+        <v>0.02885845429241311</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.1960394087352</v>
+        <v>118.2895058200096</v>
       </c>
       <c r="C4" t="n">
-        <v>2.724760320666661e-08</v>
+        <v>1.347740053733978e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6207,75 +6688,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002671820226534304</v>
+        <v>-0.008914282840368701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8320337074156052</v>
+        <v>0.412632151816741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.940576154370559e-06</v>
+        <v>-0.544524437175518</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7180303887471975</v>
+        <v>0.9208183924724456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.104878525457718</v>
+        <v>-5.498494915921173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6450079137130654</v>
+        <v>0.4029534349941426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.9359740218829</v>
+        <v>-1232.923895462894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6538008835221507</v>
+        <v>0.05778382036601708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9761.692831050634</v>
+        <v>-67.84479072771319</v>
       </c>
       <c r="C9" t="n">
-        <v>4.383292981546267e-09</v>
+        <v>0.8983825884191891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9356.941201841919</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.523764163108466e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.414457873544</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03892936874352657</v>
+      <c r="B11" t="n">
+        <v>16.69927222564198</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.220037219184116</v>
       </c>
     </row>
   </sheetData>
@@ -6289,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6321,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1335.835211338829</v>
+        <v>634.0619501297347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1267671688344343</v>
+        <v>0.6576462162974842</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.60523771481499</v>
+        <v>67.18428829356773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01155444064283602</v>
+        <v>0.05239058415064365</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.1665421206053</v>
+        <v>142.0727639472866</v>
       </c>
       <c r="C4" t="n">
-        <v>2.552014339331369e-10</v>
+        <v>5.08481223305705e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6360,75 +6854,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006234826794600717</v>
+        <v>-0.001176357542872902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6625940398543966</v>
+        <v>0.9294095090823949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.613515363579271e-05</v>
+        <v>1.47557108711514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1132330639104169</v>
+        <v>0.8108719076746665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.832365902489435</v>
+        <v>-5.013042279399002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4399436259762759</v>
+        <v>0.5143970415663531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>457.7007140976968</v>
+        <v>-875.1048868483631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3941126744035787</v>
+        <v>0.2238673777732064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10053.33086826538</v>
+        <v>-57.95052420083448</v>
       </c>
       <c r="C9" t="n">
-        <v>5.317460987305123e-08</v>
+        <v>0.9274361548280914</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9138.724054454986</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.977450200221449e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>12.96096066868259</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3734683985226607</v>
+      <c r="B11" t="n">
+        <v>7.853456834633928</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6033906254797399</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6474,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-276.6849204818118</v>
+        <v>1921.216102349787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7209998936912665</v>
+        <v>0.1473468413336771</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.17762723695866</v>
+        <v>65.04494247759496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01832808995474653</v>
+        <v>0.04589263001202304</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.4359338729712</v>
+        <v>113.1888397587145</v>
       </c>
       <c r="C4" t="n">
-        <v>2.996281031010481e-09</v>
+        <v>1.555311154229908e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6513,75 +7020,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0128508748807826</v>
+        <v>-0.008258908055853453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2824099950979773</v>
+        <v>0.4341555014400029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.879348896570327e-05</v>
+        <v>0.2689440916582839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2773938992035037</v>
+        <v>0.9630283992037455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.684750621449673</v>
+        <v>-11.94680163090754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2080353961712544</v>
+        <v>0.09494884246966109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>208.3669888556797</v>
+        <v>-124.1141007623474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.661243844750914</v>
+        <v>0.8768592007454302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8018.114855375788</v>
+        <v>47.031722822348</v>
       </c>
       <c r="C9" t="n">
-        <v>3.534572530824223e-07</v>
+        <v>0.9344425066224007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7348.599265817663</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.828133041559797e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9.310848656928037</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4753154399862963</v>
+      <c r="B11" t="n">
+        <v>5.575899236137422</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.687209740949225</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6627,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-535.9683872701346</v>
+        <v>1050.56344180995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.489863684085692</v>
+        <v>0.4189306825549156</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.63482652475352</v>
+        <v>40.68085273786009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1680472832153541</v>
+        <v>0.2299045006647487</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.3720812871561</v>
+        <v>132.7861756660345</v>
       </c>
       <c r="C4" t="n">
-        <v>2.897921916258244e-10</v>
+        <v>1.038779928112262e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6666,75 +7186,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01123492127600188</v>
+        <v>-0.006686879189834412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3631542405748585</v>
+        <v>0.5468185834052044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.890133447228331e-05</v>
+        <v>1.644281349055159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3053641025048755</v>
+        <v>0.7831876560648614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.161244225585964</v>
+        <v>-8.938078084195144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2807350259896859</v>
+        <v>0.2196884554862775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.26455305436292</v>
+        <v>-40.01793879796514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.951968811249621</v>
+        <v>0.955743005272939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8205.44328386845</v>
+        <v>-128.9023425481752</v>
       </c>
       <c r="C9" t="n">
-        <v>9.435002856740294e-07</v>
+        <v>0.8189474797348053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7768.063210010201</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.648877000471037e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.79332094290138</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1561486746201684</v>
+      <c r="B11" t="n">
+        <v>16.40766030867035</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2395601392118768</v>
       </c>
     </row>
   </sheetData>
@@ -6748,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6780,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1674.576660170829</v>
+        <v>344.058715810459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03759759175597278</v>
+        <v>0.8064113069700852</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.50237994972728</v>
+        <v>61.32276017326735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01162286336122347</v>
+        <v>0.08086253241303869</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.8264136558474</v>
+        <v>149.6884243944611</v>
       </c>
       <c r="C4" t="n">
-        <v>2.597213570709224e-11</v>
+        <v>1.002064465749369e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6819,75 +7352,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002581974940539508</v>
+        <v>0.00456805318000858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8367491485191498</v>
+        <v>0.6867151946246097</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.165212122736411e-05</v>
+        <v>3.716501466032833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0770718627571613</v>
+        <v>0.5224884171605626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.604301437429763</v>
+        <v>-6.029383140444885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2349653002033464</v>
+        <v>0.4091493756848293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-90.96746073835902</v>
+        <v>-1014.628171734437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8531852735108278</v>
+        <v>0.1268331965117215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10829.88627194659</v>
+        <v>-807.9317980720775</v>
       </c>
       <c r="C9" t="n">
-        <v>3.7090711429003e-11</v>
+        <v>0.149296210317972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10171.72894116057</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.658149945116199e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.41253068926536</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1262134476018647</v>
+      <c r="B11" t="n">
+        <v>14.94161162345186</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2815851866668676</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6933,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-346.5869738783676</v>
+        <v>2162.346384167131</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6376701234515331</v>
+        <v>0.07726535512059887</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.72008883148905</v>
+        <v>61.15994853025074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01505082088087899</v>
+        <v>0.04491343977062451</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.1705491926583</v>
+        <v>116.5519401591406</v>
       </c>
       <c r="C4" t="n">
-        <v>1.801150346037553e-10</v>
+        <v>5.203617348682347e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6972,75 +7518,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0117137149922221</v>
+        <v>-0.01086605408296816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3681753335315419</v>
+        <v>0.3132180792792257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.805753106697774e-05</v>
+        <v>-0.6957697340800522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3621867525486246</v>
+        <v>0.8953646299826203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.367171801346082</v>
+        <v>-6.995114414563719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7552319577641377</v>
+        <v>0.2854875877833165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430.8104804863897</v>
+        <v>-1596.171833170988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3881067402913091</v>
+        <v>0.0188869049023247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8265.896996786923</v>
+        <v>-312.962705326336</v>
       </c>
       <c r="C9" t="n">
-        <v>2.034781055935634e-07</v>
+        <v>0.5529831088639346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7136.975774572595</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.241738020995991e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>12.36977620186734</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3268343125011649</v>
+      <c r="B11" t="n">
+        <v>1.216276726777664</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9243563325986043</v>
       </c>
     </row>
   </sheetData>
@@ -7054,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7086,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1304.870100420587</v>
+        <v>464.3676330002049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1233366109843791</v>
+        <v>0.7466764182220457</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.60895571782193</v>
+        <v>53.52313303114691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06943347359632154</v>
+        <v>0.1205900474777252</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.823373075413</v>
+        <v>136.160705059543</v>
       </c>
       <c r="C4" t="n">
-        <v>1.230550005764957e-09</v>
+        <v>3.258959811049398e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7125,75 +7684,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004548350591738626</v>
+        <v>-0.0006354116913060565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7674942824875831</v>
+        <v>0.9620171748108286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.516152329324072e-05</v>
+        <v>0.09429864222571771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2658862906640925</v>
+        <v>0.9876007786089813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.372758390265678</v>
+        <v>-4.911715329715271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7771482982001964</v>
+        <v>0.5137554939603716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>498.6593563248673</v>
+        <v>-867.6575086785411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3385204919544509</v>
+        <v>0.21584426192863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10627.33951651923</v>
+        <v>-41.40645581328488</v>
       </c>
       <c r="C9" t="n">
-        <v>4.064267450428348e-09</v>
+        <v>0.9444620142536728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9979.667521749308</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.381180687796164e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.19639923734729</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1337391580186017</v>
+      <c r="B11" t="n">
+        <v>12.84653605446051</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3688201247204848</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7239,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-863.399991474027</v>
+        <v>825.1400850451701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2525482086215934</v>
+        <v>0.5140650681304886</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.9735887415212</v>
+        <v>91.39879015691821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001042147882513324</v>
+        <v>0.002673705361471024</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.8154089142976</v>
+        <v>144.7561597496372</v>
       </c>
       <c r="C4" t="n">
-        <v>1.07879410884286e-12</v>
+        <v>3.590321023735461e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7278,75 +7850,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005297648106026256</v>
+        <v>0.005850060420826003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7190917048242067</v>
+        <v>0.6088665088653707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.40796358034934e-05</v>
+        <v>0.2940352600217562</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5265895136775054</v>
+        <v>0.9550744109976588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.105780647482749</v>
+        <v>-4.001652004992962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8005342122117686</v>
+        <v>0.5447010816527382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.80522994430885</v>
+        <v>-1096.722721982791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.912816316730455</v>
+        <v>0.08793174857945676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8640.900773701636</v>
+        <v>-446.5888375562495</v>
       </c>
       <c r="C9" t="n">
-        <v>1.583418317114467e-08</v>
+        <v>0.3897690025089486</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8015.012899441675</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.464099332152068e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.78247179690451</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1865791837290774</v>
+      <c r="B11" t="n">
+        <v>6.711521045038225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6167517584128193</v>
       </c>
     </row>
   </sheetData>
@@ -7360,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7392,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1127.899489441948</v>
+        <v>-63.10222918698037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.172107376532695</v>
+        <v>0.9638249877158449</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.48896968144606</v>
+        <v>64.83957636314113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02048691394434956</v>
+        <v>0.03641978966110648</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.1325530800446</v>
+        <v>117.99266813821</v>
       </c>
       <c r="C4" t="n">
-        <v>1.126966549397215e-07</v>
+        <v>2.691808012279988e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7431,75 +8016,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01233500197335977</v>
+        <v>-0.0130590271832017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4195810624698256</v>
+        <v>0.332920895552976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.686531190907552e-06</v>
+        <v>8.194607577768705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8928718760677297</v>
+        <v>0.1413570705344178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.490221908505761</v>
+        <v>-0.6130882408751184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05944066145623177</v>
+        <v>0.9344680329330584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.3722434353988</v>
+        <v>-1126.283254426061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.822656871292664</v>
+        <v>0.09277184985745117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11024.76292934834</v>
+        <v>-408.47755466475</v>
       </c>
       <c r="C9" t="n">
-        <v>5.868429209732166e-10</v>
+        <v>0.4679929463264354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10532.02104729536</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.775038147157595e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.45067418585308</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1568812593559096</v>
+      <c r="B11" t="n">
+        <v>11.64267387537407</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4160667454940196</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7545,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1206.847164052668</v>
+        <v>1265.976878369874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1546686810840555</v>
+        <v>0.352355848253108</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.1720628914222</v>
+        <v>12.60239705806469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.446418441760469</v>
+        <v>0.7229879605512521</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.1960848131661</v>
+        <v>150.7704562329569</v>
       </c>
       <c r="C4" t="n">
-        <v>4.503483091314009e-11</v>
+        <v>1.771560849442385e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7584,75 +8182,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0137493818322189</v>
+        <v>-0.008503941414881012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3122319581742112</v>
+        <v>0.4678519491984512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.629234506561864e-05</v>
+        <v>3.120622673942712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2123294300927855</v>
+        <v>0.5822132633965982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.157264625165316</v>
+        <v>-11.51167211846302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2019446309850803</v>
+        <v>0.1283080018694218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.5582920360653</v>
+        <v>-673.4897260161333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5580155089865955</v>
+        <v>0.3198579788895181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10236.21929513361</v>
+        <v>-199.8587626025217</v>
       </c>
       <c r="C9" t="n">
-        <v>5.276502439505752e-09</v>
+        <v>0.7263372361676412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9575.77992202466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.967663425587397e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.00405556126414</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2219088999727824</v>
+      <c r="B11" t="n">
+        <v>8.54531060239189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5298431132908137</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-471.8371771692957</v>
+        <v>308.2329616038287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5114457124229956</v>
+        <v>0.8163702014138606</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.84945369386224</v>
+        <v>73.76610630856803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0108996067979153</v>
+        <v>0.01805401281394627</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.0505518649723</v>
+        <v>121.3927985518492</v>
       </c>
       <c r="C4" t="n">
-        <v>6.858860503936933e-09</v>
+        <v>1.919039097407209e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7737,75 +8348,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009843916279197104</v>
+        <v>-0.01071155718183397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4396141416654052</v>
+        <v>0.3530101359029354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.803201748611289e-06</v>
+        <v>1.517621789868027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9193269306320165</v>
+        <v>0.7904280861691932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.487132753705993</v>
+        <v>-2.53924089136347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5530945734387691</v>
+        <v>0.7348463886665508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>496.8713535176166</v>
+        <v>-475.8778062162239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2946186398137706</v>
+        <v>0.5216471067646202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7012.037780626231</v>
+        <v>312.447317690649</v>
       </c>
       <c r="C9" t="n">
-        <v>5.904766270634532e-06</v>
+        <v>0.5664924858986489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6862.933206180242</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.792276800683412e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.6392216349922</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05417887584324996</v>
+      <c r="B11" t="n">
+        <v>20.24380760295195</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1444185933740014</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7851,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1530.907642819895</v>
+        <v>383.8380013252072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04447401072584237</v>
+        <v>0.7593226219475269</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.93886303051008</v>
+        <v>42.341802044713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04640087303910626</v>
+        <v>0.1717807340489794</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.2994295424219</v>
+        <v>145.6628755612469</v>
       </c>
       <c r="C4" t="n">
-        <v>2.19252568177452e-12</v>
+        <v>3.420616387721178e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7890,75 +8514,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002398171578132012</v>
+        <v>0.008711878569099607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8611025145022799</v>
+        <v>0.4696723630235002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142757330510613e-05</v>
+        <v>2.638467191275868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.111449485917133</v>
+        <v>0.6261816303861145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.960324007641109</v>
+        <v>-2.957933701240435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4914599250380766</v>
+        <v>0.6665153876965364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-55.69132414524711</v>
+        <v>-1393.04433704449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9077333015939668</v>
+        <v>0.03477795693504344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11279.62953255785</v>
+        <v>-922.5810723040778</v>
       </c>
       <c r="C9" t="n">
-        <v>5.784489578855071e-12</v>
+        <v>0.1029246785889156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10358.53295319675</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.563863213736641e-11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.73252345211621</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1115774821789766</v>
+      <c r="B11" t="n">
+        <v>12.01164090989764</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3468491721921223</v>
       </c>
     </row>
   </sheetData>
@@ -7972,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8004,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1351.631091135038</v>
+        <v>316.6208184891739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09657943055777576</v>
+        <v>0.8169558788739326</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.39698739941537</v>
+        <v>70.19198528319706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0186042541258349</v>
+        <v>0.03911750686208507</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.0224044875777</v>
+        <v>122.24714415874</v>
       </c>
       <c r="C4" t="n">
-        <v>1.551224230152821e-08</v>
+        <v>6.42250747793281e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8043,75 +8680,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01457004278871126</v>
+        <v>-0.01184068886514605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2925940420219852</v>
+        <v>0.3187819852258419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.692454935985561e-05</v>
+        <v>4.111755954525226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4101921089964125</v>
+        <v>0.5055555720588809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.505332550026413</v>
+        <v>-5.178498013427987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2021982679295616</v>
+        <v>0.4690717004492617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144.8227594465626</v>
+        <v>-840.9136319376116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7831032873247874</v>
+        <v>0.2246949921290108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10656.64560435847</v>
+        <v>-254.2165157830999</v>
       </c>
       <c r="C9" t="n">
-        <v>7.642728970231592e-09</v>
+        <v>0.6580777587628757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10092.72541301112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.973016779808136e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.60570049467843</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08345124704204655</v>
+      <c r="B11" t="n">
+        <v>17.71248656154195</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2340631258124831</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Paris.xlsx
+++ b/outputs/ML_Results/dist_LR/Paris.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ18067155" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ18179118" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ18287628" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18392381" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ18499400" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ18607428" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ18716940" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ18936974" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ19058907" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ19178063" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ19297714" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ19417783" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ19530612" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ19640518" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ19748427" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ19870974" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ19989483" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ20096632" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ20201145" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ20308660" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ20414173" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ20521963" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ20628699" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ20739804" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ20845658" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ20952169" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ21055677" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ21160188" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ21263224" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ21371814" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ21476324" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ21583494" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ21691141" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ21793653" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ21898674" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ22005197" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ22110733" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ22216323" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ22320835" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ22424345" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ22529855" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ22635342" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ22741185" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ22846698" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ22951327" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ23052840" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ23156350" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ23261513" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ23368022" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ23474691" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ55631905" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ55737574" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ55842983" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ55937510" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ56032770" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ56135218" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ56232226" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ56427736" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56530456" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ56625964" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ56722750" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ56819009" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ56914842" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ57012179" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ57111834" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ57209397" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ57306070" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ57402805" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ57498244" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ57596214" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ57692062" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ57787102" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ57883100" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ57978088" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ58078005" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ58174889" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ58268497" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ58365413" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ58461828" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ58559336" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ58655361" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ58750869" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ58847280" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ58943544" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ59041477" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ59136990" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ59234495" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ59330701" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ59428211" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ59523114" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ59619680" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ59714189" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ59811510" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ59908400" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ00004156" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ00145525" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ00241887" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ00339062" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ00434572" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ00530592" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.35904321396629</v>
+        <v>11.35904321397493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9936074913773718</v>
+        <v>0.9936074913773669</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.39421307037196</v>
+        <v>44.39421307039447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1699010148531906</v>
+        <v>0.1699010148531927</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.9872096175785</v>
+        <v>138.9872096175771</v>
       </c>
       <c r="C4" t="n">
-        <v>2.040724907084707e-08</v>
+        <v>2.040724907086092e-08</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005852227696157203</v>
+        <v>-0.5852227696173555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6428534048053307</v>
+        <v>0.6428534048043619</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>3.858045984647255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5266485914540314</v>
+        <v>0.5266485914540318</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.744959662899635</v>
+        <v>-4.744959662899557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5285661153104413</v>
+        <v>0.5285661153104483</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-790.7554558856702</v>
+        <v>-7.907554558856768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248389551137113</v>
+        <v>0.2483895511371091</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-107.1842904745213</v>
+        <v>-1.071842904745175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8535486605213503</v>
+        <v>0.8535486605213554</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10542.09514514948</v>
+        <v>105.4209514514948</v>
       </c>
       <c r="C10" t="n">
-        <v>6.320958081181485e-09</v>
+        <v>6.320958081181717e-09</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.76273439543115</v>
+        <v>17.76273439543093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2171727113862532</v>
+        <v>0.2171727113862585</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.53416279164</v>
+        <v>1774.534162792108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2177026899539783</v>
+        <v>0.2177026899538502</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.7332079626301</v>
+        <v>78.73320796260147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01756117821874706</v>
+        <v>0.01756117821874773</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.0114577671653</v>
+        <v>113.0114577671586</v>
       </c>
       <c r="C4" t="n">
-        <v>3.591407915045608e-06</v>
+        <v>3.59140791505199e-06</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008726705626541535</v>
+        <v>-0.8726705626548759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4759570830371256</v>
+        <v>0.4759570830367337</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.278427517917141</v>
+        <v>2.278427517916937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6980382781402765</v>
+        <v>0.6980382781403018</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.87429553748604</v>
+        <v>-6.874295537486191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3371137380304547</v>
+        <v>0.3371137380304423</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1257.314607770865</v>
+        <v>-12.57314607770874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05482748026824284</v>
+        <v>0.05482748026824109</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-614.4544909046913</v>
+        <v>-6.144544909046864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.26789882564128</v>
+        <v>0.2678988256412834</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8808.753134243841</v>
+        <v>88.08753134243878</v>
       </c>
       <c r="C10" t="n">
-        <v>1.349821516109145e-07</v>
+        <v>1.349821516109251e-07</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0290947825459682</v>
+        <v>0.02909478254573372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9984122547603049</v>
+        <v>0.9984122547603178</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>903.7985274601324</v>
+        <v>903.7985274601688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5088350751640037</v>
+        <v>0.5088350751639859</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.94166326394203</v>
+        <v>48.94166326393814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1559290425707375</v>
+        <v>0.1559290425707244</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.8739277038566</v>
+        <v>132.8739277038581</v>
       </c>
       <c r="C4" t="n">
-        <v>4.276565486083343e-08</v>
+        <v>4.276565486080395e-08</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004953652510049865</v>
+        <v>-0.4953652510046311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7089713303177325</v>
+        <v>0.708971330317921</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.760053372057058</v>
+        <v>2.76005337205714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6248798827249837</v>
+        <v>0.6248798827249733</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.797886058914791</v>
+        <v>-5.79788605891477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4160403550265773</v>
+        <v>0.4160403550265801</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1135.855964073254</v>
+        <v>-11.35855964073266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1008200241552496</v>
+        <v>0.1008200241552459</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-697.6077414317868</v>
+        <v>-6.976077414317924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2262916142661006</v>
+        <v>0.2262916142660973</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9560.787162491888</v>
+        <v>95.60787162491852</v>
       </c>
       <c r="C10" t="n">
-        <v>1.605655351967726e-08</v>
+        <v>1.605655351967825e-08</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.4542513767778</v>
+        <v>11.45425137677743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3978324253708676</v>
+        <v>0.3978324253708831</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>448.9217488382092</v>
+        <v>448.9217488382419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7411857490154796</v>
+        <v>0.7411857490154613</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.67552424847139</v>
+        <v>52.67552424849009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09708724602833896</v>
+        <v>0.09708724602833668</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.3815318728349</v>
+        <v>146.3815318728255</v>
       </c>
       <c r="C4" t="n">
-        <v>5.756084640397576e-10</v>
+        <v>5.756084640424998e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009466478915697296</v>
+        <v>0.09466478915634724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9348879484339121</v>
+        <v>0.9348879484343378</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.69468237266668</v>
+        <v>4.694682372666687</v>
       </c>
       <c r="C6" t="n">
         <v>0.3985148146033216</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.433317402265612</v>
+        <v>-3.433317402265526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6250978040157013</v>
+        <v>0.62509780401571</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1213.637833757753</v>
+        <v>-12.13637833757756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05074750916721085</v>
+        <v>0.0507475091672104</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-386.2477989648428</v>
+        <v>-3.862477989648454</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4612630552066498</v>
+        <v>0.4612630552066466</v>
       </c>
     </row>
     <row r="10">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9115.593967054383</v>
+        <v>91.15593967054389</v>
       </c>
       <c r="C10" t="n">
         <v>1.163375902975963e-07</v>
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.305022890823551</v>
+        <v>7.30502289082346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6039864362688505</v>
+        <v>0.6039864362688547</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>881.2117016799393</v>
+        <v>881.2117016797656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5089601352382719</v>
+        <v>0.5089601352383565</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.17910608293181</v>
+        <v>71.17910608293194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02523650647878064</v>
+        <v>0.02523650647877261</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.3782279864175</v>
+        <v>122.3782279864221</v>
       </c>
       <c r="C4" t="n">
-        <v>2.356399439072262e-07</v>
+        <v>2.356399439067763e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006925323094320028</v>
+        <v>-0.6925323094326767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5473748559847336</v>
+        <v>0.5473748559843663</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1519256608538164</v>
+        <v>0.1519256608538235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9786193406817685</v>
+        <v>0.9786193406817674</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.865475602581483</v>
+        <v>-7.865475602581469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2746599914598212</v>
+        <v>0.2746599914598227</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1013.431278975335</v>
+        <v>-10.13431278975336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402071163934007</v>
+        <v>0.1402071163934006</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.19095535136205</v>
+        <v>-0.1419095535136594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9789801749172233</v>
+        <v>0.9789801749172176</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8723.794201936595</v>
+        <v>87.23794201936582</v>
       </c>
       <c r="C10" t="n">
-        <v>6.36211677098951e-08</v>
+        <v>6.362116770989602e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.93461814722934</v>
+        <v>17.93461814722916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1822346965543106</v>
+        <v>0.1822346965543157</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1434.691544291649</v>
+        <v>1434.691544291639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2807788801968611</v>
+        <v>0.2807788801968646</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.70737767647792</v>
+        <v>62.70737767646246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06381092016559715</v>
+        <v>0.06381092016559525</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.6221589776216</v>
+        <v>110.6221589776287</v>
       </c>
       <c r="C4" t="n">
-        <v>4.963288423811813e-06</v>
+        <v>4.963288423799381e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01064295805777368</v>
+        <v>-1.064295805775921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3931018333583</v>
+        <v>0.393101833358956</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.097736063834013</v>
+        <v>3.097736063834134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5981093325177563</v>
+        <v>0.5981093325177427</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.715523956471124</v>
+        <v>-3.715523956471023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.610065998107467</v>
+        <v>0.610065998107477</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1555.324031958932</v>
+        <v>-15.55324031958944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03396272802616401</v>
+        <v>0.03396272802616274</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-853.117749325608</v>
+        <v>-8.531177493256207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1656637366795616</v>
+        <v>0.1656637366795556</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10002.60291085237</v>
+        <v>100.0260291085238</v>
       </c>
       <c r="C10" t="n">
-        <v>6.096863469491488e-09</v>
+        <v>6.096863469491443e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.507051179270178</v>
+        <v>1.507051179270078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9133445823139824</v>
+        <v>0.9133445823139882</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.2731459326596</v>
+        <v>750.2731459325396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5786126495873518</v>
+        <v>0.5786126495874155</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.91923858495367</v>
+        <v>39.91923858495297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2320668254587452</v>
+        <v>0.2320668254587455</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.6347630886036</v>
+        <v>131.634763088603</v>
       </c>
       <c r="C4" t="n">
-        <v>9.238023670728883e-09</v>
+        <v>9.23802367073101e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01084217258163272</v>
+        <v>-1.084217258163043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3324896012531968</v>
+        <v>0.3324896012532764</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6518525960489061</v>
+        <v>0.6518525960489203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9129616068999747</v>
+        <v>0.9129616068999729</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.035712426722959</v>
+        <v>-7.035712426722995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3415215838436974</v>
+        <v>0.3415215838436945</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.1627675351333</v>
+        <v>1.21162767535133</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8677616292728</v>
+        <v>0.8677616292728001</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>186.5917177726169</v>
+        <v>1.865917177726175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7454850583421251</v>
+        <v>0.7454850583421243</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8278.142548814914</v>
+        <v>82.78142548814922</v>
       </c>
       <c r="C10" t="n">
-        <v>2.766736705777979e-07</v>
+        <v>2.766736705777944e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.76538134746933</v>
+        <v>16.76538134746937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2489534510155453</v>
+        <v>0.2489534510155441</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1075.941844645821</v>
+        <v>1075.941844645921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4357603052955363</v>
+        <v>0.4357603052954924</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.01783436945584</v>
+        <v>69.01783436942486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05463127825119199</v>
+        <v>0.05463127825119143</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.2162127202462</v>
+        <v>119.216212720266</v>
       </c>
       <c r="C4" t="n">
-        <v>3.164889444367549e-06</v>
+        <v>3.164889444346317e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008061207487670811</v>
+        <v>-0.806120748768012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5210443853453705</v>
+        <v>0.5210443853448588</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5940120499445314</v>
+        <v>-0.594012049944447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9252624979174724</v>
+        <v>0.9252624979174831</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.641899623045267</v>
+        <v>-9.641899623045152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2079396633165428</v>
+        <v>0.207939663316548</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-162.6175578462942</v>
+        <v>-1.626175578462913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8300360077039766</v>
+        <v>0.8300360077039797</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.13486496901578</v>
+        <v>0.9013486496901422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8823713129816275</v>
+        <v>0.8823713129816295</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8884.012703707664</v>
+        <v>88.84012703707668</v>
       </c>
       <c r="C10" t="n">
-        <v>1.433995023269612e-06</v>
+        <v>1.433995023269636e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.71919253860499</v>
+        <v>14.71919253860489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3358757391101616</v>
+        <v>0.3358757391101641</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2119.545416845377</v>
+        <v>2119.545416845506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1281860499592302</v>
+        <v>0.1281860499592053</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.79099554886174</v>
+        <v>42.79099554886709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2020934330542874</v>
+        <v>0.2020934330542833</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.4861654230149</v>
+        <v>135.4861654230159</v>
       </c>
       <c r="C4" t="n">
-        <v>5.39687219369696e-09</v>
+        <v>5.396872193692446e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004472207687036035</v>
+        <v>-0.4472207687041027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6937783575401977</v>
+        <v>0.6937783575398555</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.488389768203984</v>
+        <v>3.488389768204055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5279816996606375</v>
+        <v>0.5279816996606289</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.42891153214703</v>
+        <v>-12.42891153214713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1154781205201289</v>
+        <v>0.1154781205201258</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1463.418175942503</v>
+        <v>-14.634181759425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03796954242220112</v>
+        <v>0.03796954242220154</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1088.741443811894</v>
+        <v>-10.88741443811896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05525657056677411</v>
+        <v>0.05525657056677338</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8477.643739508196</v>
+        <v>84.77643739508187</v>
       </c>
       <c r="C10" t="n">
-        <v>7.972890158930865e-08</v>
+        <v>7.972890158931114e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.834075846436889</v>
+        <v>7.834075846436775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.579643137054527</v>
+        <v>0.579643137054533</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.936353808047</v>
+        <v>1181.936353807876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3750744553405534</v>
+        <v>0.3750744553406267</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.89707848443288</v>
+        <v>44.89707848442374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1843581649360421</v>
+        <v>0.1843581649360395</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.5474621092587</v>
+        <v>128.5474621092673</v>
       </c>
       <c r="C4" t="n">
-        <v>8.465027146031903e-08</v>
+        <v>8.465027145994312e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01365952392748405</v>
+        <v>-1.365952392747987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3081657930721468</v>
+        <v>0.3081657930723095</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.762012598490799</v>
+        <v>2.762012598490735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6317802346654149</v>
+        <v>0.6317802346654229</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.049306519501709</v>
+        <v>-9.049306519501755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1922209365653419</v>
+        <v>0.1922209365653394</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-933.8244739502649</v>
+        <v>-9.33824473950262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1579127107015193</v>
+        <v>0.1579127107015208</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-276.6679497093282</v>
+        <v>-2.766679497093236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.627855291818515</v>
+        <v>0.6278552918185205</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9951.965201168208</v>
+        <v>99.51965201168207</v>
       </c>
       <c r="C10" t="n">
-        <v>4.366015579145443e-09</v>
+        <v>4.366015579145412e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.49479275656504</v>
+        <v>10.49479275656498</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4430663587284261</v>
+        <v>0.4430663587284278</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238.5093354122509</v>
+        <v>238.5093354121127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8489267577674653</v>
+        <v>0.8489267577675533</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.1491267909824</v>
+        <v>34.14912679098811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2745750496712758</v>
+        <v>0.2745750496712788</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.9602279599913</v>
+        <v>154.960227959985</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010287464414813e-10</v>
+        <v>1.010287464419701e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005832130304565503</v>
+        <v>0.583213030455247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6221310952806904</v>
+        <v>0.6221310952814536</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.919534842101916</v>
+        <v>3.919534842102017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4884076030165317</v>
+        <v>0.4884076030165206</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.782896253199958</v>
+        <v>-3.782896253199873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5631206746112036</v>
+        <v>0.5631206746112118</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-659.1260920780077</v>
+        <v>-6.591260920780185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3014130340300409</v>
+        <v>0.3014130340300331</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-477.3051768313301</v>
+        <v>-4.773051768313408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3700537235444346</v>
+        <v>0.3700537235444248</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9756.791956588359</v>
+        <v>97.56791956588347</v>
       </c>
       <c r="C10" t="n">
-        <v>2.914746104320655e-09</v>
+        <v>2.914746104320719e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.026186183995215</v>
+        <v>9.026186183995236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.503172769178752</v>
+        <v>0.5031727691787511</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.809848504509</v>
+        <v>1286.809848504591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3147682185709129</v>
+        <v>0.3147682185708792</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.86722838320358</v>
+        <v>49.86722838319052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1288467429850291</v>
+        <v>0.128846742985006</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.9413269417127</v>
+        <v>122.9413269417157</v>
       </c>
       <c r="C4" t="n">
-        <v>1.655443391089634e-07</v>
+        <v>1.655443391086954e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008039145113777457</v>
+        <v>-0.8039145113768376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5000536001656576</v>
+        <v>0.5000536001661438</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7152419247266213</v>
+        <v>0.7152419247267563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8998266255460857</v>
+        <v>0.8998266255460666</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.081619554434329</v>
+        <v>-7.081619554434194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2955299749650245</v>
+        <v>0.2955299749650343</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-787.6731096064277</v>
+        <v>-7.876731096064318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2529586767309591</v>
+        <v>0.2529586767309565</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-12.68356658399233</v>
+        <v>-0.1268356658399368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9825627030129938</v>
+        <v>0.982562703012992</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9108.322100909947</v>
+        <v>91.08322100909952</v>
       </c>
       <c r="C10" t="n">
-        <v>5.244650751433937e-08</v>
+        <v>5.244650751434138e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2453,7 +2453,7 @@
         <v>4.21228019417142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.762643620325663</v>
+        <v>0.7626436203256632</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-456.4137295315741</v>
+        <v>-456.4137295320552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7399797308554776</v>
+        <v>0.739979730855217</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.14650440981853</v>
+        <v>94.14650440977631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001652930740905558</v>
+        <v>0.001652930740905576</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.2082191007799</v>
+        <v>112.2082191008145</v>
       </c>
       <c r="C4" t="n">
-        <v>1.230990257531285e-07</v>
+        <v>1.230990257515891e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0115080132034495</v>
+        <v>-1.150801320342725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2627574197593007</v>
+        <v>0.2627574197601832</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.963204957393692</v>
+        <v>4.9632049573937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3555172269025333</v>
+        <v>0.355517226902533</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.174290077373975</v>
+        <v>6.17429007737401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3838344075929369</v>
+        <v>0.3838344075929337</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1440.571596360651</v>
+        <v>-14.40571596360651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02480179310457522</v>
+        <v>0.02480179310457544</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.6838809311844</v>
+        <v>1.306838809311817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8008109128400268</v>
+        <v>0.8008109128400307</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8378.45197654732</v>
+        <v>83.78451976547312</v>
       </c>
       <c r="C10" t="n">
-        <v>4.628270708511629e-08</v>
+        <v>4.628270708511961e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.73238176896546</v>
+        <v>11.73238176896542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3559634414101783</v>
+        <v>0.3559634414101792</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.7146160919046</v>
+        <v>442.7146160919369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7302784492490852</v>
+        <v>0.7302784492490664</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.76742961759527</v>
+        <v>54.76742961761673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07675775677420477</v>
+        <v>0.07675775677420424</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.9604966856009</v>
+        <v>138.9604966855933</v>
       </c>
       <c r="C4" t="n">
-        <v>5.633602618144499e-10</v>
+        <v>5.633602618169859e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003221739747553617</v>
+        <v>-0.3221739747535644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7865374767487582</v>
+        <v>0.7865374767499456</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842672089839596</v>
+        <v>2.842672089839597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5855107086475987</v>
+        <v>0.5855107086475988</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.159257735092876</v>
+        <v>-5.159257735092847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4332076070677745</v>
+        <v>0.4332076070677772</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-781.0376043547474</v>
+        <v>-7.810376043547619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2311502017931161</v>
+        <v>0.2311502017931077</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-388.1828474012689</v>
+        <v>-3.881828474012798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4664112172128612</v>
+        <v>0.4664112172128492</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10106.76064698877</v>
+        <v>101.0676064698878</v>
       </c>
       <c r="C10" t="n">
-        <v>2.063665892755065e-10</v>
+        <v>2.063665892754968e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.15185337693004</v>
+        <v>11.15185337692965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3870183498320662</v>
+        <v>0.3870183498320827</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1107.274406191286</v>
+        <v>1107.274406191369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4057393114535693</v>
+        <v>0.4057393114535323</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.18712381193419</v>
+        <v>43.18712381194098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2069941909177982</v>
+        <v>0.2069941909178005</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.1888522764422</v>
+        <v>128.1888522764373</v>
       </c>
       <c r="C4" t="n">
-        <v>6.530571591000356e-08</v>
+        <v>6.530571591019064e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007617412860170925</v>
+        <v>-0.7617412860165818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5791801032617259</v>
+        <v>0.5791801032619732</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8609700760381021</v>
+        <v>-0.8609700760381678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8868376177145447</v>
+        <v>0.8868376177145362</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.373385546021773</v>
+        <v>-9.373385546021758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194289535763622</v>
+        <v>0.1942895357636225</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.231647946528</v>
+        <v>-2.762316479465243</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7046998774232427</v>
+        <v>0.7046998774232465</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145.7258568295133</v>
+        <v>1.457258568295128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8018867103726689</v>
+        <v>0.8018867103726693</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8490.645215961993</v>
+        <v>84.90645215962004</v>
       </c>
       <c r="C10" t="n">
-        <v>3.030098861542595e-07</v>
+        <v>3.030098861542579e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.02064342066558</v>
+        <v>16.02064342066566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2655936749870171</v>
+        <v>0.2655936749870142</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.3159087714157</v>
+        <v>820.3159087714466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5507910328151622</v>
+        <v>0.5507910328151469</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.84168545705796</v>
+        <v>65.84168545703687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04802413030193362</v>
+        <v>0.04802413030193202</v>
       </c>
     </row>
     <row r="4">
@@ -3026,7 +3026,7 @@
         <v>123.8379929267925</v>
       </c>
       <c r="C4" t="n">
-        <v>3.13777475487906e-07</v>
+        <v>3.137774754878853e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005306415507619275</v>
+        <v>-0.5306415507617608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.647422943496557</v>
+        <v>0.6474229434966858</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.659459016881064</v>
+        <v>3.659459016881041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.559291320242539</v>
+        <v>0.5592913202425418</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.649639448944847</v>
+        <v>-4.64963944894478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5598229227107889</v>
+        <v>0.5598229227107947</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1286.901600310477</v>
+        <v>-12.8690160031048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07206797108396593</v>
+        <v>0.07206797108396576</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-454.2054380803811</v>
+        <v>-4.542054380803805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4257433029946897</v>
+        <v>0.4257433029946907</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9449.200765503909</v>
+        <v>94.49200765503923</v>
       </c>
       <c r="C10" t="n">
-        <v>3.268907009721631e-08</v>
+        <v>3.268907009721541e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.933455044094529</v>
+        <v>8.933455044094494</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5192344596786467</v>
+        <v>0.5192344596786483</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.3826536317083</v>
+        <v>255.3826536317501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8479083886320886</v>
+        <v>0.8479083886320639</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.21921477050564</v>
+        <v>64.21921477048996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06628291465937665</v>
+        <v>0.06628291465937647</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.3705560765497</v>
+        <v>129.3705560765533</v>
       </c>
       <c r="C4" t="n">
-        <v>1.587566909738903e-07</v>
+        <v>1.587566909736389e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007493639694484036</v>
+        <v>-0.749363969447661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5208800839131984</v>
+        <v>0.5208800839136078</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.354204155982167</v>
+        <v>6.354204155982263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2876337423901464</v>
+        <v>0.287633742390139</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.570854715065749</v>
+        <v>-1.570854715065778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8270091022718127</v>
+        <v>0.8270091022718093</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1043.661639328146</v>
+        <v>-10.43661639328151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1128085606975923</v>
+        <v>0.1128085606975905</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-504.7878183989137</v>
+        <v>-5.04787818398918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3701857583161475</v>
+        <v>0.370185758316143</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9334.682279464318</v>
+        <v>93.34682279464312</v>
       </c>
       <c r="C10" t="n">
-        <v>3.325581153800434e-08</v>
+        <v>3.325581153800338e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.82149536237284</v>
+        <v>10.82149536237279</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4337903039407446</v>
+        <v>0.4337903039407467</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022.134900231724</v>
+        <v>2022.134900231464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1754057031137146</v>
+        <v>0.1754057031137771</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.76529639296078</v>
+        <v>52.76529639299157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09993107245064035</v>
+        <v>0.09993107245063522</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.3615555606867</v>
+        <v>130.3615555606895</v>
       </c>
       <c r="C4" t="n">
-        <v>7.265465012969377e-08</v>
+        <v>7.265465012961303e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003928706984847128</v>
+        <v>-0.3928706984847943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7356195545832462</v>
+        <v>0.7356195545831768</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3768750191115999</v>
+        <v>0.3768750191116084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.945834630088631</v>
+        <v>0.9458346300886298</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.439903723888948</v>
+        <v>-8.439903723889017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2567591814704771</v>
+        <v>0.2567591814704728</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1449.772952902397</v>
+        <v>-14.49772952902401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03664418725980877</v>
+        <v>0.0366441872598082</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-571.8762544684892</v>
+        <v>-5.718762544684928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3313223179442767</v>
+        <v>0.3313223179442729</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7427.170518120065</v>
+        <v>74.27170518120076</v>
       </c>
       <c r="C10" t="n">
-        <v>2.277257240204792e-05</v>
+        <v>2.277257240204754e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.156100337442396</v>
+        <v>4.156100337442226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7838915940984263</v>
+        <v>0.783891594098435</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6029085405298</v>
+        <v>192.6029085405389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8893571969303722</v>
+        <v>0.889357196930367</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.38985727289583</v>
+        <v>36.38985727291048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2499319350538302</v>
+        <v>0.2499319350538413</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.8984571740838</v>
+        <v>141.8984571740768</v>
       </c>
       <c r="C4" t="n">
-        <v>1.168657364643581e-08</v>
+        <v>1.168657364648026e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007345264607741687</v>
+        <v>-0.7345264607745401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5530044484092289</v>
+        <v>0.5530044484090083</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.931891811194898</v>
+        <v>4.931891811194907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3952918889450545</v>
+        <v>0.3952918889450543</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.646840626629057</v>
+        <v>-2.646840626629011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.713432104102522</v>
+        <v>0.7134321041025269</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-974.1771060252968</v>
+        <v>-9.741771060253042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1543874029921886</v>
+        <v>0.1543874029921852</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-345.4803279086104</v>
+        <v>-3.454803279086128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5548089675194077</v>
+        <v>0.5548089675194054</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10089.77274519882</v>
+        <v>100.8977274519881</v>
       </c>
       <c r="C10" t="n">
-        <v>6.804471328604524e-09</v>
+        <v>6.804471328604723e-09</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.32121153744608</v>
+        <v>12.32121153744602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3789628343050241</v>
+        <v>0.3789628343050263</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1482.948074724239</v>
+        <v>1482.94807472457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3192965039767207</v>
+        <v>0.3192965039766094</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.86787133685053</v>
+        <v>76.86787133684098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02527895031993898</v>
+        <v>0.02527895031993874</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.6990461772511</v>
+        <v>123.6990461772347</v>
       </c>
       <c r="C4" t="n">
-        <v>2.675693658686728e-07</v>
+        <v>2.675693658703571e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003066245294646001</v>
+        <v>-0.3066245294642385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7952968530479245</v>
+        <v>0.7952968530481611</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.01784113908115</v>
+        <v>2.017841139081079</v>
       </c>
       <c r="C6" t="n">
-        <v>0.744623500357904</v>
+        <v>0.7446235003579127</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.968412610102151</v>
+        <v>-5.968412610102193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4726663665593597</v>
+        <v>0.4726663665593568</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1316.89580181439</v>
+        <v>-13.1689580181438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04899480859682067</v>
+        <v>0.04899480859682231</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-405.0375209021253</v>
+        <v>-4.050375209021276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4762720728791343</v>
+        <v>0.4762720728791319</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341.991015819642</v>
+        <v>83.4199101581965</v>
       </c>
       <c r="C10" t="n">
-        <v>5.531495230694757e-07</v>
+        <v>5.531495230694452e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.222205508017865</v>
+        <v>1.222205508018057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9327195036260201</v>
+        <v>0.9327195036260094</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1699.458442611247</v>
+        <v>1699.458442611304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1556443166397727</v>
+        <v>0.1556443166397571</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.20006580408577</v>
+        <v>25.20006580407912</v>
       </c>
       <c r="C3" t="n">
-        <v>0.39453479721982</v>
+        <v>0.3945347972198288</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.5424456550777</v>
+        <v>133.5424456550766</v>
       </c>
       <c r="C4" t="n">
-        <v>7.020052359135899e-10</v>
+        <v>7.020052359147946e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003188528442832801</v>
+        <v>-0.03188528442698724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9769623290058524</v>
+        <v>0.9769623290068232</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.231772413694239</v>
+        <v>-3.231772413694141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5432141505335751</v>
+        <v>0.5432141505335866</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.18327425338793</v>
+        <v>-11.18327425338795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1009243275475425</v>
+        <v>0.1009243275475419</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-187.0141485465424</v>
+        <v>-1.870141485465609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7923821204355725</v>
+        <v>0.7923821204355528</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.43383010951356</v>
+        <v>0.4843383010949935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9265314383294142</v>
+        <v>0.9265314383294359</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7684.550749662692</v>
+        <v>76.84550749662687</v>
       </c>
       <c r="C10" t="n">
-        <v>7.761196007621028e-07</v>
+        <v>7.761196007621229e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3947,7 +3947,7 @@
         <v>11.15496422783956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3936783619108022</v>
+        <v>0.3936783619108025</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.3234649980259</v>
+        <v>634.3234649980268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6617156040130032</v>
+        <v>0.6617156040130026</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.03318639444467</v>
+        <v>69.03318639443199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05305618012680891</v>
+        <v>0.0530561801268094</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.7739280848309</v>
+        <v>118.7739280848478</v>
       </c>
       <c r="C4" t="n">
-        <v>1.114683246434257e-06</v>
+        <v>1.114683246427171e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01723170627419048</v>
+        <v>-1.723170627419143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.175861881251162</v>
+        <v>0.1758618812511391</v>
       </c>
     </row>
     <row r="6">
@@ -4048,7 +4048,7 @@
         <v>5.769718350125785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3334638115943527</v>
+        <v>0.3334638115943523</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.398588839606255</v>
+        <v>-4.398588839606262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5372201809786638</v>
+        <v>0.5372201809786628</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-965.8949231010993</v>
+        <v>-9.658949231010864</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1770910869665528</v>
+        <v>0.1770910869665585</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-387.6172251213488</v>
+        <v>-3.876172251213461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4879559375701279</v>
+        <v>0.4879559375701308</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9096.632869072655</v>
+        <v>90.96632869072667</v>
       </c>
       <c r="C10" t="n">
-        <v>1.253815768686117e-07</v>
+        <v>1.253815768686087e-07</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.90807610975345</v>
+        <v>12.9080761097537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3842834854842435</v>
+        <v>0.3842834854842353</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-845.0902670326593</v>
+        <v>-845.0902670322664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5422651617010819</v>
+        <v>0.5422651617012582</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.96663172042403</v>
+        <v>76.96663172039814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03056418547141601</v>
+        <v>0.03056418547141478</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.9741869816669</v>
+        <v>119.9741869816475</v>
       </c>
       <c r="C4" t="n">
-        <v>3.161802572536442e-07</v>
+        <v>3.161802572562317e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008828603530141263</v>
+        <v>-0.8828603530150496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4483436766002385</v>
+        <v>0.4483436765997315</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.610259190767295</v>
+        <v>6.610259190767366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2765799164041005</v>
+        <v>0.2765799164040953</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.387505135395294</v>
+        <v>1.387505135395269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8563562091496665</v>
+        <v>0.8563562091496693</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-363.2872488390774</v>
+        <v>-3.632872488390817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6095843464022519</v>
+        <v>0.6095843464022481</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-130.8610113715017</v>
+        <v>-1.308610113715137</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8089827406252439</v>
+        <v>0.808982740625227</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8917.517830739516</v>
+        <v>89.17517830739517</v>
       </c>
       <c r="C10" t="n">
-        <v>7.481167312681556e-08</v>
+        <v>7.48116731268135e-08</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.24751631728257</v>
+        <v>26.24751631728261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05139413289410028</v>
+        <v>0.0513941328941</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.679185168683</v>
+        <v>274.679185168995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8312107996447395</v>
+        <v>0.8312107996445497</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.24107062265263</v>
+        <v>90.241070622601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01002732073271654</v>
+        <v>0.01002732073271685</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.8925057762346</v>
+        <v>127.892505776242</v>
       </c>
       <c r="C4" t="n">
-        <v>4.548168725533066e-08</v>
+        <v>4.548168725520645e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002474503006306181</v>
+        <v>-0.2474503006304758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8308481373435377</v>
+        <v>0.8308481373436258</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.273980779222237</v>
+        <v>4.273980779222217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4540849546655811</v>
+        <v>0.4540849546655836</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.229585268588854</v>
+        <v>-5.229585268588886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4569170376315971</v>
+        <v>0.4569170376315943</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-942.31330881539</v>
+        <v>-9.423133088153932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1519967148391267</v>
+        <v>0.1519967148391256</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-638.1571538413052</v>
+        <v>-6.381571538412977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2689772929270761</v>
+        <v>0.2689772929270817</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10096.07429938341</v>
+        <v>100.9607429938339</v>
       </c>
       <c r="C10" t="n">
-        <v>1.138389039470538e-09</v>
+        <v>1.138389039470518e-09</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.37829072892079</v>
+        <v>16.37829072892076</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2241822550005152</v>
+        <v>0.2241822550005159</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764.4389251061639</v>
+        <v>764.4389251061557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5994801977889912</v>
+        <v>0.5994801977889949</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.1530578220589</v>
+        <v>51.15305782205711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1626106913276328</v>
+        <v>0.1626106913276308</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.6242702970921</v>
+        <v>130.6242702970955</v>
       </c>
       <c r="C4" t="n">
-        <v>8.632702271524713e-07</v>
+        <v>8.632702271513905e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006977397696577285</v>
+        <v>-0.6977397696575292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5849375156062424</v>
+        <v>0.5849375156063651</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.309886344789596</v>
+        <v>2.309886344789602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7035230436417423</v>
+        <v>0.7035230436417417</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.538698865789993</v>
+        <v>-4.538698865789982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5648843060354699</v>
+        <v>0.5648843060354707</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-668.4906846375366</v>
+        <v>-6.684906846375256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3368565612863479</v>
+        <v>0.3368565612863567</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-311.3875489330671</v>
+        <v>-3.113875489330638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.59339451562422</v>
+        <v>0.5933945156242237</v>
       </c>
     </row>
     <row r="10">
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9521.188932785444</v>
+        <v>95.21188932785452</v>
       </c>
       <c r="C10" t="n">
         <v>1.406370405444937e-07</v>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.180755033251998</v>
+        <v>8.180755033251906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5771811803573099</v>
+        <v>0.5771811803573141</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1375.509557545471</v>
+        <v>1375.509557545705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3232577990941005</v>
+        <v>0.3232577990940172</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.87962826330227</v>
+        <v>71.87962826330119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02852444552486787</v>
+        <v>0.02852444552485816</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.7527981003141</v>
+        <v>125.7527981003155</v>
       </c>
       <c r="C4" t="n">
-        <v>1.902143755757144e-07</v>
+        <v>1.902143755756001e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01272367457967934</v>
+        <v>-1.272367457967689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3085282590350505</v>
+        <v>0.3085282590351658</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.853710536779527</v>
+        <v>4.853710536779481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4162992629220206</v>
+        <v>0.416299262922024</v>
       </c>
     </row>
     <row r="7">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.804627844830359</v>
+        <v>-3.804627844830361</v>
       </c>
       <c r="C7" t="n">
         <v>0.603950421425654</v>
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1512.15673081801</v>
+        <v>-15.1215673081801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02965605452009163</v>
+        <v>0.02965605452009189</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-558.348026636244</v>
+        <v>-5.583480266362423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3344244351278306</v>
+        <v>0.3344244351278323</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8306.435575311283</v>
+        <v>83.06435575311276</v>
       </c>
       <c r="C10" t="n">
-        <v>2.222659491081013e-07</v>
+        <v>2.22265949108103e-07</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004547691378959939</v>
+        <v>0.004547691378867569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9997543855919798</v>
+        <v>0.9997543855919848</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1551.13654584119</v>
+        <v>1551.136545841278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242787195224195</v>
+        <v>0.2427871952241662</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.10757372085149</v>
+        <v>40.10757372084434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1857986827641117</v>
+        <v>0.1857986827641466</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.5740400559907</v>
+        <v>127.5740400559943</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03128562125987e-08</v>
+        <v>1.031285621258414e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004478030757838408</v>
+        <v>-0.4478030757844009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6856971134090756</v>
+        <v>0.685697113408701</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.243726860147333</v>
+        <v>-3.24372686014743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5684214535637639</v>
+        <v>0.5684214535637518</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.90165180514758</v>
+        <v>-11.90165180514765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09374813911205437</v>
+        <v>0.09374813911205282</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-127.0009662996567</v>
+        <v>-1.270009662996554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8578965683356641</v>
+        <v>0.8578965683356652</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143.8118359295809</v>
+        <v>1.438118359295888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7875191302860853</v>
+        <v>0.7875191302860732</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8237.047792896294</v>
+        <v>82.37047792896284</v>
       </c>
       <c r="C10" t="n">
-        <v>2.776141125773223e-06</v>
+        <v>2.776141125773289e-06</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.70888188435706</v>
+        <v>13.70888188435718</v>
       </c>
       <c r="C11" t="n">
-        <v>0.313418162106232</v>
+        <v>0.3134181621062269</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-234.2189772202136</v>
+        <v>-234.2189772203632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8464808495807432</v>
+        <v>0.8464808495806475</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.6547990547477</v>
+        <v>82.65479905474837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01000967368988374</v>
+        <v>0.0100096736898821</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.3210435084163</v>
+        <v>120.3210435084386</v>
       </c>
       <c r="C4" t="n">
-        <v>1.428847557410349e-08</v>
+        <v>1.428847557394908e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003108652937477224</v>
+        <v>-0.3108652937474017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7843908776069131</v>
+        <v>0.7843908776071117</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.033961547716968</v>
+        <v>4.033961547717094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4243413583031234</v>
+        <v>0.4243413583031092</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.708032686981568</v>
+        <v>-3.708032686981367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5351201113517853</v>
+        <v>0.5351201113518083</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1165.288529574012</v>
+        <v>-11.65288529574024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06402392892977375</v>
+        <v>0.06402392892977211</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-382.6078334667618</v>
+        <v>-3.826078334667653</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4485427368298076</v>
+        <v>0.4485427368298048</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9784.897538447825</v>
+        <v>97.84897538447848</v>
       </c>
       <c r="C10" t="n">
-        <v>1.129772391607597e-10</v>
+        <v>1.129772391607528e-10</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.29250948510292</v>
+        <v>27.29250948510247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0348740721501458</v>
+        <v>0.03487407215014842</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>786.7775664705705</v>
+        <v>786.7775664704695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5744189312915942</v>
+        <v>0.5744189312916455</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.89203571802452</v>
+        <v>46.8920357180261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1682743957308093</v>
+        <v>0.1682743957308003</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.787520300571</v>
+        <v>142.7875203005659</v>
       </c>
       <c r="C4" t="n">
-        <v>6.786462618484145e-09</v>
+        <v>6.786462618505024e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001664025498778508</v>
+        <v>-0.1664025498769428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8894901559976676</v>
+        <v>0.8894901559982729</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.369953927709137</v>
+        <v>5.369953927709233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3760726689672308</v>
+        <v>0.3760726689672225</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.82322516672124</v>
+        <v>-4.823225166721155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5542299016067157</v>
+        <v>0.5542299016067231</v>
       </c>
     </row>
     <row r="8">
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1149.025699244567</v>
+        <v>-11.4902569924457</v>
       </c>
       <c r="C8" t="n">
         <v>0.1018063087313699</v>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-717.57249520086</v>
+        <v>-7.17572495200865</v>
       </c>
       <c r="C9" t="n">
-        <v>0.242922247942651</v>
+        <v>0.2429222479426485</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9525.292318245843</v>
+        <v>95.25292318245843</v>
       </c>
       <c r="C10" t="n">
-        <v>1.002531157099014e-08</v>
+        <v>1.002531157099007e-08</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.511686150943788</v>
+        <v>6.511686150943603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6307575589920701</v>
+        <v>0.6307575589920791</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.7151030102616</v>
+        <v>777.7151030102368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5517349701791521</v>
+        <v>0.5517349701791647</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.95441163310672</v>
+        <v>99.95441163308587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004725582674893055</v>
+        <v>0.004725582674893268</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.305222619768</v>
+        <v>135.30522261978</v>
       </c>
       <c r="C4" t="n">
-        <v>9.165449383301616e-09</v>
+        <v>9.165449383261478e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0007478189791703775</v>
+        <v>-0.07478189791685219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.949663249179602</v>
+        <v>0.9496632491797277</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.572313403956936</v>
+        <v>1.572313403957094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7808442241246094</v>
+        <v>0.7808442241245883</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.035381446785099</v>
+        <v>-5.035381446784843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4699402300442785</v>
+        <v>0.4699402300443014</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1088.77509123359</v>
+        <v>-10.88775091233603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09423218883846705</v>
+        <v>0.09423218883846278</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-245.1445838147283</v>
+        <v>-2.45144583814738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6725819257221727</v>
+        <v>0.6725819257221611</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7790.340763202263</v>
+        <v>77.90340763202272</v>
       </c>
       <c r="C10" t="n">
-        <v>6.614950434656287e-07</v>
+        <v>6.614950434656237e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.05916100466465</v>
+        <v>12.05916100466462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3737626912057055</v>
+        <v>0.3737626912057063</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1411.807524538548</v>
+        <v>1411.807524538694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2899523834972244</v>
+        <v>0.28995238349717</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.45413126056751</v>
+        <v>44.45413126057471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1495710676017452</v>
+        <v>0.1495710676017442</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.2726212773899</v>
+        <v>117.2726212773739</v>
       </c>
       <c r="C4" t="n">
-        <v>6.804668365628101e-07</v>
+        <v>6.804668365678674e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008827957087333874</v>
+        <v>-0.8827957087325289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4570866174074564</v>
+        <v>0.4570866174079019</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.434966047811736</v>
+        <v>-1.434966047811779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8041640212695363</v>
+        <v>0.8041640212695308</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.947568545445339</v>
+        <v>-9.94756854544541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1587160479979034</v>
+        <v>0.1587160479979004</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1298.028384527861</v>
+        <v>-12.9802838452785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04705281406629802</v>
+        <v>0.04705281406630035</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-521.9536593668454</v>
+        <v>-5.219536593668401</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3488316774842121</v>
+        <v>0.3488316774842171</v>
       </c>
     </row>
     <row r="10">
@@ -5591,7 +5591,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11089.69430103705</v>
+        <v>110.8969430103704</v>
       </c>
       <c r="C10" t="n">
         <v>2.683277129121759e-10</v>
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.73237208758189</v>
+        <v>14.73237208758171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2961643333270442</v>
+        <v>0.2961643333270502</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.560478849596</v>
+        <v>1268.560478849852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3717341200155289</v>
+        <v>0.3717341200154258</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.4839853185083</v>
+        <v>53.48398531849888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1009914737712784</v>
+        <v>0.1009914737712798</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.3160550012379</v>
+        <v>128.3160550012419</v>
       </c>
       <c r="C4" t="n">
-        <v>6.304759797149998e-07</v>
+        <v>6.304759797138969e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009979010335898979</v>
+        <v>-0.9979010335891685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.473946644395127</v>
+        <v>0.4739466443954469</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.896151002308647</v>
+        <v>4.896151002308566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.422857745238321</v>
+        <v>0.4228577452383281</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.824308546749464</v>
+        <v>-4.824308546749712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5012711103717518</v>
+        <v>0.5012711103717282</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1220.481836736099</v>
+        <v>-12.20481836736104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09133505454215428</v>
+        <v>0.09133505454215264</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-587.99661731321</v>
+        <v>-5.879966173132161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3103072597518685</v>
+        <v>0.3103072597518624</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8838.376844320404</v>
+        <v>88.38376844320445</v>
       </c>
       <c r="C10" t="n">
-        <v>2.315738532258675e-07</v>
+        <v>2.31573853225879e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.368448671657596</v>
+        <v>1.368448671657319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9274487308702863</v>
+        <v>0.9274487308703008</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-285.6773003614344</v>
+        <v>-285.6773003614594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8343286856487947</v>
+        <v>0.8343286856487806</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.72929696092356</v>
+        <v>32.72929696092751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3043563566588809</v>
+        <v>0.3043563566588799</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.5971529443542</v>
+        <v>146.5971529443623</v>
       </c>
       <c r="C4" t="n">
-        <v>2.230713566219379e-10</v>
+        <v>2.230713566202972e-10</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002129023161028205</v>
+        <v>-0.212902316100303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8429779808825266</v>
+        <v>0.8429779808843786</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.506797353958216</v>
+        <v>2.506797353958267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6518127329146937</v>
+        <v>0.6518127329146872</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.635699818674045</v>
+        <v>-3.635699818673961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6289509544986689</v>
+        <v>0.6289509544986766</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>460.2594238514032</v>
+        <v>4.602594238514058</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5409213491054456</v>
+        <v>0.5409213491054432</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>318.3961488101525</v>
+        <v>3.183961488101567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5421376415682755</v>
+        <v>0.5421376415682697</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9080.092470494241</v>
+        <v>90.8009247049423</v>
       </c>
       <c r="C10" t="n">
-        <v>1.217204670690922e-07</v>
+        <v>1.217204670690976e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5939,7 +5939,7 @@
         <v>16.76604976981891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1951148947468123</v>
+        <v>0.1951148947468116</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2759.15536029226</v>
+        <v>2759.155360292349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05588701494501883</v>
+        <v>0.05588701494501017</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.03055598058005</v>
+        <v>36.03055598057115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2984765865780283</v>
+        <v>0.2984765865779924</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.9141831710461</v>
+        <v>121.914183171043</v>
       </c>
       <c r="C4" t="n">
-        <v>3.700863072634267e-07</v>
+        <v>3.700863072640712e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0104134084318034</v>
+        <v>-1.041340843181446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3761645830687084</v>
+        <v>0.3761645830681769</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.335911533076231</v>
+        <v>2.335911533076304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6828349121442094</v>
+        <v>0.6828349121441988</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.07970924642013</v>
+        <v>-13.07970924642015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08262532860731504</v>
+        <v>0.08262532860731453</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1651.405294800913</v>
+        <v>-16.51405294800916</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01539935108163295</v>
+        <v>0.01539935108163265</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1184.120045478603</v>
+        <v>-11.84120045478607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04296551045525567</v>
+        <v>0.04296551045525471</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9354.928371261192</v>
+        <v>93.54928371261194</v>
       </c>
       <c r="C10" t="n">
-        <v>1.68443007642847e-08</v>
+        <v>1.684430076428421e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.8683783765681312</v>
+        <v>-0.8683783765684083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.951482430469342</v>
+        <v>0.9514824304693265</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.8452450408786</v>
+        <v>750.8452450411055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5712732861315299</v>
+        <v>0.5712732861314113</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.2643792214329</v>
+        <v>68.26437922141946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04700803136895024</v>
+        <v>0.04700803136895852</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.3419407295936</v>
+        <v>120.3419407295979</v>
       </c>
       <c r="C4" t="n">
-        <v>1.350114600192277e-07</v>
+        <v>1.350114600190363e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00767216291367848</v>
+        <v>-0.7672162913661269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5046097746287719</v>
+        <v>0.5046097746297481</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.408044930028235</v>
+        <v>4.408044930028355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4372156319240159</v>
+        <v>0.4372156319240034</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.849805144798554</v>
+        <v>-3.849805144798385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5972831768849667</v>
+        <v>0.5972831768849829</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1227.344965057393</v>
+        <v>-12.2734496505742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06193674710388174</v>
+        <v>0.06193674710387714</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-485.1403395154912</v>
+        <v>-4.851403395155174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3949804674305173</v>
+        <v>0.3949804674304922</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8960.572133089398</v>
+        <v>89.60572133089354</v>
       </c>
       <c r="C10" t="n">
-        <v>2.266342298627684e-08</v>
+        <v>2.266342298627791e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.9228555726982</v>
+        <v>10.92285557269784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4295794475843457</v>
+        <v>0.4295794475843588</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1076.703757746197</v>
+        <v>-1076.70375774612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4164330084197965</v>
+        <v>0.4164330084198287</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.93897501794578</v>
+        <v>41.93897501794783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1813683228119537</v>
+        <v>0.1813683228119487</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.8119335168783</v>
+        <v>160.8119335168766</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570752052310524e-11</v>
+        <v>1.570752052312401e-11</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007562365721632915</v>
+        <v>0.7562365721642268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.540323375656396</v>
+        <v>0.5403233756559171</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.459987221554865</v>
+        <v>9.459987221554961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08434937104992032</v>
+        <v>0.08434937104991781</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.847458152017044</v>
+        <v>3.847458152017198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5868628240522684</v>
+        <v>0.5868628240522528</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-889.6415669366424</v>
+        <v>-8.896415669366441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1453175309115134</v>
+        <v>0.1453175309115124</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-827.7475023531674</v>
+        <v>-8.277475023531643</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1014576549729606</v>
+        <v>0.1014576549729617</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9669.565564308888</v>
+        <v>96.69565564308891</v>
       </c>
       <c r="C10" t="n">
-        <v>2.316060194265575e-10</v>
+        <v>2.31606019426555e-10</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.58327876506904</v>
+        <v>17.58327876506905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1822274986884294</v>
+        <v>0.1822274986884296</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.876759174419</v>
+        <v>1979.876759174548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.158969690889854</v>
+        <v>0.1589696908898228</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.15394989092724</v>
+        <v>45.15394989092417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1902897180108878</v>
+        <v>0.1902897180108797</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.2381051712208</v>
+        <v>113.2381051712265</v>
       </c>
       <c r="C4" t="n">
-        <v>4.094575484112551e-06</v>
+        <v>4.094575484101628e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01719859951697075</v>
+        <v>-1.719859951696383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1731977430100327</v>
+        <v>0.1731977430101812</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8345118732504346</v>
+        <v>0.8345118732503636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8851681634461508</v>
+        <v>0.8851681634461603</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.37494288464444</v>
+        <v>-10.37494288464454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1701126764648462</v>
+        <v>0.170112676464841</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1357.31866205916</v>
+        <v>-13.57318662059163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04236325615716525</v>
+        <v>0.04236325615716496</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-570.7845534433818</v>
+        <v>-5.707845534433864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3164645520373657</v>
+        <v>0.316464552037361</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10171.47351750483</v>
+        <v>101.7147351750485</v>
       </c>
       <c r="C10" t="n">
-        <v>1.663636614473529e-08</v>
+        <v>1.663636614473578e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.344870397170538</v>
+        <v>6.344870397170176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6440027628083091</v>
+        <v>0.6440027628083274</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>766.308621685954</v>
+        <v>766.3086216862862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5416980283003632</v>
+        <v>0.5416980283001842</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.28575226050091</v>
+        <v>68.28575226051316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02885845429241311</v>
+        <v>0.02885845429241448</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.2895058200096</v>
+        <v>118.2895058200089</v>
       </c>
       <c r="C4" t="n">
-        <v>1.347740053733978e-07</v>
+        <v>1.347740053734601e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008914282840368701</v>
+        <v>-0.8914282840353875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.412632151816741</v>
+        <v>0.4126321518175283</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.544524437175518</v>
+        <v>-0.5445244371753653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9208183924724456</v>
+        <v>0.9208183924724678</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.498494915921173</v>
+        <v>-5.498494915921087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4029534349941426</v>
+        <v>0.4029534349941497</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1232.923895462894</v>
+        <v>-12.32923895462901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05778382036601708</v>
+        <v>0.05778382036601577</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-67.84479072771319</v>
+        <v>-0.6784479072772136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8983825884191891</v>
+        <v>0.8983825884191771</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9356.941201841919</v>
+        <v>93.56941201841889</v>
       </c>
       <c r="C10" t="n">
-        <v>8.523764163108466e-09</v>
+        <v>8.523764163108966e-09</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.69927222564198</v>
+        <v>16.69927222564165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220037219184116</v>
+        <v>0.2200372191841244</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.0619501297347</v>
+        <v>634.0619501298156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6576462162974842</v>
+        <v>0.6576462162974425</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.18428829356773</v>
+        <v>67.18428829354454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05239058415064365</v>
+        <v>0.05239058415064277</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0727639472866</v>
+        <v>142.0727639472871</v>
       </c>
       <c r="C4" t="n">
-        <v>5.08481223305705e-08</v>
+        <v>5.084812233055632e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001176357542872902</v>
+        <v>-0.1176357542865425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9294095090823949</v>
+        <v>0.9294095090828403</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.47557108711514</v>
+        <v>1.475571087115105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8108719076746665</v>
+        <v>0.8108719076746714</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.013042279399002</v>
+        <v>-5.013042279399052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5143970415663531</v>
+        <v>0.5143970415663494</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-875.1048868483631</v>
+        <v>-8.751048868483544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2238673777732064</v>
+        <v>0.2238673777732116</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-57.95052420083448</v>
+        <v>-0.5795052420083575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9274361548280914</v>
+        <v>0.9274361548280897</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9138.724054454986</v>
+        <v>91.38724054454971</v>
       </c>
       <c r="C10" t="n">
-        <v>5.977450200221449e-07</v>
+        <v>5.977450200221791e-07</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.853456834633928</v>
+        <v>7.853456834633771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6033906254797399</v>
+        <v>0.6033906254797466</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1921.216102349787</v>
+        <v>1921.216102349951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1473468413336771</v>
+        <v>0.1473468413336398</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.04494247759496</v>
+        <v>65.04494247756723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04589263001202304</v>
+        <v>0.04589263001202414</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.1888397587145</v>
+        <v>113.1888397587166</v>
       </c>
       <c r="C4" t="n">
-        <v>1.555311154229908e-07</v>
+        <v>1.555311154228474e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008258908055853453</v>
+        <v>-0.8258908055858751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4341555014400029</v>
+        <v>0.4341555014397329</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2689440916582839</v>
+        <v>0.2689440916583834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9630283992037455</v>
+        <v>0.9630283992037318</v>
       </c>
     </row>
     <row r="7">
@@ -7049,7 +7049,7 @@
         <v>-11.94680163090754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09494884246966109</v>
+        <v>0.09494884246966082</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-124.1141007623474</v>
+        <v>-1.241141007623555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8768592007454302</v>
+        <v>0.8768592007454225</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.031722822348</v>
+        <v>0.4703172282234096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9344425066224007</v>
+        <v>0.9344425066224105</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7348.599265817663</v>
+        <v>73.48599265817677</v>
       </c>
       <c r="C10" t="n">
-        <v>1.828133041559797e-06</v>
+        <v>1.82813304155977e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.575899236137422</v>
+        <v>5.575899236137285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.687209740949225</v>
+        <v>0.6872097409492328</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1050.56344180995</v>
+        <v>1050.563441810134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4189306825549156</v>
+        <v>0.4189306825548312</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.68085273786009</v>
+        <v>40.68085273785404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2299045006647487</v>
+        <v>0.2299045006647466</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.7861756660345</v>
+        <v>132.7861756660283</v>
       </c>
       <c r="C4" t="n">
-        <v>1.038779928112262e-08</v>
+        <v>1.038779928116706e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006686879189834412</v>
+        <v>-0.6686879189841211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5468185834052044</v>
+        <v>0.5468185834047988</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.644281349055159</v>
+        <v>1.644281349055118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7831876560648614</v>
+        <v>0.7831876560648671</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.938078084195144</v>
+        <v>-8.938078084195141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2196884554862775</v>
+        <v>0.2196884554862776</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-40.01793879796514</v>
+        <v>-0.4001793879796764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.955743005272939</v>
+        <v>0.9557430052729363</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-128.9023425481752</v>
+        <v>-1.289023425481755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8189474797348053</v>
+        <v>0.818947479734805</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7768.063210010201</v>
+        <v>77.68063210010195</v>
       </c>
       <c r="C10" t="n">
-        <v>2.648877000471037e-06</v>
+        <v>2.648877000471136e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.40766030867035</v>
+        <v>16.40766030867014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2395601392118768</v>
+        <v>0.2395601392118829</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.058715810459</v>
+        <v>344.0587158104086</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8064113069700852</v>
+        <v>0.8064113069701137</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.32276017326735</v>
+        <v>61.32276017327764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08086253241303869</v>
+        <v>0.08086253241303995</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.6884243944611</v>
+        <v>149.6884243944542</v>
       </c>
       <c r="C4" t="n">
-        <v>1.002064465749369e-09</v>
+        <v>1.002064465752699e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00456805318000858</v>
+        <v>0.4568053180032114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6867151946246097</v>
+        <v>0.6867151946231295</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.716501466032833</v>
+        <v>3.716501466032779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5224884171605626</v>
+        <v>0.5224884171605693</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.029383140444885</v>
+        <v>-6.029383140444978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4091493756848293</v>
+        <v>0.4091493756848213</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1014.628171734437</v>
+        <v>-10.14628171734428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1268331965117215</v>
+        <v>0.1268331965117247</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-807.9317980720775</v>
+        <v>-8.079317980720802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.149296210317972</v>
+        <v>0.1492962103179704</v>
       </c>
     </row>
     <row r="10">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10171.72894116057</v>
+        <v>101.7172894116059</v>
       </c>
       <c r="C10" t="n">
         <v>2.658149945116199e-10</v>
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.94161162345186</v>
+        <v>14.94161162345203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2815851866668676</v>
+        <v>0.2815851866668624</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2162.346384167131</v>
+        <v>2162.346384167302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07726535512059887</v>
+        <v>0.07726535512057495</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.15994853025074</v>
+        <v>61.15994853028457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04491343977062451</v>
+        <v>0.04491343977060506</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.5519401591406</v>
+        <v>116.5519401591209</v>
       </c>
       <c r="C4" t="n">
-        <v>5.203617348682347e-08</v>
+        <v>5.20361734872927e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01086605408296816</v>
+        <v>-1.086605408296017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3132180792792257</v>
+        <v>0.3132180792795791</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6957697340800522</v>
+        <v>-0.6957697340800451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8953646299826203</v>
+        <v>0.895364629982621</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.995114414563719</v>
+        <v>-6.995114414563641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2854875877833165</v>
+        <v>0.285487587783322</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1596.171833170988</v>
+        <v>-15.96171833170995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0188869049023247</v>
+        <v>0.01888690490232434</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-312.962705326336</v>
+        <v>-3.129627053263369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5529831088639346</v>
+        <v>0.5529831088639336</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136.975774572595</v>
+        <v>71.36975774572602</v>
       </c>
       <c r="C10" t="n">
-        <v>2.241738020995991e-06</v>
+        <v>2.241738020995937e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.216276726777664</v>
+        <v>1.21627672677738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9243563325986043</v>
+        <v>0.9243563325986219</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>464.3676330002049</v>
+        <v>464.3676330001985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7466764182220457</v>
+        <v>0.7466764182220484</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.52313303114691</v>
+        <v>53.52313303114244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1205900474777252</v>
+        <v>0.1205900474777193</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.160705059543</v>
+        <v>136.16070505955</v>
       </c>
       <c r="C4" t="n">
-        <v>3.258959811049398e-07</v>
+        <v>3.258959811039675e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0006354116913060565</v>
+        <v>-0.06354116912987262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9620171748108286</v>
+        <v>0.9620171748112667</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09429864222571771</v>
+        <v>0.09429864222564843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9876007786089813</v>
+        <v>0.9876007786089904</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.911715329715271</v>
+        <v>-4.911715329715443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5137554939603716</v>
+        <v>0.5137554939603555</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-867.6575086785411</v>
+        <v>-8.676575086785469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21584426192863</v>
+        <v>0.2158442619286266</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-41.40645581328488</v>
+        <v>-0.4140645581329006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9444620142536728</v>
+        <v>0.9444620142536659</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9979.667521749308</v>
+        <v>99.79667521749334</v>
       </c>
       <c r="C10" t="n">
-        <v>3.381180687796164e-08</v>
+        <v>3.381180687796239e-08</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.84653605446051</v>
+        <v>12.84653605446022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3688201247204848</v>
+        <v>0.3688201247204944</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.1400850451701</v>
+        <v>825.1400850446707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5140650681304886</v>
+        <v>0.5140650681307468</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.39879015691821</v>
+        <v>91.3987901569274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002673705361471024</v>
+        <v>0.002673705361471175</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.7561597496372</v>
+        <v>144.7561597496548</v>
       </c>
       <c r="C4" t="n">
-        <v>3.590321023735461e-10</v>
+        <v>3.590321023712253e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005850060420826003</v>
+        <v>0.5850060420837129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6088665088653707</v>
+        <v>0.6088665088646757</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2940352600217562</v>
+        <v>0.2940352600217082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9550744109976588</v>
+        <v>0.9550744109976662</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.001652004992962</v>
+        <v>-4.001652004992941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5447010816527382</v>
+        <v>0.5447010816527398</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1096.722721982791</v>
+        <v>-10.96722721982782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08793174857945676</v>
+        <v>0.08793174857945871</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-446.5888375562495</v>
+        <v>-4.465888375562415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3897690025089486</v>
+        <v>0.3897690025089569</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8015.012899441675</v>
+        <v>80.15012899441669</v>
       </c>
       <c r="C10" t="n">
-        <v>9.464099332152068e-08</v>
+        <v>9.464099332152036e-08</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.711521045038225</v>
+        <v>6.711521045038133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6167517584128193</v>
+        <v>0.6167517584128237</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-63.10222918698037</v>
+        <v>-63.10222918761974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9638249877158449</v>
+        <v>0.9638249877154794</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.83957636314113</v>
+        <v>64.83957636314859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03641978966110648</v>
+        <v>0.03641978966110373</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.99266813821</v>
+        <v>117.9926681382342</v>
       </c>
       <c r="C4" t="n">
-        <v>2.691808012279988e-07</v>
+        <v>2.691808012254847e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0130590271832017</v>
+        <v>-1.30590271831841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.332920895552976</v>
+        <v>0.3329208955536427</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.194607577768705</v>
+        <v>8.194607577768409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1413570705344178</v>
+        <v>0.1413570705344308</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6130882408751184</v>
+        <v>-0.6130882408755021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9344680329330584</v>
+        <v>0.9344680329330171</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1126.283254426061</v>
+        <v>-11.26283254426058</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09277184985745117</v>
+        <v>0.09277184985745215</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-408.47755466475</v>
+        <v>-4.084775546647499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4679929463264354</v>
+        <v>0.4679929463264358</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10532.02104729536</v>
+        <v>105.3202104729542</v>
       </c>
       <c r="C10" t="n">
-        <v>1.775038147157595e-09</v>
+        <v>1.775038147157659e-09</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.64267387537407</v>
+        <v>11.64267387537389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4160667454940196</v>
+        <v>0.4160667454940262</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.976878369874</v>
+        <v>1265.976878369882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.352355848253108</v>
+        <v>0.3523558482531046</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.60239705806469</v>
+        <v>12.60239705805974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7229879605512521</v>
+        <v>0.722987960551259</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.7704562329569</v>
+        <v>150.7704562329596</v>
       </c>
       <c r="C4" t="n">
-        <v>1.771560849442385e-09</v>
+        <v>1.771560849433366e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008503941414881012</v>
+        <v>-0.8503941414860443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4678519491984512</v>
+        <v>0.467851949199553</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.120622673942712</v>
+        <v>3.120622673942648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5822132633965982</v>
+        <v>0.5822132633966064</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.51167211846302</v>
+        <v>-11.5116721184631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1283080018694218</v>
+        <v>0.1283080018694189</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-673.4897260161333</v>
+        <v>-6.73489726016129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3198579788895181</v>
+        <v>0.319857978889522</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-199.8587626025217</v>
+        <v>-1.998587626025143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7263372361676412</v>
+        <v>0.7263372361676508</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9575.77992202466</v>
+        <v>95.75779922024661</v>
       </c>
       <c r="C10" t="n">
-        <v>1.967663425587397e-08</v>
+        <v>1.967663425587462e-08</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.54531060239189</v>
+        <v>8.545310602391822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5298431132908137</v>
+        <v>0.5298431132908168</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.2329616038287</v>
+        <v>308.2329616034922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8163702014138606</v>
+        <v>0.8163702014140599</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.76610630856803</v>
+        <v>73.76610630854736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01805401281394627</v>
+        <v>0.01805401281394641</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.3927985518492</v>
+        <v>121.3927985518597</v>
       </c>
       <c r="C4" t="n">
-        <v>1.919039097407209e-08</v>
+        <v>1.919039097398363e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01071155718183397</v>
+        <v>-1.071155718184086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3530101359029354</v>
+        <v>0.3530101359026501</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.517621789868027</v>
+        <v>1.517621789868059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7904280861691932</v>
+        <v>0.7904280861691887</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.53924089136347</v>
+        <v>-2.539240891363448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7348463886665508</v>
+        <v>0.7348463886665524</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-475.8778062162239</v>
+        <v>-4.758778062162353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5216471067646202</v>
+        <v>0.5216471067646093</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312.447317690649</v>
+        <v>3.124473176906469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5664924858986489</v>
+        <v>0.5664924858986511</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6862.933206180242</v>
+        <v>68.62933206180247</v>
       </c>
       <c r="C10" t="n">
-        <v>7.792276800683412e-06</v>
+        <v>7.792276800683297e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.24380760295195</v>
+        <v>20.243807602952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1444185933740014</v>
+        <v>0.1444185933740011</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.8380013252072</v>
+        <v>383.8380013251663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7593226219475269</v>
+        <v>0.7593226219475528</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.341802044713</v>
+        <v>42.34180204470693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1717807340489794</v>
+        <v>0.1717807340489867</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.6628755612469</v>
+        <v>145.6628755612596</v>
       </c>
       <c r="C4" t="n">
-        <v>3.420616387721178e-10</v>
+        <v>3.420616387695412e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008711878569099607</v>
+        <v>0.8711878569109177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4696723630235002</v>
+        <v>0.4696723630230096</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.638467191275868</v>
+        <v>2.638467191275833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6261816303861145</v>
+        <v>0.6261816303861192</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.957933701240435</v>
+        <v>-2.957933701240371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6665153876965364</v>
+        <v>0.6665153876965435</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1393.04433704449</v>
+        <v>-13.93044337044485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03477795693504344</v>
+        <v>0.03477795693504413</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-922.5810723040778</v>
+        <v>-9.225810723040784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1029246785889156</v>
+        <v>0.1029246785889153</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10358.53295319675</v>
+        <v>103.5853295319675</v>
       </c>
       <c r="C10" t="n">
-        <v>6.563863213736641e-11</v>
+        <v>6.563863213736714e-11</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.01164090989764</v>
+        <v>12.01164090989762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3468491721921223</v>
+        <v>0.3468491721921227</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.6208184891739</v>
+        <v>316.6208184889783</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8169558788739326</v>
+        <v>0.8169558788740443</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.19198528319706</v>
+        <v>70.19198528316639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03911750686208507</v>
+        <v>0.03911750686208529</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.24714415874</v>
+        <v>122.2471441587595</v>
       </c>
       <c r="C4" t="n">
-        <v>6.42250747793281e-07</v>
+        <v>6.422507477885439e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01184068886514605</v>
+        <v>-1.184068886513302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3187819852258419</v>
+        <v>0.3187819852263888</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.111755954525226</v>
+        <v>4.111755954525192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5055555720588809</v>
+        <v>0.5055555720588847</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.178498013427987</v>
+        <v>-5.17849801342785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4690717004492617</v>
+        <v>0.4690717004492728</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-840.9136319376116</v>
+        <v>-8.4091363193762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2246949921290108</v>
+        <v>0.2246949921290064</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-254.2165157830999</v>
+        <v>-2.542165157830929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6580777587628757</v>
+        <v>0.6580777587628845</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10092.72541301112</v>
+        <v>100.9272541301114</v>
       </c>
       <c r="C10" t="n">
-        <v>3.973016779808136e-08</v>
+        <v>3.973016779808065e-08</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.71248656154195</v>
+        <v>17.712486561542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2340631258124831</v>
+        <v>0.2340631258124817</v>
       </c>
     </row>
   </sheetData>
